--- a/DataSets/makeGaussian.xlsx
+++ b/DataSets/makeGaussian.xlsx
@@ -1852,307 +1852,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.386679994165317E-9</c:v>
+                  <c:v>1.2070682381235598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6695566147628518E-9</c:v>
+                  <c:v>1.2616396227334574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0881402816450746E-9</c:v>
+                  <c:v>1.3156913596880988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6014333703123359E-9</c:v>
+                  <c:v>1.3689510860393781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7937839079640923E-8</c:v>
+                  <c:v>1.4211405905178409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3178842435473043E-8</c:v>
+                  <c:v>1.4719781467574591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0758828498232422E-8</c:v>
+                  <c:v>1.5211809786778678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1015763624682307E-7</c:v>
+                  <c:v>1.568467828963104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9773196406244601E-7</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5139550948204332E-7</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1826205001658242E-7</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0769760042543274E-6</c:v>
+                  <c:v>1.7330320081689699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8573618445552897E-6</c:v>
+                  <c:v>1.7667591097301627</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.171349216715976E-6</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3610353446976141E-6</c:v>
+                  <c:v>1.8237464759248199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9724351623833359E-6</c:v>
+                  <c:v>1.8466340396181411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4867195147342977E-5</c:v>
+                  <c:v>1.8655737107410497</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4389607458933656E-5</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.961299091032075E-5</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3698251788670899E-5</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0140852065486758E-4</c:v>
+                  <c:v>1.8997251447687271</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5983741106905474E-4</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4942471290053536E-4</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8535196742087125E-4</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.8943067756539848E-4</c:v>
+                  <c:v>1.8655737107410497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9261657177132922E-4</c:v>
+                  <c:v>1.8466340396181415</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3383022576488536E-3</c:v>
+                  <c:v>1.8237464759248199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.986554713927727E-3</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.9194692579146025E-3</c:v>
+                  <c:v>1.7667591097301627</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.2478027055075146E-3</c:v>
+                  <c:v>1.7330320081689699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1190193011377188E-3</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.7268269504576015E-3</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2322191684730199E-2</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.722568939053681E-2</c:v>
+                  <c:v>1.568467828963104</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3840882014648443E-2</c:v>
+                  <c:v>1.5211809786778678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.2668190561999245E-2</c:v>
+                  <c:v>1.4719781467574591</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.4318484119379997E-2</c:v>
+                  <c:v>1.4211405905178411</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.9525324197758474E-2</c:v>
+                  <c:v>1.3689510860393781</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.9154515829799571E-2</c:v>
+                  <c:v>1.3156913596880988</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1042093481442259</c:v>
+                  <c:v>1.2616396227334574</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.13582969233685613</c:v>
+                  <c:v>1.2070682381235598</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.17528300493568541</c:v>
+                  <c:v>1.152241545329254</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.22394530294842882</c:v>
+                  <c:v>1.097413865681877</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28327037741601158</c:v>
+                  <c:v>1.0428277068887588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35474592846231423</c:v>
+                  <c:v>0.98871218150095486</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.43983595980427187</c:v>
+                  <c:v>0.93528165011429298</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.53990966513188055</c:v>
+                  <c:v>0.8827345960909202</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.65615814774676595</c:v>
+                  <c:v>0.83125273467333394</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.78950158300894091</c:v>
+                  <c:v>0.78100035559996972</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.94049077376886858</c:v>
+                  <c:v>0.73212389478724882</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1092083467945553</c:v>
+                  <c:v>0.68475172737556311</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2951759566589167</c:v>
+                  <c:v>0.63899417149470894</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.4972746563574484</c:v>
+                  <c:v>0.59494368952653265</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>0.55267527145741291</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>0.51224698313875705</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.1785217703255055</c:v>
+                  <c:v>0.47370066091785079</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.4197072451914337</c:v>
+                  <c:v>0.437062733162419</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.6608524989875493</c:v>
+                  <c:v>0.40234514866943938</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.8969155276148255</c:v>
+                  <c:v>0.36954639180327659</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1225393336676115</c:v>
+                  <c:v>0.33865256442425462</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.3322460289179952</c:v>
+                  <c:v>0.30963851521458702</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.5206532676429942</c:v>
+                  <c:v>0.28246899784764451</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.6827014030332323</c:v>
+                  <c:v>0.25709984053899076</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.8138781546052405</c:v>
+                  <c:v>0.23347911082121831</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.9104269397545588</c:v>
+                  <c:v>0.21154826085620138</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>0.19124324019477679</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.9894228040143269</c:v>
+                  <c:v>0.17249556457300708</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>0.15523333105600143</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.9104269397545588</c:v>
+                  <c:v>0.13938217156743216</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.8138781546052405</c:v>
+                  <c:v>0.12486613854147374</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.6827014030332323</c:v>
+                  <c:v>0.11160851807381066</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.5206532676429956</c:v>
+                  <c:v>9.9532567503762701E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3322460289179978</c:v>
+                  <c:v>8.8562175808973742E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1225393336676137</c:v>
+                  <c:v>7.8622446520490788E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.8969155276148286</c:v>
+                  <c:v>6.9640204056819088E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6608524989875493</c:v>
+                  <c:v>6.1544425422277664E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.4197072451914337</c:v>
+                  <c:v>5.4266600113321108E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.1785217703255055</c:v>
+                  <c:v>4.7741021825659265E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>4.1905016157530305E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>3.669910896568214E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.4972746563574484</c:v>
+                  <c:v>3.2067140358239203E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2951759566589167</c:v>
+                  <c:v>2.7956329512303771E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.1092083467945553</c:v>
+                  <c:v>2.4317295594999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.94049077376886858</c:v>
+                  <c:v>2.1104040056847618E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.78950158300894258</c:v>
+                  <c:v>1.8273895468642155E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.65615814774676662</c:v>
+                  <c:v>1.5787445900418341E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.53990966513188099</c:v>
+                  <c:v>1.3608423606548167E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.43983595980427231</c:v>
+                  <c:v>1.1703586497102979E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.35474592846231456</c:v>
+                  <c:v>1.0042580554261509E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.28327037741601185</c:v>
+                  <c:v>8.5977910048888554E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.22394530294842899</c:v>
+                  <c:v>7.3441856966243238E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.17528300493568541</c:v>
+                  <c:v>6.2591537540093011E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13582969233685613</c:v>
+                  <c:v>5.3223422213421138E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.1042093481442259</c:v>
+                  <c:v>4.5154930368999577E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.9154515829799571E-2</c:v>
+                  <c:v>3.8222823346066364E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.9525324197758474E-2</c:v>
+                  <c:v>3.2281637387270323E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.4318484119380191E-2</c:v>
+                  <c:v>2.7202170082627937E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.2668190561999273E-2</c:v>
+                  <c:v>2.2870031029562847E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.3840882014648485E-2</c:v>
+                  <c:v>1.918426483843578E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.7225689390536841E-2</c:v>
+                  <c:v>1.6056052290001992E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.2322191684730208E-2</c:v>
+                  <c:v>1.3407493396765441E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,307 +2509,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.2079899631371548E-11</c:v>
+                  <c:v>0.30963851521458691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5135436772055178E-11</c:v>
+                  <c:v>0.33865256442425462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1347204083646586E-11</c:v>
+                  <c:v>0.36954639180327642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8303322170155846E-10</c:v>
+                  <c:v>0.40234514866943977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6309615017918136E-10</c:v>
+                  <c:v>0.437062733162419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1313281239961012E-10</c:v>
+                  <c:v>0.47370066091785079</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3866799941653269E-9</c:v>
+                  <c:v>0.51224698313875705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6695566147628708E-9</c:v>
+                  <c:v>0.55267527145741291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0881402816450746E-9</c:v>
+                  <c:v>0.59494368952653265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6014333703123359E-9</c:v>
+                  <c:v>0.63899417149470861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7937839079640923E-8</c:v>
+                  <c:v>0.68475172737556278</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3178842435473043E-8</c:v>
+                  <c:v>0.7321238947872486</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0758828498233283E-8</c:v>
+                  <c:v>0.7810003555999695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1015763624682348E-7</c:v>
+                  <c:v>0.83125273467333394</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.977319640624481E-7</c:v>
+                  <c:v>0.8827345960909202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.513955094820446E-7</c:v>
+                  <c:v>0.93528165011429298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1826205001658888E-7</c:v>
+                  <c:v>0.98871218150095463</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0769760042543333E-6</c:v>
+                  <c:v>1.0428277068887586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8573618445552897E-6</c:v>
+                  <c:v>1.0974138656818766</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.171349216715976E-6</c:v>
+                  <c:v>1.152241545329254</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3610353446976141E-6</c:v>
+                  <c:v>1.2070682381235598</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9724351623833359E-6</c:v>
+                  <c:v>1.261639622733457</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4867195147342977E-5</c:v>
+                  <c:v>1.3156913596880988</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4389607458933656E-5</c:v>
+                  <c:v>1.3689510860393781</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.961299091032075E-5</c:v>
+                  <c:v>1.4211405905178409</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.3698251788671238E-5</c:v>
+                  <c:v>1.4719781467574591</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0140852065486758E-4</c:v>
+                  <c:v>1.5211809786778678</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5983741106905534E-4</c:v>
+                  <c:v>1.568467828963104</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4942471290053623E-4</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8535196742087125E-4</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.8943067756540054E-4</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.9261657177132922E-4</c:v>
+                  <c:v>1.7330320081689694</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.338302257648856E-3</c:v>
+                  <c:v>1.7667591097301627</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9865547139277305E-3</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9194692579146077E-3</c:v>
+                  <c:v>1.8237464759248199</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2478027055075293E-3</c:v>
+                  <c:v>1.8466340396181415</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.1190193011377301E-3</c:v>
+                  <c:v>1.8655737107410497</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7268269504576172E-3</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2322191684730208E-2</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7225689390536841E-2</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3840882014648485E-2</c:v>
+                  <c:v>1.8997251447687271</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.2668190561999273E-2</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.431848411938015E-2</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.952532419775864E-2</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.9154515829799779E-2</c:v>
+                  <c:v>1.8655737107410497</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.10420934814422614</c:v>
+                  <c:v>1.8466340396181415</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.13582969233685643</c:v>
+                  <c:v>1.8237464759248199</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.17528300493568577</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.22394530294842899</c:v>
+                  <c:v>1.7667591097301629</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.28327037741601185</c:v>
+                  <c:v>1.7330320081689699</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.35474592846231456</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.43983595980427231</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.53990966513188099</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.65615814774676662</c:v>
+                  <c:v>1.568467828963104</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.78950158300894258</c:v>
+                  <c:v>1.5211809786778678</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.94049077376887036</c:v>
+                  <c:v>1.4719781467574591</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.109208346794557</c:v>
+                  <c:v>1.4211405905178409</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2951759566589192</c:v>
+                  <c:v>1.3689510860393777</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.4972746563574484</c:v>
+                  <c:v>1.3156913596880992</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>1.2616396227334576</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>1.20706823812356</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.1785217703255055</c:v>
+                  <c:v>1.1522415453292543</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.4197072451914337</c:v>
+                  <c:v>1.097413865681877</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.6608524989875493</c:v>
+                  <c:v>1.0428277068887588</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.8969155276148286</c:v>
+                  <c:v>0.98871218150095486</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.1225393336676137</c:v>
+                  <c:v>0.93528165011429298</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.3322460289179978</c:v>
+                  <c:v>0.8827345960909202</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.5206532676429956</c:v>
+                  <c:v>0.83125273467333394</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.6827014030332346</c:v>
+                  <c:v>0.7810003555999695</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.8138781546052423</c:v>
+                  <c:v>0.7321238947872486</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.9104269397545597</c:v>
+                  <c:v>0.68475172737556278</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>0.63899417149470905</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.9894228040143269</c:v>
+                  <c:v>0.59494368952653287</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>0.55267527145741313</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.9104269397545588</c:v>
+                  <c:v>0.51224698313875727</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8138781546052405</c:v>
+                  <c:v>0.47370066091785101</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.6827014030332323</c:v>
+                  <c:v>0.43706273316241934</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.5206532676429942</c:v>
+                  <c:v>0.40234514866943977</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.3322460289179952</c:v>
+                  <c:v>0.36954639180327642</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.1225393336676115</c:v>
+                  <c:v>0.33865256442425462</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.8969155276148255</c:v>
+                  <c:v>0.30963851521458691</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.6608524989875462</c:v>
+                  <c:v>0.28246899784764445</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4197072451914314</c:v>
+                  <c:v>0.25709984053899049</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.1785217703255033</c:v>
+                  <c:v>0.23347911082121808</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>0.21154826085620154</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>0.19124324019477679</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.4972746563574484</c:v>
+                  <c:v>0.17249556457300722</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2951759566589167</c:v>
+                  <c:v>0.15523333105600143</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1092083467945553</c:v>
+                  <c:v>0.13938217156743224</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.94049077376886858</c:v>
+                  <c:v>0.12486613854147374</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.78950158300894091</c:v>
+                  <c:v>0.11160851807381066</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.65615814774676529</c:v>
+                  <c:v>9.9532567503762701E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.53990966513187999</c:v>
+                  <c:v>8.8562175808973742E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.43983595980427154</c:v>
+                  <c:v>7.8622446520490788E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.3547459284623139</c:v>
+                  <c:v>6.9640204056819088E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.28327037741601119</c:v>
+                  <c:v>6.1544425422277664E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.22394530294842899</c:v>
+                  <c:v>5.4266600113321156E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.17528300493568541</c:v>
+                  <c:v>4.774102182565939E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.13582969233685613</c:v>
+                  <c:v>4.1905016157530332E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.1042093481442259</c:v>
+                  <c:v>3.6699108965682237E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.9154515829799571E-2</c:v>
+                  <c:v>3.2067140358239259E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,307 +3166,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.4528552856964326E-13</c:v>
+                  <c:v>3.2067140358239259E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3241483722529426E-13</c:v>
+                  <c:v>3.6699108965682237E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1441564901801369E-12</c:v>
+                  <c:v>4.1905016157530332E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4343205330290096E-12</c:v>
+                  <c:v>4.774102182565939E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1277536367966989E-12</c:v>
+                  <c:v>5.4266600113321156E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0693837871541641E-11</c:v>
+                  <c:v>6.1544425422277796E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2079899631371548E-11</c:v>
+                  <c:v>6.9640204056819088E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5135436772055178E-11</c:v>
+                  <c:v>7.8622446520490788E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.134720408364594E-11</c:v>
+                  <c:v>8.8562175808973742E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8303322170155711E-10</c:v>
+                  <c:v>9.9532567503762701E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6309615017918007E-10</c:v>
+                  <c:v>0.11160851807381066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1313281239960753E-10</c:v>
+                  <c:v>0.12486613854147374</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.386679994165317E-9</c:v>
+                  <c:v>0.13938217156743224</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6695566147628518E-9</c:v>
+                  <c:v>0.15523333105600143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0881402816450746E-9</c:v>
+                  <c:v>0.17249556457300722</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6014333703123359E-9</c:v>
+                  <c:v>0.19124324019477679</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7937839079640923E-8</c:v>
+                  <c:v>0.21154826085620154</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3178842435473043E-8</c:v>
+                  <c:v>0.23347911082121831</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0758828498232422E-8</c:v>
+                  <c:v>0.25709984053899076</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1015763624682307E-7</c:v>
+                  <c:v>0.28246899784764451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9773196406244601E-7</c:v>
+                  <c:v>0.30963851521458702</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5139550948204332E-7</c:v>
+                  <c:v>0.33865256442425462</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.1826205001658242E-7</c:v>
+                  <c:v>0.36954639180327642</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0769760042543274E-6</c:v>
+                  <c:v>0.40234514866943977</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8573618445552897E-6</c:v>
+                  <c:v>0.43706273316241934</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.171349216715976E-6</c:v>
+                  <c:v>0.47370066091785101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3610353446976141E-6</c:v>
+                  <c:v>0.51224698313875727</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.9724351623833359E-6</c:v>
+                  <c:v>0.55267527145741313</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4867195147342977E-5</c:v>
+                  <c:v>0.59494368952653287</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.438960745893352E-5</c:v>
+                  <c:v>0.63899417149470894</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.961299091032075E-5</c:v>
+                  <c:v>0.68475172737556311</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.3698251788670899E-5</c:v>
+                  <c:v>0.73212389478724882</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0140852065486758E-4</c:v>
+                  <c:v>0.78100035559996972</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5983741106905474E-4</c:v>
+                  <c:v>0.83125273467333438</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4942471290053623E-4</c:v>
+                  <c:v>0.88273459609092042</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8535196742087125E-4</c:v>
+                  <c:v>0.93528165011429309</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.8943067756539848E-4</c:v>
+                  <c:v>0.98871218150095486</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.9261657177132922E-4</c:v>
+                  <c:v>1.0428277068887588</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3383022576488536E-3</c:v>
+                  <c:v>1.097413865681877</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.986554713927727E-3</c:v>
+                  <c:v>1.1522415453292543</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.9194692579146025E-3</c:v>
+                  <c:v>1.20706823812356</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2478027055075224E-3</c:v>
+                  <c:v>1.2616396227334576</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.1190193011377188E-3</c:v>
+                  <c:v>1.3156913596880988</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.7268269504576015E-3</c:v>
+                  <c:v>1.3689510860393781</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2322191684730199E-2</c:v>
+                  <c:v>1.4211405905178411</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.722568939053681E-2</c:v>
+                  <c:v>1.4719781467574593</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3840882014648443E-2</c:v>
+                  <c:v>1.5211809786778681</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2668190561999245E-2</c:v>
+                  <c:v>1.5684678289631042</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.4318484119379997E-2</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.9525324197758474E-2</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.9154515829799571E-2</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1042093481442259</c:v>
+                  <c:v>1.7330320081689699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13582969233685613</c:v>
+                  <c:v>1.7667591097301629</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.17528300493568541</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.22394530294842899</c:v>
+                  <c:v>1.8237464759248203</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.28327037741601185</c:v>
+                  <c:v>1.8466340396181415</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.35474592846231456</c:v>
+                  <c:v>1.8655737107410502</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.43983595980427231</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.53990966513187999</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.65615814774676529</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.78950158300894091</c:v>
+                  <c:v>1.8997251447687271</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.94049077376886858</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1092083467945553</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2951759566589167</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4972746563574484</c:v>
+                  <c:v>1.8655737107410497</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>1.8466340396181411</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>1.8237464759248199</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1785217703255055</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4197072451914337</c:v>
+                  <c:v>1.7667591097301627</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.6608524989875493</c:v>
+                  <c:v>1.733032008168969</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8969155276148286</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1225393336676115</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3322460289179952</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.5206532676429942</c:v>
+                  <c:v>1.568467828963104</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.6827014030332323</c:v>
+                  <c:v>1.5211809786778678</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8138781546052405</c:v>
+                  <c:v>1.4719781467574591</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.9104269397545588</c:v>
+                  <c:v>1.4211405905178409</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>1.3689510860393777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.9894228040143269</c:v>
+                  <c:v>1.3156913596880986</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>1.261639622733457</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.9104269397545588</c:v>
+                  <c:v>1.2070682381235593</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.8138781546052405</c:v>
+                  <c:v>1.1522415453292538</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.6827014030332323</c:v>
+                  <c:v>1.0974138656818762</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.5206532676429942</c:v>
+                  <c:v>1.0428277068887581</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.3322460289179978</c:v>
+                  <c:v>0.98871218150095486</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.1225393336676137</c:v>
+                  <c:v>0.93528165011429298</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.8969155276148286</c:v>
+                  <c:v>0.8827345960909202</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.6608524989875493</c:v>
+                  <c:v>0.83125273467333394</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.4197072451914337</c:v>
+                  <c:v>0.7810003555999695</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.1785217703255055</c:v>
+                  <c:v>0.7321238947872486</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>0.68475172737556278</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>0.63899417149470861</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.4972746563574484</c:v>
+                  <c:v>0.59494368952653243</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2951759566589167</c:v>
+                  <c:v>0.5526752714574128</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1092083467945553</c:v>
+                  <c:v>0.51224698313875694</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.94049077376886858</c:v>
+                  <c:v>0.47370066091785051</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.78950158300894258</c:v>
+                  <c:v>0.43706273316241934</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.65615814774676662</c:v>
+                  <c:v>0.40234514866943977</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.53990966513188099</c:v>
+                  <c:v>0.36954639180327642</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.43983595980427231</c:v>
+                  <c:v>0.33865256442425462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.35474592846231456</c:v>
+                  <c:v>0.30963851521458691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,307 +3823,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.9010815379079908E-15</c:v>
+                  <c:v>1.3407493396765441E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.381639435509388E-15</c:v>
+                  <c:v>1.6056052290001992E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.998378748497179E-15</c:v>
+                  <c:v>1.918426483843578E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.258809403154303E-14</c:v>
+                  <c:v>2.2870031029562847E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0522710835369279E-14</c:v>
+                  <c:v>2.7202170082627937E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1187956214351975E-13</c:v>
+                  <c:v>3.2281637387270323E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4528552856964326E-13</c:v>
+                  <c:v>3.8222823346066364E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3241483722529426E-13</c:v>
+                  <c:v>4.5154930368999577E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1441564901801369E-12</c:v>
+                  <c:v>5.3223422213420999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4343205330290096E-12</c:v>
+                  <c:v>6.2591537540092898E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1277536367966989E-12</c:v>
+                  <c:v>7.3441856966243047E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0693837871541641E-11</c:v>
+                  <c:v>8.5977910048888415E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2079899631371548E-11</c:v>
+                  <c:v>1.004258055426149E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5135436772055178E-11</c:v>
+                  <c:v>1.1703586497102958E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.1347204083646586E-11</c:v>
+                  <c:v>1.3608423606548141E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8303322170155846E-10</c:v>
+                  <c:v>1.5787445900418313E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6309615017918136E-10</c:v>
+                  <c:v>1.827389546864212E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1313281239961012E-10</c:v>
+                  <c:v>2.1104040056847656E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3866799941653269E-9</c:v>
+                  <c:v>2.4317295594999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6695566147628708E-9</c:v>
+                  <c:v>2.7956329512303771E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0881402816451102E-9</c:v>
+                  <c:v>3.2067140358239203E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.6014333703123359E-9</c:v>
+                  <c:v>3.669910896568214E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7937839079640923E-8</c:v>
+                  <c:v>4.1905016157530305E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3178842435473043E-8</c:v>
+                  <c:v>4.7741021825659265E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0758828498233283E-8</c:v>
+                  <c:v>5.4266600113321108E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1015763624682348E-7</c:v>
+                  <c:v>6.1544425422277664E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.977319640624481E-7</c:v>
+                  <c:v>6.9640204056819088E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.513955094820446E-7</c:v>
+                  <c:v>7.8622446520490788E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.1826205001658888E-7</c:v>
+                  <c:v>8.8562175808973742E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0769760042543274E-6</c:v>
+                  <c:v>9.9532567503762701E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8573618445552897E-6</c:v>
+                  <c:v>0.11160851807381066</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.171349216715976E-6</c:v>
+                  <c:v>0.12486613854147374</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.3610353446976141E-6</c:v>
+                  <c:v>0.13938217156743216</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.9724351623833359E-6</c:v>
+                  <c:v>0.15523333105600143</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.486719514734303E-5</c:v>
+                  <c:v>0.17249556457300708</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4389607458933656E-5</c:v>
+                  <c:v>0.19124324019477679</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.961299091032075E-5</c:v>
+                  <c:v>0.21154826085620115</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.3698251788671238E-5</c:v>
+                  <c:v>0.23347911082121808</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0140852065486758E-4</c:v>
+                  <c:v>0.25709984053899049</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5983741106905534E-4</c:v>
+                  <c:v>0.28246899784764445</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4942471290053623E-4</c:v>
+                  <c:v>0.30963851521458691</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.8535196742087266E-4</c:v>
+                  <c:v>0.33865256442425462</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.8943067756540054E-4</c:v>
+                  <c:v>0.36954639180327614</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.9261657177132922E-4</c:v>
+                  <c:v>0.40234514866943938</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.338302257648856E-3</c:v>
+                  <c:v>0.437062733162419</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.9865547139277305E-3</c:v>
+                  <c:v>0.47370066091785079</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.9194692579146077E-3</c:v>
+                  <c:v>0.51224698313875705</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.2478027055075293E-3</c:v>
+                  <c:v>0.55267527145741291</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.1190193011377301E-3</c:v>
+                  <c:v>0.59494368952653243</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7268269504576172E-3</c:v>
+                  <c:v>0.63899417149470861</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2322191684730208E-2</c:v>
+                  <c:v>0.68475172737556278</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7225689390536841E-2</c:v>
+                  <c:v>0.7321238947872486</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3840882014648485E-2</c:v>
+                  <c:v>0.7810003555999695</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.2668190561999273E-2</c:v>
+                  <c:v>0.83125273467333394</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4318484119380191E-2</c:v>
+                  <c:v>0.8827345960909202</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.9525324197758696E-2</c:v>
+                  <c:v>0.93528165011429298</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.915451582979989E-2</c:v>
+                  <c:v>0.98871218150095486</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.10420934814422628</c:v>
+                  <c:v>1.0428277068887588</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.13582969233685613</c:v>
+                  <c:v>1.0974138656818762</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.17528300493568541</c:v>
+                  <c:v>1.1522415453292538</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22394530294842899</c:v>
+                  <c:v>1.2070682381235593</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.28327037741601185</c:v>
+                  <c:v>1.261639622733457</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.35474592846231456</c:v>
+                  <c:v>1.3156913596880986</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.43983595980427231</c:v>
+                  <c:v>1.3689510860393777</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.53990966513188099</c:v>
+                  <c:v>1.4211405905178409</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.65615814774676662</c:v>
+                  <c:v>1.4719781467574591</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.78950158300894258</c:v>
+                  <c:v>1.5211809786778678</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.94049077376887036</c:v>
+                  <c:v>1.568467828963104</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.109208346794557</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2951759566589192</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.4972746563574506</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>1.733032008168969</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>1.7667591097301627</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.1785217703255055</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4197072451914337</c:v>
+                  <c:v>1.8237464759248199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6608524989875493</c:v>
+                  <c:v>1.8466340396181411</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8969155276148286</c:v>
+                  <c:v>1.8655737107410497</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.1225393336676137</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.3322460289179978</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.5206532676429956</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.6827014030332346</c:v>
+                  <c:v>1.8997251447687271</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.8138781546052423</c:v>
+                  <c:v>1.8975724819456334</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.9104269397545597</c:v>
+                  <c:v>1.8911291180896206</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>1.8804387615726716</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.9894228040143269</c:v>
+                  <c:v>1.8655737107410502</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.9695254747701179</c:v>
+                  <c:v>1.8466340396181415</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.9104269397545588</c:v>
+                  <c:v>1.8237464759248203</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.8138781546052405</c:v>
+                  <c:v>1.7970629890142533</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.6827014030332323</c:v>
+                  <c:v>1.7667591097301629</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.5206532676429942</c:v>
+                  <c:v>1.7330320081689699</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.3322460289179952</c:v>
+                  <c:v>1.6960983587816427</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.1225393336676115</c:v>
+                  <c:v>1.6561920251276123</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.8969155276148255</c:v>
+                  <c:v>1.6135615988418455</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.6608524989875462</c:v>
+                  <c:v>1.568467828963104</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.4197072451914314</c:v>
+                  <c:v>1.5211809786778678</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.1785217703255033</c:v>
+                  <c:v>1.4719781467574591</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9418605498321297</c:v>
+                  <c:v>1.4211405905178414</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.7136859204780734</c:v>
+                  <c:v>1.3689510860393783</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.4972746563574484</c:v>
+                  <c:v>1.3156913596880992</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2951759566589167</c:v>
+                  <c:v>1.2616396227334576</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.1092083467945553</c:v>
+                  <c:v>1.20706823812356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5187,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5239,28 +5239,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>_xlfn.NORM.DIST($A2,M$2,M$3,FALSE)</f>
+        <f t="shared" ref="B2:B33" si="0">_xlfn.NORM.DIST($A2,M$2,M$3,FALSE)</f>
         <v>1.8997251447687271</v>
       </c>
       <c r="C2">
-        <f>_xlfn.NORM.DIST($A2,N$2,N$3,FALSE)</f>
+        <f t="shared" ref="C2:C33" si="1">_xlfn.NORM.DIST($A2,N$2,N$3,FALSE)</f>
         <v>2.2631693526306676E-5</v>
       </c>
       <c r="D2">
-        <f>_xlfn.NORM.DIST($A2,O$2,O$3,FALSE)</f>
-        <v>1.386679994165317E-9</v>
+        <f t="shared" ref="D2:D33" si="2">_xlfn.NORM.DIST($A2,O$2,O$3,FALSE)</f>
+        <v>1.2070682381235598</v>
       </c>
       <c r="E2">
-        <f>_xlfn.NORM.DIST($A2,P$2,P$3,FALSE)</f>
-        <v>2.2079899631371548E-11</v>
+        <f t="shared" ref="E2:E33" si="3">_xlfn.NORM.DIST($A2,P$2,P$3,FALSE)</f>
+        <v>0.30963851521458691</v>
       </c>
       <c r="F2">
-        <f>_xlfn.NORM.DIST($A2,Q$2,Q$3,FALSE)</f>
-        <v>2.4528552856964326E-13</v>
+        <f t="shared" ref="F2:F33" si="4">_xlfn.NORM.DIST($A2,Q$2,Q$3,FALSE)</f>
+        <v>3.2067140358239259E-2</v>
       </c>
       <c r="G2">
-        <f>_xlfn.NORM.DIST($A2,R$2,R$3,FALSE)</f>
-        <v>1.9010815379079908E-15</v>
+        <f t="shared" ref="G2:G33" si="5">_xlfn.NORM.DIST($A2,R$2,R$3,FALSE)</f>
+        <v>1.3407493396765441E-3</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
@@ -5272,16 +5272,16 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0.66</v>
+        <v>0.2</v>
       </c>
       <c r="P2">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="Q2">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="R2">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -5289,28 +5289,28 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <f>_xlfn.NORM.DIST($A3,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.8975724819456334</v>
       </c>
       <c r="C3">
-        <f>_xlfn.NORM.DIST($A3,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.8359863117987185E-5</v>
       </c>
       <c r="D3">
-        <f>_xlfn.NORM.DIST($A3,O$2,O$3,FALSE)</f>
-        <v>2.6695566147628518E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.2616396227334574</v>
       </c>
       <c r="E3">
-        <f>_xlfn.NORM.DIST($A3,P$2,P$3,FALSE)</f>
-        <v>4.5135436772055178E-11</v>
+        <f t="shared" si="3"/>
+        <v>0.33865256442425462</v>
       </c>
       <c r="F3">
-        <f>_xlfn.NORM.DIST($A3,Q$2,Q$3,FALSE)</f>
-        <v>5.3241483722529426E-13</v>
+        <f t="shared" si="4"/>
+        <v>3.6699108965682237E-2</v>
       </c>
       <c r="G3">
-        <f>_xlfn.NORM.DIST($A3,R$2,R$3,FALSE)</f>
-        <v>4.381639435509388E-15</v>
+        <f t="shared" si="5"/>
+        <v>1.6056052290001992E-3</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
@@ -5322,16 +5322,16 @@
         <v>0.21</v>
       </c>
       <c r="O3">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="P3">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="Q3">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="R3">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -5339,28 +5339,28 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <f>_xlfn.NORM.DIST($A4,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.8911291180896206</v>
       </c>
       <c r="C4">
-        <f>_xlfn.NORM.DIST($A4,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.545736128871424E-5</v>
       </c>
       <c r="D4">
-        <f>_xlfn.NORM.DIST($A4,O$2,O$3,FALSE)</f>
-        <v>5.0881402816450746E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.3156913596880988</v>
       </c>
       <c r="E4">
-        <f>_xlfn.NORM.DIST($A4,P$2,P$3,FALSE)</f>
-        <v>9.1347204083646586E-11</v>
+        <f t="shared" si="3"/>
+        <v>0.36954639180327642</v>
       </c>
       <c r="F4">
-        <f>_xlfn.NORM.DIST($A4,Q$2,Q$3,FALSE)</f>
-        <v>1.1441564901801369E-12</v>
+        <f t="shared" si="4"/>
+        <v>4.1905016157530332E-2</v>
       </c>
       <c r="G4">
-        <f>_xlfn.NORM.DIST($A4,R$2,R$3,FALSE)</f>
-        <v>9.998378748497179E-15</v>
+        <f t="shared" si="5"/>
+        <v>1.918426483843578E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -5368,28 +5368,28 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <f>_xlfn.NORM.DIST($A5,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.8804387615726716</v>
       </c>
       <c r="C5">
-        <f>_xlfn.NORM.DIST($A5,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.4230708907724652E-5</v>
       </c>
       <c r="D5">
-        <f>_xlfn.NORM.DIST($A5,O$2,O$3,FALSE)</f>
-        <v>9.6014333703123359E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.3689510860393781</v>
       </c>
       <c r="E5">
-        <f>_xlfn.NORM.DIST($A5,P$2,P$3,FALSE)</f>
-        <v>1.8303322170155846E-10</v>
+        <f t="shared" si="3"/>
+        <v>0.40234514866943977</v>
       </c>
       <c r="F5">
-        <f>_xlfn.NORM.DIST($A5,Q$2,Q$3,FALSE)</f>
-        <v>2.4343205330290096E-12</v>
+        <f t="shared" si="4"/>
+        <v>4.774102182565939E-2</v>
       </c>
       <c r="G5">
-        <f>_xlfn.NORM.DIST($A5,R$2,R$3,FALSE)</f>
-        <v>2.258809403154303E-14</v>
+        <f t="shared" si="5"/>
+        <v>2.2870031029562847E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -5397,28 +5397,28 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <f>_xlfn.NORM.DIST($A6,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.8655737107410497</v>
       </c>
       <c r="C6">
-        <f>_xlfn.NORM.DIST($A6,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.5049907407015393E-5</v>
       </c>
       <c r="D6">
-        <f>_xlfn.NORM.DIST($A6,O$2,O$3,FALSE)</f>
-        <v>1.7937839079640923E-8</v>
+        <f t="shared" si="2"/>
+        <v>1.4211405905178409</v>
       </c>
       <c r="E6">
-        <f>_xlfn.NORM.DIST($A6,P$2,P$3,FALSE)</f>
-        <v>3.6309615017918136E-10</v>
+        <f t="shared" si="3"/>
+        <v>0.437062733162419</v>
       </c>
       <c r="F6">
-        <f>_xlfn.NORM.DIST($A6,Q$2,Q$3,FALSE)</f>
-        <v>5.1277536367966989E-12</v>
+        <f t="shared" si="4"/>
+        <v>5.4266600113321156E-2</v>
       </c>
       <c r="G6">
-        <f>_xlfn.NORM.DIST($A6,R$2,R$3,FALSE)</f>
-        <v>5.0522710835369279E-14</v>
+        <f t="shared" si="5"/>
+        <v>2.7202170082627937E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -5426,28 +5426,28 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <f>_xlfn.NORM.DIST($A7,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.8466340396181415</v>
       </c>
       <c r="C7">
-        <f>_xlfn.NORM.DIST($A7,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6.8360383563704266E-5</v>
       </c>
       <c r="D7">
-        <f>_xlfn.NORM.DIST($A7,O$2,O$3,FALSE)</f>
-        <v>3.3178842435473043E-8</v>
+        <f t="shared" si="2"/>
+        <v>1.4719781467574591</v>
       </c>
       <c r="E7">
-        <f>_xlfn.NORM.DIST($A7,P$2,P$3,FALSE)</f>
-        <v>7.1313281239961012E-10</v>
+        <f t="shared" si="3"/>
+        <v>0.47370066091785079</v>
       </c>
       <c r="F7">
-        <f>_xlfn.NORM.DIST($A7,Q$2,Q$3,FALSE)</f>
-        <v>1.0693837871541641E-11</v>
+        <f t="shared" si="4"/>
+        <v>6.1544425422277796E-2</v>
       </c>
       <c r="G7">
-        <f>_xlfn.NORM.DIST($A7,R$2,R$3,FALSE)</f>
-        <v>1.1187956214351975E-13</v>
+        <f t="shared" si="5"/>
+        <v>3.2281637387270323E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -5455,28 +5455,28 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <f>_xlfn.NORM.DIST($A8,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.8237464759248199</v>
       </c>
       <c r="C8">
-        <f>_xlfn.NORM.DIST($A8,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>8.4696915434381785E-5</v>
       </c>
       <c r="D8">
-        <f>_xlfn.NORM.DIST($A8,O$2,O$3,FALSE)</f>
-        <v>6.0758828498232422E-8</v>
+        <f t="shared" si="2"/>
+        <v>1.5211809786778678</v>
       </c>
       <c r="E8">
-        <f>_xlfn.NORM.DIST($A8,P$2,P$3,FALSE)</f>
-        <v>1.3866799941653269E-9</v>
+        <f t="shared" si="3"/>
+        <v>0.51224698313875705</v>
       </c>
       <c r="F8">
-        <f>_xlfn.NORM.DIST($A8,Q$2,Q$3,FALSE)</f>
-        <v>2.2079899631371548E-11</v>
+        <f t="shared" si="4"/>
+        <v>6.9640204056819088E-2</v>
       </c>
       <c r="G8">
-        <f>_xlfn.NORM.DIST($A8,R$2,R$3,FALSE)</f>
-        <v>2.4528552856964326E-13</v>
+        <f t="shared" si="5"/>
+        <v>3.8222823346066364E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -5484,28 +5484,28 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
-        <f>_xlfn.NORM.DIST($A9,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.7970629890142533</v>
       </c>
       <c r="C9">
-        <f>_xlfn.NORM.DIST($A9,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.0469981218597746E-4</v>
       </c>
       <c r="D9">
-        <f>_xlfn.NORM.DIST($A9,O$2,O$3,FALSE)</f>
-        <v>1.1015763624682307E-7</v>
+        <f t="shared" si="2"/>
+        <v>1.568467828963104</v>
       </c>
       <c r="E9">
-        <f>_xlfn.NORM.DIST($A9,P$2,P$3,FALSE)</f>
-        <v>2.6695566147628708E-9</v>
+        <f t="shared" si="3"/>
+        <v>0.55267527145741291</v>
       </c>
       <c r="F9">
-        <f>_xlfn.NORM.DIST($A9,Q$2,Q$3,FALSE)</f>
-        <v>4.5135436772055178E-11</v>
+        <f t="shared" si="4"/>
+        <v>7.8622446520490788E-2</v>
       </c>
       <c r="G9">
-        <f>_xlfn.NORM.DIST($A9,R$2,R$3,FALSE)</f>
-        <v>5.3241483722529426E-13</v>
+        <f t="shared" si="5"/>
+        <v>4.5154930368999577E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -5513,28 +5513,28 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <f>_xlfn.NORM.DIST($A10,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.7667591097301629</v>
       </c>
       <c r="C10">
-        <f>_xlfn.NORM.DIST($A10,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.2913364695122959E-4</v>
       </c>
       <c r="D10">
-        <f>_xlfn.NORM.DIST($A10,O$2,O$3,FALSE)</f>
-        <v>1.9773196406244601E-7</v>
+        <f t="shared" si="2"/>
+        <v>1.6135615988418455</v>
       </c>
       <c r="E10">
-        <f>_xlfn.NORM.DIST($A10,P$2,P$3,FALSE)</f>
-        <v>5.0881402816450746E-9</v>
+        <f t="shared" si="3"/>
+        <v>0.59494368952653265</v>
       </c>
       <c r="F10">
-        <f>_xlfn.NORM.DIST($A10,Q$2,Q$3,FALSE)</f>
-        <v>9.134720408364594E-11</v>
+        <f t="shared" si="4"/>
+        <v>8.8562175808973742E-2</v>
       </c>
       <c r="G10">
-        <f>_xlfn.NORM.DIST($A10,R$2,R$3,FALSE)</f>
-        <v>1.1441564901801369E-12</v>
+        <f t="shared" si="5"/>
+        <v>5.3223422213420999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -5542,28 +5542,28 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <f>_xlfn.NORM.DIST($A11,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.7330320081689699</v>
       </c>
       <c r="C11">
-        <f>_xlfn.NORM.DIST($A11,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.5890886855065862E-4</v>
       </c>
       <c r="D11">
-        <f>_xlfn.NORM.DIST($A11,O$2,O$3,FALSE)</f>
-        <v>3.5139550948204332E-7</v>
+        <f t="shared" si="2"/>
+        <v>1.6561920251276123</v>
       </c>
       <c r="E11">
-        <f>_xlfn.NORM.DIST($A11,P$2,P$3,FALSE)</f>
-        <v>9.6014333703123359E-9</v>
+        <f t="shared" si="3"/>
+        <v>0.63899417149470861</v>
       </c>
       <c r="F11">
-        <f>_xlfn.NORM.DIST($A11,Q$2,Q$3,FALSE)</f>
-        <v>1.8303322170155711E-10</v>
+        <f t="shared" si="4"/>
+        <v>9.9532567503762701E-2</v>
       </c>
       <c r="G11">
-        <f>_xlfn.NORM.DIST($A11,R$2,R$3,FALSE)</f>
-        <v>2.4343205330290096E-12</v>
+        <f t="shared" si="5"/>
+        <v>6.2591537540092898E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -5571,28 +5571,28 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <f>_xlfn.NORM.DIST($A12,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.6960983587816427</v>
       </c>
       <c r="C12">
-        <f>_xlfn.NORM.DIST($A12,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.9510664444019444E-4</v>
       </c>
       <c r="D12">
-        <f>_xlfn.NORM.DIST($A12,O$2,O$3,FALSE)</f>
-        <v>6.1826205001658242E-7</v>
+        <f t="shared" si="2"/>
+        <v>1.6960983587816427</v>
       </c>
       <c r="E12">
-        <f>_xlfn.NORM.DIST($A12,P$2,P$3,FALSE)</f>
-        <v>1.7937839079640923E-8</v>
+        <f t="shared" si="3"/>
+        <v>0.68475172737556278</v>
       </c>
       <c r="F12">
-        <f>_xlfn.NORM.DIST($A12,Q$2,Q$3,FALSE)</f>
-        <v>3.6309615017918007E-10</v>
+        <f t="shared" si="4"/>
+        <v>0.11160851807381066</v>
       </c>
       <c r="G12">
-        <f>_xlfn.NORM.DIST($A12,R$2,R$3,FALSE)</f>
-        <v>5.1277536367966989E-12</v>
+        <f t="shared" si="5"/>
+        <v>7.3441856966243047E-3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -5600,28 +5600,28 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <f>_xlfn.NORM.DIST($A13,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.6561920251276123</v>
       </c>
       <c r="C13">
-        <f>_xlfn.NORM.DIST($A13,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.39007312916766E-4</v>
       </c>
       <c r="D13">
-        <f>_xlfn.NORM.DIST($A13,O$2,O$3,FALSE)</f>
-        <v>1.0769760042543274E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.7330320081689699</v>
       </c>
       <c r="E13">
-        <f>_xlfn.NORM.DIST($A13,P$2,P$3,FALSE)</f>
-        <v>3.3178842435473043E-8</v>
+        <f t="shared" si="3"/>
+        <v>0.7321238947872486</v>
       </c>
       <c r="F13">
-        <f>_xlfn.NORM.DIST($A13,Q$2,Q$3,FALSE)</f>
-        <v>7.1313281239960753E-10</v>
+        <f t="shared" si="4"/>
+        <v>0.12486613854147374</v>
       </c>
       <c r="G13">
-        <f>_xlfn.NORM.DIST($A13,R$2,R$3,FALSE)</f>
-        <v>1.0693837871541641E-11</v>
+        <f t="shared" si="5"/>
+        <v>8.5977910048888415E-3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -5629,28 +5629,28 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <f>_xlfn.NORM.DIST($A14,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.6135615988418455</v>
       </c>
       <c r="C14">
-        <f>_xlfn.NORM.DIST($A14,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.9212284666438966E-4</v>
       </c>
       <c r="D14">
-        <f>_xlfn.NORM.DIST($A14,O$2,O$3,FALSE)</f>
-        <v>1.8573618445552897E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.7667591097301627</v>
       </c>
       <c r="E14">
-        <f>_xlfn.NORM.DIST($A14,P$2,P$3,FALSE)</f>
-        <v>6.0758828498233283E-8</v>
+        <f t="shared" si="3"/>
+        <v>0.7810003555999695</v>
       </c>
       <c r="F14">
-        <f>_xlfn.NORM.DIST($A14,Q$2,Q$3,FALSE)</f>
-        <v>1.386679994165317E-9</v>
+        <f t="shared" si="4"/>
+        <v>0.13938217156743224</v>
       </c>
       <c r="G14">
-        <f>_xlfn.NORM.DIST($A14,R$2,R$3,FALSE)</f>
-        <v>2.2079899631371548E-11</v>
+        <f t="shared" si="5"/>
+        <v>1.004258055426149E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -5658,28 +5658,28 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <f>_xlfn.NORM.DIST($A15,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.568467828963104</v>
       </c>
       <c r="C15">
-        <f>_xlfn.NORM.DIST($A15,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.5623375123100976E-4</v>
       </c>
       <c r="D15">
-        <f>_xlfn.NORM.DIST($A15,O$2,O$3,FALSE)</f>
-        <v>3.171349216715976E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.7970629890142533</v>
       </c>
       <c r="E15">
-        <f>_xlfn.NORM.DIST($A15,P$2,P$3,FALSE)</f>
-        <v>1.1015763624682348E-7</v>
+        <f t="shared" si="3"/>
+        <v>0.83125273467333394</v>
       </c>
       <c r="F15">
-        <f>_xlfn.NORM.DIST($A15,Q$2,Q$3,FALSE)</f>
-        <v>2.6695566147628518E-9</v>
+        <f t="shared" si="4"/>
+        <v>0.15523333105600143</v>
       </c>
       <c r="G15">
-        <f>_xlfn.NORM.DIST($A15,R$2,R$3,FALSE)</f>
-        <v>4.5135436772055178E-11</v>
+        <f t="shared" si="5"/>
+        <v>1.1703586497102958E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -5687,28 +5687,28 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B16">
-        <f>_xlfn.NORM.DIST($A16,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.5211809786778678</v>
       </c>
       <c r="C16">
-        <f>_xlfn.NORM.DIST($A16,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.3343083992442271E-4</v>
       </c>
       <c r="D16">
-        <f>_xlfn.NORM.DIST($A16,O$2,O$3,FALSE)</f>
-        <v>5.3610353446976141E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.8237464759248199</v>
       </c>
       <c r="E16">
-        <f>_xlfn.NORM.DIST($A16,P$2,P$3,FALSE)</f>
-        <v>1.977319640624481E-7</v>
+        <f t="shared" si="3"/>
+        <v>0.8827345960909202</v>
       </c>
       <c r="F16">
-        <f>_xlfn.NORM.DIST($A16,Q$2,Q$3,FALSE)</f>
-        <v>5.0881402816450746E-9</v>
+        <f t="shared" si="4"/>
+        <v>0.17249556457300722</v>
       </c>
       <c r="G16">
-        <f>_xlfn.NORM.DIST($A16,R$2,R$3,FALSE)</f>
-        <v>9.1347204083646586E-11</v>
+        <f t="shared" si="5"/>
+        <v>1.3608423606548141E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -5716,28 +5716,28 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <f>_xlfn.NORM.DIST($A17,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.4719781467574593</v>
       </c>
       <c r="C17">
-        <f>_xlfn.NORM.DIST($A17,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.2616233968451082E-4</v>
       </c>
       <c r="D17">
-        <f>_xlfn.NORM.DIST($A17,O$2,O$3,FALSE)</f>
-        <v>8.9724351623833359E-6</v>
+        <f t="shared" si="2"/>
+        <v>1.8466340396181411</v>
       </c>
       <c r="E17">
-        <f>_xlfn.NORM.DIST($A17,P$2,P$3,FALSE)</f>
-        <v>3.513955094820446E-7</v>
+        <f t="shared" si="3"/>
+        <v>0.93528165011429298</v>
       </c>
       <c r="F17">
-        <f>_xlfn.NORM.DIST($A17,Q$2,Q$3,FALSE)</f>
-        <v>9.6014333703123359E-9</v>
+        <f t="shared" si="4"/>
+        <v>0.19124324019477679</v>
       </c>
       <c r="G17">
-        <f>_xlfn.NORM.DIST($A17,R$2,R$3,FALSE)</f>
-        <v>1.8303322170155846E-10</v>
+        <f t="shared" si="5"/>
+        <v>1.5787445900418313E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -5745,28 +5745,28 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <f>_xlfn.NORM.DIST($A18,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.4211405905178409</v>
       </c>
       <c r="C18">
-        <f>_xlfn.NORM.DIST($A18,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6.3728678935659705E-4</v>
       </c>
       <c r="D18">
-        <f>_xlfn.NORM.DIST($A18,O$2,O$3,FALSE)</f>
-        <v>1.4867195147342977E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.8655737107410497</v>
       </c>
       <c r="E18">
-        <f>_xlfn.NORM.DIST($A18,P$2,P$3,FALSE)</f>
-        <v>6.1826205001658888E-7</v>
+        <f t="shared" si="3"/>
+        <v>0.98871218150095463</v>
       </c>
       <c r="F18">
-        <f>_xlfn.NORM.DIST($A18,Q$2,Q$3,FALSE)</f>
-        <v>1.7937839079640923E-8</v>
+        <f t="shared" si="4"/>
+        <v>0.21154826085620154</v>
       </c>
       <c r="G18">
-        <f>_xlfn.NORM.DIST($A18,R$2,R$3,FALSE)</f>
-        <v>3.6309615017918136E-10</v>
+        <f t="shared" si="5"/>
+        <v>1.827389546864212E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -5774,28 +5774,28 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <f>_xlfn.NORM.DIST($A19,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.3689510860393781</v>
       </c>
       <c r="C19">
-        <f>_xlfn.NORM.DIST($A19,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>7.7013219093532916E-4</v>
       </c>
       <c r="D19">
-        <f>_xlfn.NORM.DIST($A19,O$2,O$3,FALSE)</f>
-        <v>2.4389607458933656E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.8804387615726716</v>
       </c>
       <c r="E19">
-        <f>_xlfn.NORM.DIST($A19,P$2,P$3,FALSE)</f>
-        <v>1.0769760042543333E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.0428277068887586</v>
       </c>
       <c r="F19">
-        <f>_xlfn.NORM.DIST($A19,Q$2,Q$3,FALSE)</f>
-        <v>3.3178842435473043E-8</v>
+        <f t="shared" si="4"/>
+        <v>0.23347911082121831</v>
       </c>
       <c r="G19">
-        <f>_xlfn.NORM.DIST($A19,R$2,R$3,FALSE)</f>
-        <v>7.1313281239961012E-10</v>
+        <f t="shared" si="5"/>
+        <v>2.1104040056847656E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -5803,28 +5803,28 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <f>_xlfn.NORM.DIST($A20,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.3156913596880988</v>
       </c>
       <c r="C20">
-        <f>_xlfn.NORM.DIST($A20,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>9.2856186410834917E-4</v>
       </c>
       <c r="D20">
-        <f>_xlfn.NORM.DIST($A20,O$2,O$3,FALSE)</f>
-        <v>3.961299091032075E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.8911291180896206</v>
       </c>
       <c r="E20">
-        <f>_xlfn.NORM.DIST($A20,P$2,P$3,FALSE)</f>
-        <v>1.8573618445552897E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.0974138656818766</v>
       </c>
       <c r="F20">
-        <f>_xlfn.NORM.DIST($A20,Q$2,Q$3,FALSE)</f>
-        <v>6.0758828498232422E-8</v>
+        <f t="shared" si="4"/>
+        <v>0.25709984053899076</v>
       </c>
       <c r="G20">
-        <f>_xlfn.NORM.DIST($A20,R$2,R$3,FALSE)</f>
-        <v>1.3866799941653269E-9</v>
+        <f t="shared" si="5"/>
+        <v>2.4317295594999903E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -5832,28 +5832,28 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <f>_xlfn.NORM.DIST($A21,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.2616396227334574</v>
       </c>
       <c r="C21">
-        <f>_xlfn.NORM.DIST($A21,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.1170474330169352E-3</v>
       </c>
       <c r="D21">
-        <f>_xlfn.NORM.DIST($A21,O$2,O$3,FALSE)</f>
-        <v>6.3698251788670899E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.8975724819456334</v>
       </c>
       <c r="E21">
-        <f>_xlfn.NORM.DIST($A21,P$2,P$3,FALSE)</f>
-        <v>3.171349216715976E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.152241545329254</v>
       </c>
       <c r="F21">
-        <f>_xlfn.NORM.DIST($A21,Q$2,Q$3,FALSE)</f>
-        <v>1.1015763624682307E-7</v>
+        <f t="shared" si="4"/>
+        <v>0.28246899784764451</v>
       </c>
       <c r="G21">
-        <f>_xlfn.NORM.DIST($A21,R$2,R$3,FALSE)</f>
-        <v>2.6695566147628708E-9</v>
+        <f t="shared" si="5"/>
+        <v>2.7956329512303771E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -5861,28 +5861,28 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <f>_xlfn.NORM.DIST($A22,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.2070682381235598</v>
       </c>
       <c r="C22">
-        <f>_xlfn.NORM.DIST($A22,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.3407493396765441E-3</v>
       </c>
       <c r="D22">
-        <f>_xlfn.NORM.DIST($A22,O$2,O$3,FALSE)</f>
-        <v>1.0140852065486758E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8997251447687271</v>
       </c>
       <c r="E22">
-        <f>_xlfn.NORM.DIST($A22,P$2,P$3,FALSE)</f>
-        <v>5.3610353446976141E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.2070682381235598</v>
       </c>
       <c r="F22">
-        <f>_xlfn.NORM.DIST($A22,Q$2,Q$3,FALSE)</f>
-        <v>1.9773196406244601E-7</v>
+        <f t="shared" si="4"/>
+        <v>0.30963851521458702</v>
       </c>
       <c r="G22">
-        <f>_xlfn.NORM.DIST($A22,R$2,R$3,FALSE)</f>
-        <v>5.0881402816451102E-9</v>
+        <f t="shared" si="5"/>
+        <v>3.2067140358239203E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -5890,28 +5890,28 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <f>_xlfn.NORM.DIST($A23,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.1522415453292543</v>
       </c>
       <c r="C23">
-        <f>_xlfn.NORM.DIST($A23,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.6056052290001992E-3</v>
       </c>
       <c r="D23">
-        <f>_xlfn.NORM.DIST($A23,O$2,O$3,FALSE)</f>
-        <v>1.5983741106905474E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8975724819456334</v>
       </c>
       <c r="E23">
-        <f>_xlfn.NORM.DIST($A23,P$2,P$3,FALSE)</f>
-        <v>8.9724351623833359E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.261639622733457</v>
       </c>
       <c r="F23">
-        <f>_xlfn.NORM.DIST($A23,Q$2,Q$3,FALSE)</f>
-        <v>3.5139550948204332E-7</v>
+        <f t="shared" si="4"/>
+        <v>0.33865256442425462</v>
       </c>
       <c r="G23">
-        <f>_xlfn.NORM.DIST($A23,R$2,R$3,FALSE)</f>
-        <v>9.6014333703123359E-9</v>
+        <f t="shared" si="5"/>
+        <v>3.669910896568214E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -5919,28 +5919,28 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <f>_xlfn.NORM.DIST($A24,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.097413865681877</v>
       </c>
       <c r="C24">
-        <f>_xlfn.NORM.DIST($A24,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.918426483843578E-3</v>
       </c>
       <c r="D24">
-        <f>_xlfn.NORM.DIST($A24,O$2,O$3,FALSE)</f>
-        <v>2.4942471290053536E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8911291180896206</v>
       </c>
       <c r="E24">
-        <f>_xlfn.NORM.DIST($A24,P$2,P$3,FALSE)</f>
-        <v>1.4867195147342977E-5</v>
+        <f t="shared" si="3"/>
+        <v>1.3156913596880988</v>
       </c>
       <c r="F24">
-        <f>_xlfn.NORM.DIST($A24,Q$2,Q$3,FALSE)</f>
-        <v>6.1826205001658242E-7</v>
+        <f t="shared" si="4"/>
+        <v>0.36954639180327642</v>
       </c>
       <c r="G24">
-        <f>_xlfn.NORM.DIST($A24,R$2,R$3,FALSE)</f>
-        <v>1.7937839079640923E-8</v>
+        <f t="shared" si="5"/>
+        <v>4.1905016157530305E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -5948,28 +5948,28 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <f>_xlfn.NORM.DIST($A25,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1.0428277068887586</v>
       </c>
       <c r="C25">
-        <f>_xlfn.NORM.DIST($A25,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.2870031029562847E-3</v>
       </c>
       <c r="D25">
-        <f>_xlfn.NORM.DIST($A25,O$2,O$3,FALSE)</f>
-        <v>3.8535196742087125E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8804387615726716</v>
       </c>
       <c r="E25">
-        <f>_xlfn.NORM.DIST($A25,P$2,P$3,FALSE)</f>
-        <v>2.4389607458933656E-5</v>
+        <f t="shared" si="3"/>
+        <v>1.3689510860393781</v>
       </c>
       <c r="F25">
-        <f>_xlfn.NORM.DIST($A25,Q$2,Q$3,FALSE)</f>
-        <v>1.0769760042543274E-6</v>
+        <f t="shared" si="4"/>
+        <v>0.40234514866943977</v>
       </c>
       <c r="G25">
-        <f>_xlfn.NORM.DIST($A25,R$2,R$3,FALSE)</f>
-        <v>3.3178842435473043E-8</v>
+        <f t="shared" si="5"/>
+        <v>4.7741021825659265E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -5977,28 +5977,28 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <f>_xlfn.NORM.DIST($A26,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.98871218150095486</v>
       </c>
       <c r="C26">
-        <f>_xlfn.NORM.DIST($A26,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.7202170082627937E-3</v>
       </c>
       <c r="D26">
-        <f>_xlfn.NORM.DIST($A26,O$2,O$3,FALSE)</f>
-        <v>5.8943067756539848E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8655737107410497</v>
       </c>
       <c r="E26">
-        <f>_xlfn.NORM.DIST($A26,P$2,P$3,FALSE)</f>
-        <v>3.961299091032075E-5</v>
+        <f t="shared" si="3"/>
+        <v>1.4211405905178409</v>
       </c>
       <c r="F26">
-        <f>_xlfn.NORM.DIST($A26,Q$2,Q$3,FALSE)</f>
-        <v>1.8573618445552897E-6</v>
+        <f t="shared" si="4"/>
+        <v>0.43706273316241934</v>
       </c>
       <c r="G26">
-        <f>_xlfn.NORM.DIST($A26,R$2,R$3,FALSE)</f>
-        <v>6.0758828498233283E-8</v>
+        <f t="shared" si="5"/>
+        <v>5.4266600113321108E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -6006,28 +6006,28 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <f>_xlfn.NORM.DIST($A27,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.93528165011429298</v>
       </c>
       <c r="C27">
-        <f>_xlfn.NORM.DIST($A27,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.2281637387270323E-3</v>
       </c>
       <c r="D27">
-        <f>_xlfn.NORM.DIST($A27,O$2,O$3,FALSE)</f>
-        <v>8.9261657177132922E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8466340396181415</v>
       </c>
       <c r="E27">
-        <f>_xlfn.NORM.DIST($A27,P$2,P$3,FALSE)</f>
-        <v>6.3698251788671238E-5</v>
+        <f t="shared" si="3"/>
+        <v>1.4719781467574591</v>
       </c>
       <c r="F27">
-        <f>_xlfn.NORM.DIST($A27,Q$2,Q$3,FALSE)</f>
-        <v>3.171349216715976E-6</v>
+        <f t="shared" si="4"/>
+        <v>0.47370066091785101</v>
       </c>
       <c r="G27">
-        <f>_xlfn.NORM.DIST($A27,R$2,R$3,FALSE)</f>
-        <v>1.1015763624682348E-7</v>
+        <f t="shared" si="5"/>
+        <v>6.1544425422277664E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -6035,28 +6035,28 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <f>_xlfn.NORM.DIST($A28,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.8827345960909202</v>
       </c>
       <c r="C28">
-        <f>_xlfn.NORM.DIST($A28,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.8222823346066364E-3</v>
       </c>
       <c r="D28">
-        <f>_xlfn.NORM.DIST($A28,O$2,O$3,FALSE)</f>
-        <v>1.3383022576488536E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.8237464759248199</v>
       </c>
       <c r="E28">
-        <f>_xlfn.NORM.DIST($A28,P$2,P$3,FALSE)</f>
-        <v>1.0140852065486758E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.5211809786778678</v>
       </c>
       <c r="F28">
-        <f>_xlfn.NORM.DIST($A28,Q$2,Q$3,FALSE)</f>
-        <v>5.3610353446976141E-6</v>
+        <f t="shared" si="4"/>
+        <v>0.51224698313875727</v>
       </c>
       <c r="G28">
-        <f>_xlfn.NORM.DIST($A28,R$2,R$3,FALSE)</f>
-        <v>1.977319640624481E-7</v>
+        <f t="shared" si="5"/>
+        <v>6.9640204056819088E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -6064,28 +6064,28 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <f>_xlfn.NORM.DIST($A29,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.83125273467333394</v>
       </c>
       <c r="C29">
-        <f>_xlfn.NORM.DIST($A29,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4.5154930368999577E-3</v>
       </c>
       <c r="D29">
-        <f>_xlfn.NORM.DIST($A29,O$2,O$3,FALSE)</f>
-        <v>1.986554713927727E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.7970629890142533</v>
       </c>
       <c r="E29">
-        <f>_xlfn.NORM.DIST($A29,P$2,P$3,FALSE)</f>
-        <v>1.5983741106905534E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.568467828963104</v>
       </c>
       <c r="F29">
-        <f>_xlfn.NORM.DIST($A29,Q$2,Q$3,FALSE)</f>
-        <v>8.9724351623833359E-6</v>
+        <f t="shared" si="4"/>
+        <v>0.55267527145741313</v>
       </c>
       <c r="G29">
-        <f>_xlfn.NORM.DIST($A29,R$2,R$3,FALSE)</f>
-        <v>3.513955094820446E-7</v>
+        <f t="shared" si="5"/>
+        <v>7.8622446520490788E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -6093,28 +6093,28 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B30">
-        <f>_xlfn.NORM.DIST($A30,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.7810003555999695</v>
       </c>
       <c r="C30">
-        <f>_xlfn.NORM.DIST($A30,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5.3223422213421138E-3</v>
       </c>
       <c r="D30">
-        <f>_xlfn.NORM.DIST($A30,O$2,O$3,FALSE)</f>
-        <v>2.9194692579146025E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.7667591097301627</v>
       </c>
       <c r="E30">
-        <f>_xlfn.NORM.DIST($A30,P$2,P$3,FALSE)</f>
-        <v>2.4942471290053623E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.6135615988418455</v>
       </c>
       <c r="F30">
-        <f>_xlfn.NORM.DIST($A30,Q$2,Q$3,FALSE)</f>
-        <v>1.4867195147342977E-5</v>
+        <f t="shared" si="4"/>
+        <v>0.59494368952653287</v>
       </c>
       <c r="G30">
-        <f>_xlfn.NORM.DIST($A30,R$2,R$3,FALSE)</f>
-        <v>6.1826205001658888E-7</v>
+        <f t="shared" si="5"/>
+        <v>8.8562175808973742E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -6122,28 +6122,28 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B31">
-        <f>_xlfn.NORM.DIST($A31,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.73212389478724882</v>
       </c>
       <c r="C31">
-        <f>_xlfn.NORM.DIST($A31,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6.2591537540093011E-3</v>
       </c>
       <c r="D31">
-        <f>_xlfn.NORM.DIST($A31,O$2,O$3,FALSE)</f>
-        <v>4.2478027055075146E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.7330320081689699</v>
       </c>
       <c r="E31">
-        <f>_xlfn.NORM.DIST($A31,P$2,P$3,FALSE)</f>
-        <v>3.8535196742087125E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.6561920251276123</v>
       </c>
       <c r="F31">
-        <f>_xlfn.NORM.DIST($A31,Q$2,Q$3,FALSE)</f>
-        <v>2.438960745893352E-5</v>
+        <f t="shared" si="4"/>
+        <v>0.63899417149470894</v>
       </c>
       <c r="G31">
-        <f>_xlfn.NORM.DIST($A31,R$2,R$3,FALSE)</f>
-        <v>1.0769760042543274E-6</v>
+        <f t="shared" si="5"/>
+        <v>9.9532567503762701E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -6151,28 +6151,28 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <f>_xlfn.NORM.DIST($A32,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.68475172737556311</v>
       </c>
       <c r="C32">
-        <f>_xlfn.NORM.DIST($A32,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>7.3441856966243238E-3</v>
       </c>
       <c r="D32">
-        <f>_xlfn.NORM.DIST($A32,O$2,O$3,FALSE)</f>
-        <v>6.1190193011377188E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.6960983587816427</v>
       </c>
       <c r="E32">
-        <f>_xlfn.NORM.DIST($A32,P$2,P$3,FALSE)</f>
-        <v>5.8943067756540054E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.6960983587816427</v>
       </c>
       <c r="F32">
-        <f>_xlfn.NORM.DIST($A32,Q$2,Q$3,FALSE)</f>
-        <v>3.961299091032075E-5</v>
+        <f t="shared" si="4"/>
+        <v>0.68475172737556311</v>
       </c>
       <c r="G32">
-        <f>_xlfn.NORM.DIST($A32,R$2,R$3,FALSE)</f>
-        <v>1.8573618445552897E-6</v>
+        <f t="shared" si="5"/>
+        <v>0.11160851807381066</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -6180,28 +6180,28 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <f>_xlfn.NORM.DIST($A33,M$2,M$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.63899417149470894</v>
       </c>
       <c r="C33">
-        <f>_xlfn.NORM.DIST($A33,N$2,N$3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>8.5977910048888554E-3</v>
       </c>
       <c r="D33">
-        <f>_xlfn.NORM.DIST($A33,O$2,O$3,FALSE)</f>
-        <v>8.7268269504576015E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.6561920251276123</v>
       </c>
       <c r="E33">
-        <f>_xlfn.NORM.DIST($A33,P$2,P$3,FALSE)</f>
-        <v>8.9261657177132922E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.7330320081689694</v>
       </c>
       <c r="F33">
-        <f>_xlfn.NORM.DIST($A33,Q$2,Q$3,FALSE)</f>
-        <v>6.3698251788670899E-5</v>
+        <f t="shared" si="4"/>
+        <v>0.73212389478724882</v>
       </c>
       <c r="G33">
-        <f>_xlfn.NORM.DIST($A33,R$2,R$3,FALSE)</f>
-        <v>3.171349216715976E-6</v>
+        <f t="shared" si="5"/>
+        <v>0.12486613854147374</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -6209,28 +6209,28 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <f>_xlfn.NORM.DIST($A34,M$2,M$3,FALSE)</f>
+        <f t="shared" ref="B34:B65" si="6">_xlfn.NORM.DIST($A34,M$2,M$3,FALSE)</f>
         <v>0.59494368952653265</v>
       </c>
       <c r="C34">
-        <f>_xlfn.NORM.DIST($A34,N$2,N$3,FALSE)</f>
+        <f t="shared" ref="C34:C65" si="7">_xlfn.NORM.DIST($A34,N$2,N$3,FALSE)</f>
         <v>1.0042580554261509E-2</v>
       </c>
       <c r="D34">
-        <f>_xlfn.NORM.DIST($A34,O$2,O$3,FALSE)</f>
-        <v>1.2322191684730199E-2</v>
+        <f t="shared" ref="D34:D65" si="8">_xlfn.NORM.DIST($A34,O$2,O$3,FALSE)</f>
+        <v>1.6135615988418455</v>
       </c>
       <c r="E34">
-        <f>_xlfn.NORM.DIST($A34,P$2,P$3,FALSE)</f>
-        <v>1.338302257648856E-3</v>
+        <f t="shared" ref="E34:E65" si="9">_xlfn.NORM.DIST($A34,P$2,P$3,FALSE)</f>
+        <v>1.7667591097301627</v>
       </c>
       <c r="F34">
-        <f>_xlfn.NORM.DIST($A34,Q$2,Q$3,FALSE)</f>
-        <v>1.0140852065486758E-4</v>
+        <f t="shared" ref="F34:F65" si="10">_xlfn.NORM.DIST($A34,Q$2,Q$3,FALSE)</f>
+        <v>0.78100035559996972</v>
       </c>
       <c r="G34">
-        <f>_xlfn.NORM.DIST($A34,R$2,R$3,FALSE)</f>
-        <v>5.3610353446976141E-6</v>
+        <f t="shared" ref="G34:G65" si="11">_xlfn.NORM.DIST($A34,R$2,R$3,FALSE)</f>
+        <v>0.13938217156743216</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -6238,28 +6238,28 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <f>_xlfn.NORM.DIST($A35,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.55267527145741291</v>
       </c>
       <c r="C35">
-        <f>_xlfn.NORM.DIST($A35,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1.1703586497102979E-2</v>
       </c>
       <c r="D35">
-        <f>_xlfn.NORM.DIST($A35,O$2,O$3,FALSE)</f>
-        <v>1.722568939053681E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.568467828963104</v>
       </c>
       <c r="E35">
-        <f>_xlfn.NORM.DIST($A35,P$2,P$3,FALSE)</f>
-        <v>1.9865547139277305E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.7970629890142533</v>
       </c>
       <c r="F35">
-        <f>_xlfn.NORM.DIST($A35,Q$2,Q$3,FALSE)</f>
-        <v>1.5983741106905474E-4</v>
+        <f t="shared" si="10"/>
+        <v>0.83125273467333438</v>
       </c>
       <c r="G35">
-        <f>_xlfn.NORM.DIST($A35,R$2,R$3,FALSE)</f>
-        <v>8.9724351623833359E-6</v>
+        <f t="shared" si="11"/>
+        <v>0.15523333105600143</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -6267,28 +6267,28 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <f>_xlfn.NORM.DIST($A36,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.51224698313875705</v>
       </c>
       <c r="C36">
-        <f>_xlfn.NORM.DIST($A36,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1.3608423606548167E-2</v>
       </c>
       <c r="D36">
-        <f>_xlfn.NORM.DIST($A36,O$2,O$3,FALSE)</f>
-        <v>2.3840882014648443E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5211809786778678</v>
       </c>
       <c r="E36">
-        <f>_xlfn.NORM.DIST($A36,P$2,P$3,FALSE)</f>
-        <v>2.9194692579146077E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.8237464759248199</v>
       </c>
       <c r="F36">
-        <f>_xlfn.NORM.DIST($A36,Q$2,Q$3,FALSE)</f>
-        <v>2.4942471290053623E-4</v>
+        <f t="shared" si="10"/>
+        <v>0.88273459609092042</v>
       </c>
       <c r="G36">
-        <f>_xlfn.NORM.DIST($A36,R$2,R$3,FALSE)</f>
-        <v>1.486719514734303E-5</v>
+        <f t="shared" si="11"/>
+        <v>0.17249556457300708</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -6296,28 +6296,28 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="B37">
-        <f>_xlfn.NORM.DIST($A37,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.47370066091785079</v>
       </c>
       <c r="C37">
-        <f>_xlfn.NORM.DIST($A37,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1.5787445900418341E-2</v>
       </c>
       <c r="D37">
-        <f>_xlfn.NORM.DIST($A37,O$2,O$3,FALSE)</f>
-        <v>3.2668190561999245E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.4719781467574591</v>
       </c>
       <c r="E37">
-        <f>_xlfn.NORM.DIST($A37,P$2,P$3,FALSE)</f>
-        <v>4.2478027055075293E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.8466340396181415</v>
       </c>
       <c r="F37">
-        <f>_xlfn.NORM.DIST($A37,Q$2,Q$3,FALSE)</f>
-        <v>3.8535196742087125E-4</v>
+        <f t="shared" si="10"/>
+        <v>0.93528165011429309</v>
       </c>
       <c r="G37">
-        <f>_xlfn.NORM.DIST($A37,R$2,R$3,FALSE)</f>
-        <v>2.4389607458933656E-5</v>
+        <f t="shared" si="11"/>
+        <v>0.19124324019477679</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -6325,28 +6325,28 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <f>_xlfn.NORM.DIST($A38,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.43706273316241934</v>
       </c>
       <c r="C38">
-        <f>_xlfn.NORM.DIST($A38,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>1.827389546864212E-2</v>
       </c>
       <c r="D38">
-        <f>_xlfn.NORM.DIST($A38,O$2,O$3,FALSE)</f>
-        <v>4.4318484119379997E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.4211405905178411</v>
       </c>
       <c r="E38">
-        <f>_xlfn.NORM.DIST($A38,P$2,P$3,FALSE)</f>
-        <v>6.1190193011377301E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.8655737107410497</v>
       </c>
       <c r="F38">
-        <f>_xlfn.NORM.DIST($A38,Q$2,Q$3,FALSE)</f>
-        <v>5.8943067756539848E-4</v>
+        <f t="shared" si="10"/>
+        <v>0.98871218150095486</v>
       </c>
       <c r="G38">
-        <f>_xlfn.NORM.DIST($A38,R$2,R$3,FALSE)</f>
-        <v>3.961299091032075E-5</v>
+        <f t="shared" si="11"/>
+        <v>0.21154826085620115</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -6354,28 +6354,28 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <f>_xlfn.NORM.DIST($A39,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.40234514866943977</v>
       </c>
       <c r="C39">
-        <f>_xlfn.NORM.DIST($A39,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>2.1104040056847656E-2</v>
       </c>
       <c r="D39">
-        <f>_xlfn.NORM.DIST($A39,O$2,O$3,FALSE)</f>
-        <v>5.9525324197758474E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.3689510860393781</v>
       </c>
       <c r="E39">
-        <f>_xlfn.NORM.DIST($A39,P$2,P$3,FALSE)</f>
-        <v>8.7268269504576172E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.8804387615726716</v>
       </c>
       <c r="F39">
-        <f>_xlfn.NORM.DIST($A39,Q$2,Q$3,FALSE)</f>
-        <v>8.9261657177132922E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.0428277068887588</v>
       </c>
       <c r="G39">
-        <f>_xlfn.NORM.DIST($A39,R$2,R$3,FALSE)</f>
-        <v>6.3698251788671238E-5</v>
+        <f t="shared" si="11"/>
+        <v>0.23347911082121808</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -6383,28 +6383,28 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <f>_xlfn.NORM.DIST($A40,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.36954639180327642</v>
       </c>
       <c r="C40">
-        <f>_xlfn.NORM.DIST($A40,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>2.4317295594999948E-2</v>
       </c>
       <c r="D40">
-        <f>_xlfn.NORM.DIST($A40,O$2,O$3,FALSE)</f>
-        <v>7.9154515829799571E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.3156913596880988</v>
       </c>
       <c r="E40">
-        <f>_xlfn.NORM.DIST($A40,P$2,P$3,FALSE)</f>
-        <v>1.2322191684730208E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8911291180896206</v>
       </c>
       <c r="F40">
-        <f>_xlfn.NORM.DIST($A40,Q$2,Q$3,FALSE)</f>
-        <v>1.3383022576488536E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.097413865681877</v>
       </c>
       <c r="G40">
-        <f>_xlfn.NORM.DIST($A40,R$2,R$3,FALSE)</f>
-        <v>1.0140852065486758E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.25709984053899049</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -6412,28 +6412,28 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <f>_xlfn.NORM.DIST($A41,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.33865256442425462</v>
       </c>
       <c r="C41">
-        <f>_xlfn.NORM.DIST($A41,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>2.7956329512303851E-2</v>
       </c>
       <c r="D41">
-        <f>_xlfn.NORM.DIST($A41,O$2,O$3,FALSE)</f>
-        <v>0.1042093481442259</v>
+        <f t="shared" si="8"/>
+        <v>1.2616396227334574</v>
       </c>
       <c r="E41">
-        <f>_xlfn.NORM.DIST($A41,P$2,P$3,FALSE)</f>
-        <v>1.7225689390536841E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8975724819456334</v>
       </c>
       <c r="F41">
-        <f>_xlfn.NORM.DIST($A41,Q$2,Q$3,FALSE)</f>
-        <v>1.986554713927727E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.1522415453292543</v>
       </c>
       <c r="G41">
-        <f>_xlfn.NORM.DIST($A41,R$2,R$3,FALSE)</f>
-        <v>1.5983741106905534E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.28246899784764445</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -6441,28 +6441,28 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <f>_xlfn.NORM.DIST($A42,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.30963851521458691</v>
       </c>
       <c r="C42">
-        <f>_xlfn.NORM.DIST($A42,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>3.2067140358239259E-2</v>
       </c>
       <c r="D42">
-        <f>_xlfn.NORM.DIST($A42,O$2,O$3,FALSE)</f>
-        <v>0.13582969233685613</v>
+        <f t="shared" si="8"/>
+        <v>1.2070682381235598</v>
       </c>
       <c r="E42">
-        <f>_xlfn.NORM.DIST($A42,P$2,P$3,FALSE)</f>
-        <v>2.3840882014648485E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8997251447687271</v>
       </c>
       <c r="F42">
-        <f>_xlfn.NORM.DIST($A42,Q$2,Q$3,FALSE)</f>
-        <v>2.9194692579146025E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.20706823812356</v>
       </c>
       <c r="G42">
-        <f>_xlfn.NORM.DIST($A42,R$2,R$3,FALSE)</f>
-        <v>2.4942471290053623E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.30963851521458691</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -6470,28 +6470,28 @@
         <v>0.41000000000000003</v>
       </c>
       <c r="B43">
-        <f>_xlfn.NORM.DIST($A43,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.28246899784764445</v>
       </c>
       <c r="C43">
-        <f>_xlfn.NORM.DIST($A43,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>3.6699108965682237E-2</v>
       </c>
       <c r="D43">
-        <f>_xlfn.NORM.DIST($A43,O$2,O$3,FALSE)</f>
-        <v>0.17528300493568541</v>
+        <f t="shared" si="8"/>
+        <v>1.152241545329254</v>
       </c>
       <c r="E43">
-        <f>_xlfn.NORM.DIST($A43,P$2,P$3,FALSE)</f>
-        <v>3.2668190561999273E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8975724819456334</v>
       </c>
       <c r="F43">
-        <f>_xlfn.NORM.DIST($A43,Q$2,Q$3,FALSE)</f>
-        <v>4.2478027055075224E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.2616396227334576</v>
       </c>
       <c r="G43">
-        <f>_xlfn.NORM.DIST($A43,R$2,R$3,FALSE)</f>
-        <v>3.8535196742087266E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.33865256442425462</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -6499,28 +6499,28 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <f>_xlfn.NORM.DIST($A44,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.25709984053899076</v>
       </c>
       <c r="C44">
-        <f>_xlfn.NORM.DIST($A44,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>4.1905016157530305E-2</v>
       </c>
       <c r="D44">
-        <f>_xlfn.NORM.DIST($A44,O$2,O$3,FALSE)</f>
-        <v>0.22394530294842882</v>
+        <f t="shared" si="8"/>
+        <v>1.097413865681877</v>
       </c>
       <c r="E44">
-        <f>_xlfn.NORM.DIST($A44,P$2,P$3,FALSE)</f>
-        <v>4.431848411938015E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8911291180896206</v>
       </c>
       <c r="F44">
-        <f>_xlfn.NORM.DIST($A44,Q$2,Q$3,FALSE)</f>
-        <v>6.1190193011377188E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.3156913596880988</v>
       </c>
       <c r="G44">
-        <f>_xlfn.NORM.DIST($A44,R$2,R$3,FALSE)</f>
-        <v>5.8943067756540054E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.36954639180327614</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -6528,28 +6528,28 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <f>_xlfn.NORM.DIST($A45,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.23347911082121831</v>
       </c>
       <c r="C45">
-        <f>_xlfn.NORM.DIST($A45,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>4.7741021825659265E-2</v>
       </c>
       <c r="D45">
-        <f>_xlfn.NORM.DIST($A45,O$2,O$3,FALSE)</f>
-        <v>0.28327037741601158</v>
+        <f t="shared" si="8"/>
+        <v>1.0428277068887588</v>
       </c>
       <c r="E45">
-        <f>_xlfn.NORM.DIST($A45,P$2,P$3,FALSE)</f>
-        <v>5.952532419775864E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8804387615726716</v>
       </c>
       <c r="F45">
-        <f>_xlfn.NORM.DIST($A45,Q$2,Q$3,FALSE)</f>
-        <v>8.7268269504576015E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.3689510860393781</v>
       </c>
       <c r="G45">
-        <f>_xlfn.NORM.DIST($A45,R$2,R$3,FALSE)</f>
-        <v>8.9261657177132922E-4</v>
+        <f t="shared" si="11"/>
+        <v>0.40234514866943938</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -6557,28 +6557,28 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <f>_xlfn.NORM.DIST($A46,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.21154826085620138</v>
       </c>
       <c r="C46">
-        <f>_xlfn.NORM.DIST($A46,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>5.4266600113321108E-2</v>
       </c>
       <c r="D46">
-        <f>_xlfn.NORM.DIST($A46,O$2,O$3,FALSE)</f>
-        <v>0.35474592846231423</v>
+        <f t="shared" si="8"/>
+        <v>0.98871218150095486</v>
       </c>
       <c r="E46">
-        <f>_xlfn.NORM.DIST($A46,P$2,P$3,FALSE)</f>
-        <v>7.9154515829799779E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8655737107410497</v>
       </c>
       <c r="F46">
-        <f>_xlfn.NORM.DIST($A46,Q$2,Q$3,FALSE)</f>
-        <v>1.2322191684730199E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.4211405905178411</v>
       </c>
       <c r="G46">
-        <f>_xlfn.NORM.DIST($A46,R$2,R$3,FALSE)</f>
-        <v>1.338302257648856E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.437062733162419</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -6586,28 +6586,28 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <f>_xlfn.NORM.DIST($A47,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.19124324019477679</v>
       </c>
       <c r="C47">
-        <f>_xlfn.NORM.DIST($A47,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>6.1544425422277664E-2</v>
       </c>
       <c r="D47">
-        <f>_xlfn.NORM.DIST($A47,O$2,O$3,FALSE)</f>
-        <v>0.43983595980427187</v>
+        <f t="shared" si="8"/>
+        <v>0.93528165011429298</v>
       </c>
       <c r="E47">
-        <f>_xlfn.NORM.DIST($A47,P$2,P$3,FALSE)</f>
-        <v>0.10420934814422614</v>
+        <f t="shared" si="9"/>
+        <v>1.8466340396181415</v>
       </c>
       <c r="F47">
-        <f>_xlfn.NORM.DIST($A47,Q$2,Q$3,FALSE)</f>
-        <v>1.722568939053681E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.4719781467574593</v>
       </c>
       <c r="G47">
-        <f>_xlfn.NORM.DIST($A47,R$2,R$3,FALSE)</f>
-        <v>1.9865547139277305E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.47370066091785079</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -6615,28 +6615,28 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <f>_xlfn.NORM.DIST($A48,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.17249556457300708</v>
       </c>
       <c r="C48">
-        <f>_xlfn.NORM.DIST($A48,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>6.9640204056819088E-2</v>
       </c>
       <c r="D48">
-        <f>_xlfn.NORM.DIST($A48,O$2,O$3,FALSE)</f>
-        <v>0.53990966513188055</v>
+        <f t="shared" si="8"/>
+        <v>0.8827345960909202</v>
       </c>
       <c r="E48">
-        <f>_xlfn.NORM.DIST($A48,P$2,P$3,FALSE)</f>
-        <v>0.13582969233685643</v>
+        <f t="shared" si="9"/>
+        <v>1.8237464759248199</v>
       </c>
       <c r="F48">
-        <f>_xlfn.NORM.DIST($A48,Q$2,Q$3,FALSE)</f>
-        <v>2.3840882014648443E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.5211809786778681</v>
       </c>
       <c r="G48">
-        <f>_xlfn.NORM.DIST($A48,R$2,R$3,FALSE)</f>
-        <v>2.9194692579146077E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.51224698313875705</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -6644,28 +6644,28 @@
         <v>0.47000000000000003</v>
       </c>
       <c r="B49">
-        <f>_xlfn.NORM.DIST($A49,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.15523333105600143</v>
       </c>
       <c r="C49">
-        <f>_xlfn.NORM.DIST($A49,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>7.8622446520490788E-2</v>
       </c>
       <c r="D49">
-        <f>_xlfn.NORM.DIST($A49,O$2,O$3,FALSE)</f>
-        <v>0.65615814774676595</v>
+        <f t="shared" si="8"/>
+        <v>0.83125273467333394</v>
       </c>
       <c r="E49">
-        <f>_xlfn.NORM.DIST($A49,P$2,P$3,FALSE)</f>
-        <v>0.17528300493568577</v>
+        <f t="shared" si="9"/>
+        <v>1.7970629890142533</v>
       </c>
       <c r="F49">
-        <f>_xlfn.NORM.DIST($A49,Q$2,Q$3,FALSE)</f>
-        <v>3.2668190561999245E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.5684678289631042</v>
       </c>
       <c r="G49">
-        <f>_xlfn.NORM.DIST($A49,R$2,R$3,FALSE)</f>
-        <v>4.2478027055075293E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.55267527145741291</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -6673,28 +6673,28 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <f>_xlfn.NORM.DIST($A50,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.13938217156743224</v>
       </c>
       <c r="C50">
-        <f>_xlfn.NORM.DIST($A50,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>8.8562175808973742E-2</v>
       </c>
       <c r="D50">
-        <f>_xlfn.NORM.DIST($A50,O$2,O$3,FALSE)</f>
-        <v>0.78950158300894091</v>
+        <f t="shared" si="8"/>
+        <v>0.78100035559996972</v>
       </c>
       <c r="E50">
-        <f>_xlfn.NORM.DIST($A50,P$2,P$3,FALSE)</f>
-        <v>0.22394530294842899</v>
+        <f t="shared" si="9"/>
+        <v>1.7667591097301629</v>
       </c>
       <c r="F50">
-        <f>_xlfn.NORM.DIST($A50,Q$2,Q$3,FALSE)</f>
-        <v>4.4318484119379997E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.6135615988418455</v>
       </c>
       <c r="G50">
-        <f>_xlfn.NORM.DIST($A50,R$2,R$3,FALSE)</f>
-        <v>6.1190193011377301E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.59494368952653243</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -6702,28 +6702,28 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <f>_xlfn.NORM.DIST($A51,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.12486613854147374</v>
       </c>
       <c r="C51">
-        <f>_xlfn.NORM.DIST($A51,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>9.9532567503762701E-2</v>
       </c>
       <c r="D51">
-        <f>_xlfn.NORM.DIST($A51,O$2,O$3,FALSE)</f>
-        <v>0.94049077376886858</v>
+        <f t="shared" si="8"/>
+        <v>0.73212389478724882</v>
       </c>
       <c r="E51">
-        <f>_xlfn.NORM.DIST($A51,P$2,P$3,FALSE)</f>
-        <v>0.28327037741601185</v>
+        <f t="shared" si="9"/>
+        <v>1.7330320081689699</v>
       </c>
       <c r="F51">
-        <f>_xlfn.NORM.DIST($A51,Q$2,Q$3,FALSE)</f>
-        <v>5.9525324197758474E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.6561920251276123</v>
       </c>
       <c r="G51">
-        <f>_xlfn.NORM.DIST($A51,R$2,R$3,FALSE)</f>
-        <v>8.7268269504576172E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.63899417149470861</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -6731,28 +6731,28 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <f>_xlfn.NORM.DIST($A52,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.11160851807381066</v>
       </c>
       <c r="C52">
-        <f>_xlfn.NORM.DIST($A52,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.11160851807381066</v>
       </c>
       <c r="D52">
-        <f>_xlfn.NORM.DIST($A52,O$2,O$3,FALSE)</f>
-        <v>1.1092083467945553</v>
+        <f t="shared" si="8"/>
+        <v>0.68475172737556311</v>
       </c>
       <c r="E52">
-        <f>_xlfn.NORM.DIST($A52,P$2,P$3,FALSE)</f>
-        <v>0.35474592846231456</v>
+        <f t="shared" si="9"/>
+        <v>1.6960983587816427</v>
       </c>
       <c r="F52">
-        <f>_xlfn.NORM.DIST($A52,Q$2,Q$3,FALSE)</f>
-        <v>7.9154515829799571E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.6960983587816427</v>
       </c>
       <c r="G52">
-        <f>_xlfn.NORM.DIST($A52,R$2,R$3,FALSE)</f>
-        <v>1.2322191684730208E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.68475172737556278</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -6760,28 +6760,28 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <f>_xlfn.NORM.DIST($A53,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>9.9532567503762701E-2</v>
       </c>
       <c r="C53">
-        <f>_xlfn.NORM.DIST($A53,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.12486613854147374</v>
       </c>
       <c r="D53">
-        <f>_xlfn.NORM.DIST($A53,O$2,O$3,FALSE)</f>
-        <v>1.2951759566589167</v>
+        <f t="shared" si="8"/>
+        <v>0.63899417149470894</v>
       </c>
       <c r="E53">
-        <f>_xlfn.NORM.DIST($A53,P$2,P$3,FALSE)</f>
-        <v>0.43983595980427231</v>
+        <f t="shared" si="9"/>
+        <v>1.6561920251276123</v>
       </c>
       <c r="F53">
-        <f>_xlfn.NORM.DIST($A53,Q$2,Q$3,FALSE)</f>
-        <v>0.1042093481442259</v>
+        <f t="shared" si="10"/>
+        <v>1.7330320081689699</v>
       </c>
       <c r="G53">
-        <f>_xlfn.NORM.DIST($A53,R$2,R$3,FALSE)</f>
-        <v>1.7225689390536841E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.7321238947872486</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -6789,28 +6789,28 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <f>_xlfn.NORM.DIST($A54,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>8.8562175808973742E-2</v>
       </c>
       <c r="C54">
-        <f>_xlfn.NORM.DIST($A54,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.13938217156743224</v>
       </c>
       <c r="D54">
-        <f>_xlfn.NORM.DIST($A54,O$2,O$3,FALSE)</f>
-        <v>1.4972746563574484</v>
+        <f t="shared" si="8"/>
+        <v>0.59494368952653265</v>
       </c>
       <c r="E54">
-        <f>_xlfn.NORM.DIST($A54,P$2,P$3,FALSE)</f>
-        <v>0.53990966513188099</v>
+        <f t="shared" si="9"/>
+        <v>1.6135615988418455</v>
       </c>
       <c r="F54">
-        <f>_xlfn.NORM.DIST($A54,Q$2,Q$3,FALSE)</f>
-        <v>0.13582969233685613</v>
+        <f t="shared" si="10"/>
+        <v>1.7667591097301629</v>
       </c>
       <c r="G54">
-        <f>_xlfn.NORM.DIST($A54,R$2,R$3,FALSE)</f>
-        <v>2.3840882014648485E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.7810003555999695</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -6818,28 +6818,28 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <f>_xlfn.NORM.DIST($A55,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>7.8622446520490788E-2</v>
       </c>
       <c r="C55">
-        <f>_xlfn.NORM.DIST($A55,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.15523333105600143</v>
       </c>
       <c r="D55">
-        <f>_xlfn.NORM.DIST($A55,O$2,O$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="8"/>
+        <v>0.55267527145741291</v>
       </c>
       <c r="E55">
-        <f>_xlfn.NORM.DIST($A55,P$2,P$3,FALSE)</f>
-        <v>0.65615814774676662</v>
+        <f t="shared" si="9"/>
+        <v>1.568467828963104</v>
       </c>
       <c r="F55">
-        <f>_xlfn.NORM.DIST($A55,Q$2,Q$3,FALSE)</f>
-        <v>0.17528300493568541</v>
+        <f t="shared" si="10"/>
+        <v>1.7970629890142533</v>
       </c>
       <c r="G55">
-        <f>_xlfn.NORM.DIST($A55,R$2,R$3,FALSE)</f>
-        <v>3.2668190561999273E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.83125273467333394</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -6847,28 +6847,28 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <f>_xlfn.NORM.DIST($A56,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>6.9640204056819088E-2</v>
       </c>
       <c r="C56">
-        <f>_xlfn.NORM.DIST($A56,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.17249556457300722</v>
       </c>
       <c r="D56">
-        <f>_xlfn.NORM.DIST($A56,O$2,O$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="8"/>
+        <v>0.51224698313875705</v>
       </c>
       <c r="E56">
-        <f>_xlfn.NORM.DIST($A56,P$2,P$3,FALSE)</f>
-        <v>0.78950158300894258</v>
+        <f t="shared" si="9"/>
+        <v>1.5211809786778678</v>
       </c>
       <c r="F56">
-        <f>_xlfn.NORM.DIST($A56,Q$2,Q$3,FALSE)</f>
-        <v>0.22394530294842899</v>
+        <f t="shared" si="10"/>
+        <v>1.8237464759248203</v>
       </c>
       <c r="G56">
-        <f>_xlfn.NORM.DIST($A56,R$2,R$3,FALSE)</f>
-        <v>4.4318484119380191E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.8827345960909202</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -6876,28 +6876,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B57">
-        <f>_xlfn.NORM.DIST($A57,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>6.1544425422277664E-2</v>
       </c>
       <c r="C57">
-        <f>_xlfn.NORM.DIST($A57,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.19124324019477679</v>
       </c>
       <c r="D57">
-        <f>_xlfn.NORM.DIST($A57,O$2,O$3,FALSE)</f>
-        <v>2.1785217703255055</v>
+        <f t="shared" si="8"/>
+        <v>0.47370066091785079</v>
       </c>
       <c r="E57">
-        <f>_xlfn.NORM.DIST($A57,P$2,P$3,FALSE)</f>
-        <v>0.94049077376887036</v>
+        <f t="shared" si="9"/>
+        <v>1.4719781467574591</v>
       </c>
       <c r="F57">
-        <f>_xlfn.NORM.DIST($A57,Q$2,Q$3,FALSE)</f>
-        <v>0.28327037741601185</v>
+        <f t="shared" si="10"/>
+        <v>1.8466340396181415</v>
       </c>
       <c r="G57">
-        <f>_xlfn.NORM.DIST($A57,R$2,R$3,FALSE)</f>
-        <v>5.9525324197758696E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.93528165011429298</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -6905,28 +6905,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="B58">
-        <f>_xlfn.NORM.DIST($A58,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>5.4266600113321108E-2</v>
       </c>
       <c r="C58">
-        <f>_xlfn.NORM.DIST($A58,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.21154826085620154</v>
       </c>
       <c r="D58">
-        <f>_xlfn.NORM.DIST($A58,O$2,O$3,FALSE)</f>
-        <v>2.4197072451914337</v>
+        <f t="shared" si="8"/>
+        <v>0.437062733162419</v>
       </c>
       <c r="E58">
-        <f>_xlfn.NORM.DIST($A58,P$2,P$3,FALSE)</f>
-        <v>1.109208346794557</v>
+        <f t="shared" si="9"/>
+        <v>1.4211405905178409</v>
       </c>
       <c r="F58">
-        <f>_xlfn.NORM.DIST($A58,Q$2,Q$3,FALSE)</f>
-        <v>0.35474592846231456</v>
+        <f t="shared" si="10"/>
+        <v>1.8655737107410502</v>
       </c>
       <c r="G58">
-        <f>_xlfn.NORM.DIST($A58,R$2,R$3,FALSE)</f>
-        <v>7.915451582979989E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.98871218150095486</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -6934,28 +6934,28 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="B59">
-        <f>_xlfn.NORM.DIST($A59,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>4.7741021825659265E-2</v>
       </c>
       <c r="C59">
-        <f>_xlfn.NORM.DIST($A59,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.23347911082121831</v>
       </c>
       <c r="D59">
-        <f>_xlfn.NORM.DIST($A59,O$2,O$3,FALSE)</f>
-        <v>2.6608524989875493</v>
+        <f t="shared" si="8"/>
+        <v>0.40234514866943938</v>
       </c>
       <c r="E59">
-        <f>_xlfn.NORM.DIST($A59,P$2,P$3,FALSE)</f>
-        <v>1.2951759566589192</v>
+        <f t="shared" si="9"/>
+        <v>1.3689510860393777</v>
       </c>
       <c r="F59">
-        <f>_xlfn.NORM.DIST($A59,Q$2,Q$3,FALSE)</f>
-        <v>0.43983595980427231</v>
+        <f t="shared" si="10"/>
+        <v>1.8804387615726716</v>
       </c>
       <c r="G59">
-        <f>_xlfn.NORM.DIST($A59,R$2,R$3,FALSE)</f>
-        <v>0.10420934814422628</v>
+        <f t="shared" si="11"/>
+        <v>1.0428277068887588</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -6963,28 +6963,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="B60">
-        <f>_xlfn.NORM.DIST($A60,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>4.1905016157530332E-2</v>
       </c>
       <c r="C60">
-        <f>_xlfn.NORM.DIST($A60,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.25709984053899049</v>
       </c>
       <c r="D60">
-        <f>_xlfn.NORM.DIST($A60,O$2,O$3,FALSE)</f>
-        <v>2.8969155276148255</v>
+        <f t="shared" si="8"/>
+        <v>0.36954639180327659</v>
       </c>
       <c r="E60">
-        <f>_xlfn.NORM.DIST($A60,P$2,P$3,FALSE)</f>
-        <v>1.4972746563574484</v>
+        <f t="shared" si="9"/>
+        <v>1.3156913596880992</v>
       </c>
       <c r="F60">
-        <f>_xlfn.NORM.DIST($A60,Q$2,Q$3,FALSE)</f>
-        <v>0.53990966513187999</v>
+        <f t="shared" si="10"/>
+        <v>1.8911291180896206</v>
       </c>
       <c r="G60">
-        <f>_xlfn.NORM.DIST($A60,R$2,R$3,FALSE)</f>
-        <v>0.13582969233685613</v>
+        <f t="shared" si="11"/>
+        <v>1.0974138656818762</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -6992,28 +6992,28 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <f>_xlfn.NORM.DIST($A61,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>3.6699108965682237E-2</v>
       </c>
       <c r="C61">
-        <f>_xlfn.NORM.DIST($A61,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.28246899784764445</v>
       </c>
       <c r="D61">
-        <f>_xlfn.NORM.DIST($A61,O$2,O$3,FALSE)</f>
-        <v>3.1225393336676115</v>
+        <f t="shared" si="8"/>
+        <v>0.33865256442425462</v>
       </c>
       <c r="E61">
-        <f>_xlfn.NORM.DIST($A61,P$2,P$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="9"/>
+        <v>1.2616396227334576</v>
       </c>
       <c r="F61">
-        <f>_xlfn.NORM.DIST($A61,Q$2,Q$3,FALSE)</f>
-        <v>0.65615814774676529</v>
+        <f t="shared" si="10"/>
+        <v>1.8975724819456334</v>
       </c>
       <c r="G61">
-        <f>_xlfn.NORM.DIST($A61,R$2,R$3,FALSE)</f>
-        <v>0.17528300493568541</v>
+        <f t="shared" si="11"/>
+        <v>1.1522415453292538</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -7021,28 +7021,28 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <f>_xlfn.NORM.DIST($A62,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>3.2067140358239259E-2</v>
       </c>
       <c r="C62">
-        <f>_xlfn.NORM.DIST($A62,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.30963851521458691</v>
       </c>
       <c r="D62">
-        <f>_xlfn.NORM.DIST($A62,O$2,O$3,FALSE)</f>
-        <v>3.3322460289179952</v>
+        <f t="shared" si="8"/>
+        <v>0.30963851521458702</v>
       </c>
       <c r="E62">
-        <f>_xlfn.NORM.DIST($A62,P$2,P$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="9"/>
+        <v>1.20706823812356</v>
       </c>
       <c r="F62">
-        <f>_xlfn.NORM.DIST($A62,Q$2,Q$3,FALSE)</f>
-        <v>0.78950158300894091</v>
+        <f t="shared" si="10"/>
+        <v>1.8997251447687271</v>
       </c>
       <c r="G62">
-        <f>_xlfn.NORM.DIST($A62,R$2,R$3,FALSE)</f>
-        <v>0.22394530294842899</v>
+        <f t="shared" si="11"/>
+        <v>1.2070682381235593</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -7050,28 +7050,28 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <f>_xlfn.NORM.DIST($A63,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.7956329512303851E-2</v>
       </c>
       <c r="C63">
-        <f>_xlfn.NORM.DIST($A63,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.33865256442425462</v>
       </c>
       <c r="D63">
-        <f>_xlfn.NORM.DIST($A63,O$2,O$3,FALSE)</f>
-        <v>3.5206532676429942</v>
+        <f t="shared" si="8"/>
+        <v>0.28246899784764451</v>
       </c>
       <c r="E63">
-        <f>_xlfn.NORM.DIST($A63,P$2,P$3,FALSE)</f>
-        <v>2.1785217703255055</v>
+        <f t="shared" si="9"/>
+        <v>1.1522415453292543</v>
       </c>
       <c r="F63">
-        <f>_xlfn.NORM.DIST($A63,Q$2,Q$3,FALSE)</f>
-        <v>0.94049077376886858</v>
+        <f t="shared" si="10"/>
+        <v>1.8975724819456334</v>
       </c>
       <c r="G63">
-        <f>_xlfn.NORM.DIST($A63,R$2,R$3,FALSE)</f>
-        <v>0.28327037741601185</v>
+        <f t="shared" si="11"/>
+        <v>1.261639622733457</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -7079,28 +7079,28 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <f>_xlfn.NORM.DIST($A64,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.4317295594999948E-2</v>
       </c>
       <c r="C64">
-        <f>_xlfn.NORM.DIST($A64,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.36954639180327642</v>
       </c>
       <c r="D64">
-        <f>_xlfn.NORM.DIST($A64,O$2,O$3,FALSE)</f>
-        <v>3.6827014030332323</v>
+        <f t="shared" si="8"/>
+        <v>0.25709984053899076</v>
       </c>
       <c r="E64">
-        <f>_xlfn.NORM.DIST($A64,P$2,P$3,FALSE)</f>
-        <v>2.4197072451914337</v>
+        <f t="shared" si="9"/>
+        <v>1.097413865681877</v>
       </c>
       <c r="F64">
-        <f>_xlfn.NORM.DIST($A64,Q$2,Q$3,FALSE)</f>
-        <v>1.1092083467945553</v>
+        <f t="shared" si="10"/>
+        <v>1.8911291180896206</v>
       </c>
       <c r="G64">
-        <f>_xlfn.NORM.DIST($A64,R$2,R$3,FALSE)</f>
-        <v>0.35474592846231456</v>
+        <f t="shared" si="11"/>
+        <v>1.3156913596880986</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -7108,28 +7108,28 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <f>_xlfn.NORM.DIST($A65,M$2,M$3,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>2.1104040056847656E-2</v>
       </c>
       <c r="C65">
-        <f>_xlfn.NORM.DIST($A65,N$2,N$3,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.40234514866943977</v>
       </c>
       <c r="D65">
-        <f>_xlfn.NORM.DIST($A65,O$2,O$3,FALSE)</f>
-        <v>3.8138781546052405</v>
+        <f t="shared" si="8"/>
+        <v>0.23347911082121831</v>
       </c>
       <c r="E65">
-        <f>_xlfn.NORM.DIST($A65,P$2,P$3,FALSE)</f>
-        <v>2.6608524989875493</v>
+        <f t="shared" si="9"/>
+        <v>1.0428277068887588</v>
       </c>
       <c r="F65">
-        <f>_xlfn.NORM.DIST($A65,Q$2,Q$3,FALSE)</f>
-        <v>1.2951759566589167</v>
+        <f t="shared" si="10"/>
+        <v>1.8804387615726716</v>
       </c>
       <c r="G65">
-        <f>_xlfn.NORM.DIST($A65,R$2,R$3,FALSE)</f>
-        <v>0.43983595980427231</v>
+        <f t="shared" si="11"/>
+        <v>1.3689510860393777</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
@@ -7137,28 +7137,28 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <f>_xlfn.NORM.DIST($A66,M$2,M$3,FALSE)</f>
+        <f t="shared" ref="B66:B102" si="12">_xlfn.NORM.DIST($A66,M$2,M$3,FALSE)</f>
         <v>1.827389546864212E-2</v>
       </c>
       <c r="C66">
-        <f>_xlfn.NORM.DIST($A66,N$2,N$3,FALSE)</f>
+        <f t="shared" ref="C66:C102" si="13">_xlfn.NORM.DIST($A66,N$2,N$3,FALSE)</f>
         <v>0.43706273316241934</v>
       </c>
       <c r="D66">
-        <f>_xlfn.NORM.DIST($A66,O$2,O$3,FALSE)</f>
-        <v>3.9104269397545588</v>
+        <f t="shared" ref="D66:D102" si="14">_xlfn.NORM.DIST($A66,O$2,O$3,FALSE)</f>
+        <v>0.21154826085620138</v>
       </c>
       <c r="E66">
-        <f>_xlfn.NORM.DIST($A66,P$2,P$3,FALSE)</f>
-        <v>2.8969155276148286</v>
+        <f t="shared" ref="E66:E102" si="15">_xlfn.NORM.DIST($A66,P$2,P$3,FALSE)</f>
+        <v>0.98871218150095486</v>
       </c>
       <c r="F66">
-        <f>_xlfn.NORM.DIST($A66,Q$2,Q$3,FALSE)</f>
-        <v>1.4972746563574484</v>
+        <f t="shared" ref="F66:F102" si="16">_xlfn.NORM.DIST($A66,Q$2,Q$3,FALSE)</f>
+        <v>1.8655737107410497</v>
       </c>
       <c r="G66">
-        <f>_xlfn.NORM.DIST($A66,R$2,R$3,FALSE)</f>
-        <v>0.53990966513188099</v>
+        <f t="shared" ref="G66:G102" si="17">_xlfn.NORM.DIST($A66,R$2,R$3,FALSE)</f>
+        <v>1.4211405905178409</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
@@ -7166,28 +7166,28 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <f>_xlfn.NORM.DIST($A67,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.5787445900418313E-2</v>
       </c>
       <c r="C67">
-        <f>_xlfn.NORM.DIST($A67,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.47370066091785101</v>
       </c>
       <c r="D67">
-        <f>_xlfn.NORM.DIST($A67,O$2,O$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="14"/>
+        <v>0.19124324019477679</v>
       </c>
       <c r="E67">
-        <f>_xlfn.NORM.DIST($A67,P$2,P$3,FALSE)</f>
-        <v>3.1225393336676137</v>
+        <f t="shared" si="15"/>
+        <v>0.93528165011429298</v>
       </c>
       <c r="F67">
-        <f>_xlfn.NORM.DIST($A67,Q$2,Q$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="16"/>
+        <v>1.8466340396181411</v>
       </c>
       <c r="G67">
-        <f>_xlfn.NORM.DIST($A67,R$2,R$3,FALSE)</f>
-        <v>0.65615814774676662</v>
+        <f t="shared" si="17"/>
+        <v>1.4719781467574591</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
@@ -7195,28 +7195,28 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <f>_xlfn.NORM.DIST($A68,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.3608423606548141E-2</v>
       </c>
       <c r="C68">
-        <f>_xlfn.NORM.DIST($A68,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.51224698313875727</v>
       </c>
       <c r="D68">
-        <f>_xlfn.NORM.DIST($A68,O$2,O$3,FALSE)</f>
-        <v>3.9894228040143269</v>
+        <f t="shared" si="14"/>
+        <v>0.17249556457300708</v>
       </c>
       <c r="E68">
-        <f>_xlfn.NORM.DIST($A68,P$2,P$3,FALSE)</f>
-        <v>3.3322460289179978</v>
+        <f t="shared" si="15"/>
+        <v>0.8827345960909202</v>
       </c>
       <c r="F68">
-        <f>_xlfn.NORM.DIST($A68,Q$2,Q$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="16"/>
+        <v>1.8237464759248199</v>
       </c>
       <c r="G68">
-        <f>_xlfn.NORM.DIST($A68,R$2,R$3,FALSE)</f>
-        <v>0.78950158300894258</v>
+        <f t="shared" si="17"/>
+        <v>1.5211809786778678</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -7224,28 +7224,28 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <f>_xlfn.NORM.DIST($A69,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.1703586497102958E-2</v>
       </c>
       <c r="C69">
-        <f>_xlfn.NORM.DIST($A69,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.55267527145741313</v>
       </c>
       <c r="D69">
-        <f>_xlfn.NORM.DIST($A69,O$2,O$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="14"/>
+        <v>0.15523333105600143</v>
       </c>
       <c r="E69">
-        <f>_xlfn.NORM.DIST($A69,P$2,P$3,FALSE)</f>
-        <v>3.5206532676429956</v>
+        <f t="shared" si="15"/>
+        <v>0.83125273467333394</v>
       </c>
       <c r="F69">
-        <f>_xlfn.NORM.DIST($A69,Q$2,Q$3,FALSE)</f>
-        <v>2.1785217703255055</v>
+        <f t="shared" si="16"/>
+        <v>1.7970629890142533</v>
       </c>
       <c r="G69">
-        <f>_xlfn.NORM.DIST($A69,R$2,R$3,FALSE)</f>
-        <v>0.94049077376887036</v>
+        <f t="shared" si="17"/>
+        <v>1.568467828963104</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
@@ -7253,28 +7253,28 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <f>_xlfn.NORM.DIST($A70,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.004258055426149E-2</v>
       </c>
       <c r="C70">
-        <f>_xlfn.NORM.DIST($A70,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.59494368952653287</v>
       </c>
       <c r="D70">
-        <f>_xlfn.NORM.DIST($A70,O$2,O$3,FALSE)</f>
-        <v>3.9104269397545588</v>
+        <f t="shared" si="14"/>
+        <v>0.13938217156743216</v>
       </c>
       <c r="E70">
-        <f>_xlfn.NORM.DIST($A70,P$2,P$3,FALSE)</f>
-        <v>3.6827014030332346</v>
+        <f t="shared" si="15"/>
+        <v>0.7810003555999695</v>
       </c>
       <c r="F70">
-        <f>_xlfn.NORM.DIST($A70,Q$2,Q$3,FALSE)</f>
-        <v>2.4197072451914337</v>
+        <f t="shared" si="16"/>
+        <v>1.7667591097301627</v>
       </c>
       <c r="G70">
-        <f>_xlfn.NORM.DIST($A70,R$2,R$3,FALSE)</f>
-        <v>1.109208346794557</v>
+        <f t="shared" si="17"/>
+        <v>1.6135615988418455</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -7282,28 +7282,28 @@
         <v>0.69000000000000006</v>
       </c>
       <c r="B71">
-        <f>_xlfn.NORM.DIST($A71,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>8.5977910048888415E-3</v>
       </c>
       <c r="C71">
-        <f>_xlfn.NORM.DIST($A71,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.63899417149470905</v>
       </c>
       <c r="D71">
-        <f>_xlfn.NORM.DIST($A71,O$2,O$3,FALSE)</f>
-        <v>3.8138781546052405</v>
+        <f t="shared" si="14"/>
+        <v>0.12486613854147374</v>
       </c>
       <c r="E71">
-        <f>_xlfn.NORM.DIST($A71,P$2,P$3,FALSE)</f>
-        <v>3.8138781546052423</v>
+        <f t="shared" si="15"/>
+        <v>0.7321238947872486</v>
       </c>
       <c r="F71">
-        <f>_xlfn.NORM.DIST($A71,Q$2,Q$3,FALSE)</f>
-        <v>2.6608524989875493</v>
+        <f t="shared" si="16"/>
+        <v>1.733032008168969</v>
       </c>
       <c r="G71">
-        <f>_xlfn.NORM.DIST($A71,R$2,R$3,FALSE)</f>
-        <v>1.2951759566589192</v>
+        <f t="shared" si="17"/>
+        <v>1.6561920251276123</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -7311,28 +7311,28 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="B72">
-        <f>_xlfn.NORM.DIST($A72,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>7.3441856966243047E-3</v>
       </c>
       <c r="C72">
-        <f>_xlfn.NORM.DIST($A72,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.68475172737556333</v>
       </c>
       <c r="D72">
-        <f>_xlfn.NORM.DIST($A72,O$2,O$3,FALSE)</f>
-        <v>3.6827014030332323</v>
+        <f t="shared" si="14"/>
+        <v>0.11160851807381066</v>
       </c>
       <c r="E72">
-        <f>_xlfn.NORM.DIST($A72,P$2,P$3,FALSE)</f>
-        <v>3.9104269397545597</v>
+        <f t="shared" si="15"/>
+        <v>0.68475172737556278</v>
       </c>
       <c r="F72">
-        <f>_xlfn.NORM.DIST($A72,Q$2,Q$3,FALSE)</f>
-        <v>2.8969155276148286</v>
+        <f t="shared" si="16"/>
+        <v>1.6960983587816427</v>
       </c>
       <c r="G72">
-        <f>_xlfn.NORM.DIST($A72,R$2,R$3,FALSE)</f>
-        <v>1.4972746563574506</v>
+        <f t="shared" si="17"/>
+        <v>1.6960983587816427</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
@@ -7340,28 +7340,28 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <f>_xlfn.NORM.DIST($A73,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>6.2591537540093011E-3</v>
       </c>
       <c r="C73">
-        <f>_xlfn.NORM.DIST($A73,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.7321238947872486</v>
       </c>
       <c r="D73">
-        <f>_xlfn.NORM.DIST($A73,O$2,O$3,FALSE)</f>
-        <v>3.5206532676429956</v>
+        <f t="shared" si="14"/>
+        <v>9.9532567503762701E-2</v>
       </c>
       <c r="E73">
-        <f>_xlfn.NORM.DIST($A73,P$2,P$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="15"/>
+        <v>0.63899417149470905</v>
       </c>
       <c r="F73">
-        <f>_xlfn.NORM.DIST($A73,Q$2,Q$3,FALSE)</f>
-        <v>3.1225393336676115</v>
+        <f t="shared" si="16"/>
+        <v>1.6561920251276123</v>
       </c>
       <c r="G73">
-        <f>_xlfn.NORM.DIST($A73,R$2,R$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="17"/>
+        <v>1.733032008168969</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
@@ -7369,28 +7369,28 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <f>_xlfn.NORM.DIST($A74,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>5.3223422213421138E-3</v>
       </c>
       <c r="C74">
-        <f>_xlfn.NORM.DIST($A74,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.7810003555999695</v>
       </c>
       <c r="D74">
-        <f>_xlfn.NORM.DIST($A74,O$2,O$3,FALSE)</f>
-        <v>3.3322460289179978</v>
+        <f t="shared" si="14"/>
+        <v>8.8562175808973742E-2</v>
       </c>
       <c r="E74">
-        <f>_xlfn.NORM.DIST($A74,P$2,P$3,FALSE)</f>
-        <v>3.9894228040143269</v>
+        <f t="shared" si="15"/>
+        <v>0.59494368952653287</v>
       </c>
       <c r="F74">
-        <f>_xlfn.NORM.DIST($A74,Q$2,Q$3,FALSE)</f>
-        <v>3.3322460289179952</v>
+        <f t="shared" si="16"/>
+        <v>1.6135615988418455</v>
       </c>
       <c r="G74">
-        <f>_xlfn.NORM.DIST($A74,R$2,R$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="17"/>
+        <v>1.7667591097301627</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -7398,28 +7398,28 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <f>_xlfn.NORM.DIST($A75,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.5154930368999577E-3</v>
       </c>
       <c r="C75">
-        <f>_xlfn.NORM.DIST($A75,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.83125273467333394</v>
       </c>
       <c r="D75">
-        <f>_xlfn.NORM.DIST($A75,O$2,O$3,FALSE)</f>
-        <v>3.1225393336676137</v>
+        <f t="shared" si="14"/>
+        <v>7.8622446520490788E-2</v>
       </c>
       <c r="E75">
-        <f>_xlfn.NORM.DIST($A75,P$2,P$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="15"/>
+        <v>0.55267527145741313</v>
       </c>
       <c r="F75">
-        <f>_xlfn.NORM.DIST($A75,Q$2,Q$3,FALSE)</f>
-        <v>3.5206532676429942</v>
+        <f t="shared" si="16"/>
+        <v>1.568467828963104</v>
       </c>
       <c r="G75">
-        <f>_xlfn.NORM.DIST($A75,R$2,R$3,FALSE)</f>
-        <v>2.1785217703255055</v>
+        <f t="shared" si="17"/>
+        <v>1.7970629890142533</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
@@ -7427,28 +7427,28 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <f>_xlfn.NORM.DIST($A76,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.8222823346066364E-3</v>
       </c>
       <c r="C76">
-        <f>_xlfn.NORM.DIST($A76,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.8827345960909202</v>
       </c>
       <c r="D76">
-        <f>_xlfn.NORM.DIST($A76,O$2,O$3,FALSE)</f>
-        <v>2.8969155276148286</v>
+        <f t="shared" si="14"/>
+        <v>6.9640204056819088E-2</v>
       </c>
       <c r="E76">
-        <f>_xlfn.NORM.DIST($A76,P$2,P$3,FALSE)</f>
-        <v>3.9104269397545588</v>
+        <f t="shared" si="15"/>
+        <v>0.51224698313875727</v>
       </c>
       <c r="F76">
-        <f>_xlfn.NORM.DIST($A76,Q$2,Q$3,FALSE)</f>
-        <v>3.6827014030332323</v>
+        <f t="shared" si="16"/>
+        <v>1.5211809786778678</v>
       </c>
       <c r="G76">
-        <f>_xlfn.NORM.DIST($A76,R$2,R$3,FALSE)</f>
-        <v>2.4197072451914337</v>
+        <f t="shared" si="17"/>
+        <v>1.8237464759248199</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -7456,28 +7456,28 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <f>_xlfn.NORM.DIST($A77,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.2281637387270323E-3</v>
       </c>
       <c r="C77">
-        <f>_xlfn.NORM.DIST($A77,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.93528165011429298</v>
       </c>
       <c r="D77">
-        <f>_xlfn.NORM.DIST($A77,O$2,O$3,FALSE)</f>
-        <v>2.6608524989875493</v>
+        <f t="shared" si="14"/>
+        <v>6.1544425422277664E-2</v>
       </c>
       <c r="E77">
-        <f>_xlfn.NORM.DIST($A77,P$2,P$3,FALSE)</f>
-        <v>3.8138781546052405</v>
+        <f t="shared" si="15"/>
+        <v>0.47370066091785101</v>
       </c>
       <c r="F77">
-        <f>_xlfn.NORM.DIST($A77,Q$2,Q$3,FALSE)</f>
-        <v>3.8138781546052405</v>
+        <f t="shared" si="16"/>
+        <v>1.4719781467574591</v>
       </c>
       <c r="G77">
-        <f>_xlfn.NORM.DIST($A77,R$2,R$3,FALSE)</f>
-        <v>2.6608524989875493</v>
+        <f t="shared" si="17"/>
+        <v>1.8466340396181411</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
@@ -7485,28 +7485,28 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <f>_xlfn.NORM.DIST($A78,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.7202170082627937E-3</v>
       </c>
       <c r="C78">
-        <f>_xlfn.NORM.DIST($A78,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.98871218150095486</v>
       </c>
       <c r="D78">
-        <f>_xlfn.NORM.DIST($A78,O$2,O$3,FALSE)</f>
-        <v>2.4197072451914337</v>
+        <f t="shared" si="14"/>
+        <v>5.4266600113321108E-2</v>
       </c>
       <c r="E78">
-        <f>_xlfn.NORM.DIST($A78,P$2,P$3,FALSE)</f>
-        <v>3.6827014030332323</v>
+        <f t="shared" si="15"/>
+        <v>0.43706273316241934</v>
       </c>
       <c r="F78">
-        <f>_xlfn.NORM.DIST($A78,Q$2,Q$3,FALSE)</f>
-        <v>3.9104269397545588</v>
+        <f t="shared" si="16"/>
+        <v>1.4211405905178409</v>
       </c>
       <c r="G78">
-        <f>_xlfn.NORM.DIST($A78,R$2,R$3,FALSE)</f>
-        <v>2.8969155276148286</v>
+        <f t="shared" si="17"/>
+        <v>1.8655737107410497</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -7514,28 +7514,28 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <f>_xlfn.NORM.DIST($A79,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.2870031029562847E-3</v>
       </c>
       <c r="C79">
-        <f>_xlfn.NORM.DIST($A79,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.0428277068887588</v>
       </c>
       <c r="D79">
-        <f>_xlfn.NORM.DIST($A79,O$2,O$3,FALSE)</f>
-        <v>2.1785217703255055</v>
+        <f t="shared" si="14"/>
+        <v>4.7741021825659265E-2</v>
       </c>
       <c r="E79">
-        <f>_xlfn.NORM.DIST($A79,P$2,P$3,FALSE)</f>
-        <v>3.5206532676429942</v>
+        <f t="shared" si="15"/>
+        <v>0.40234514866943977</v>
       </c>
       <c r="F79">
-        <f>_xlfn.NORM.DIST($A79,Q$2,Q$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="16"/>
+        <v>1.3689510860393777</v>
       </c>
       <c r="G79">
-        <f>_xlfn.NORM.DIST($A79,R$2,R$3,FALSE)</f>
-        <v>3.1225393336676137</v>
+        <f t="shared" si="17"/>
+        <v>1.8804387615726716</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -7543,28 +7543,28 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <f>_xlfn.NORM.DIST($A80,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.918426483843578E-3</v>
       </c>
       <c r="C80">
-        <f>_xlfn.NORM.DIST($A80,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.097413865681877</v>
       </c>
       <c r="D80">
-        <f>_xlfn.NORM.DIST($A80,O$2,O$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="14"/>
+        <v>4.1905016157530305E-2</v>
       </c>
       <c r="E80">
-        <f>_xlfn.NORM.DIST($A80,P$2,P$3,FALSE)</f>
-        <v>3.3322460289179952</v>
+        <f t="shared" si="15"/>
+        <v>0.36954639180327642</v>
       </c>
       <c r="F80">
-        <f>_xlfn.NORM.DIST($A80,Q$2,Q$3,FALSE)</f>
-        <v>3.9894228040143269</v>
+        <f t="shared" si="16"/>
+        <v>1.3156913596880986</v>
       </c>
       <c r="G80">
-        <f>_xlfn.NORM.DIST($A80,R$2,R$3,FALSE)</f>
-        <v>3.3322460289179978</v>
+        <f t="shared" si="17"/>
+        <v>1.8911291180896206</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -7572,28 +7572,28 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <f>_xlfn.NORM.DIST($A81,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.6056052290001992E-3</v>
       </c>
       <c r="C81">
-        <f>_xlfn.NORM.DIST($A81,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.1522415453292543</v>
       </c>
       <c r="D81">
-        <f>_xlfn.NORM.DIST($A81,O$2,O$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="14"/>
+        <v>3.669910896568214E-2</v>
       </c>
       <c r="E81">
-        <f>_xlfn.NORM.DIST($A81,P$2,P$3,FALSE)</f>
-        <v>3.1225393336676115</v>
+        <f t="shared" si="15"/>
+        <v>0.33865256442425462</v>
       </c>
       <c r="F81">
-        <f>_xlfn.NORM.DIST($A81,Q$2,Q$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="16"/>
+        <v>1.261639622733457</v>
       </c>
       <c r="G81">
-        <f>_xlfn.NORM.DIST($A81,R$2,R$3,FALSE)</f>
-        <v>3.5206532676429956</v>
+        <f t="shared" si="17"/>
+        <v>1.8975724819456334</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
@@ -7601,28 +7601,28 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <f>_xlfn.NORM.DIST($A82,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.3407493396765441E-3</v>
       </c>
       <c r="C82">
-        <f>_xlfn.NORM.DIST($A82,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.20706823812356</v>
       </c>
       <c r="D82">
-        <f>_xlfn.NORM.DIST($A82,O$2,O$3,FALSE)</f>
-        <v>1.4972746563574484</v>
+        <f t="shared" si="14"/>
+        <v>3.2067140358239203E-2</v>
       </c>
       <c r="E82">
-        <f>_xlfn.NORM.DIST($A82,P$2,P$3,FALSE)</f>
-        <v>2.8969155276148255</v>
+        <f t="shared" si="15"/>
+        <v>0.30963851521458691</v>
       </c>
       <c r="F82">
-        <f>_xlfn.NORM.DIST($A82,Q$2,Q$3,FALSE)</f>
-        <v>3.9104269397545588</v>
+        <f t="shared" si="16"/>
+        <v>1.2070682381235593</v>
       </c>
       <c r="G82">
-        <f>_xlfn.NORM.DIST($A82,R$2,R$3,FALSE)</f>
-        <v>3.6827014030332346</v>
+        <f t="shared" si="17"/>
+        <v>1.8997251447687271</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
@@ -7630,28 +7630,28 @@
         <v>0.81</v>
       </c>
       <c r="B83">
-        <f>_xlfn.NORM.DIST($A83,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.1170474330169352E-3</v>
       </c>
       <c r="C83">
-        <f>_xlfn.NORM.DIST($A83,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.2616396227334576</v>
       </c>
       <c r="D83">
-        <f>_xlfn.NORM.DIST($A83,O$2,O$3,FALSE)</f>
-        <v>1.2951759566589167</v>
+        <f t="shared" si="14"/>
+        <v>2.7956329512303771E-2</v>
       </c>
       <c r="E83">
-        <f>_xlfn.NORM.DIST($A83,P$2,P$3,FALSE)</f>
-        <v>2.6608524989875462</v>
+        <f t="shared" si="15"/>
+        <v>0.28246899784764445</v>
       </c>
       <c r="F83">
-        <f>_xlfn.NORM.DIST($A83,Q$2,Q$3,FALSE)</f>
-        <v>3.8138781546052405</v>
+        <f t="shared" si="16"/>
+        <v>1.1522415453292538</v>
       </c>
       <c r="G83">
-        <f>_xlfn.NORM.DIST($A83,R$2,R$3,FALSE)</f>
-        <v>3.8138781546052423</v>
+        <f t="shared" si="17"/>
+        <v>1.8975724819456334</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -7659,28 +7659,28 @@
         <v>0.82000000000000006</v>
       </c>
       <c r="B84">
-        <f>_xlfn.NORM.DIST($A84,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>9.2856186410834917E-4</v>
       </c>
       <c r="C84">
-        <f>_xlfn.NORM.DIST($A84,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.3156913596880992</v>
       </c>
       <c r="D84">
-        <f>_xlfn.NORM.DIST($A84,O$2,O$3,FALSE)</f>
-        <v>1.1092083467945553</v>
+        <f t="shared" si="14"/>
+        <v>2.4317295594999903E-2</v>
       </c>
       <c r="E84">
-        <f>_xlfn.NORM.DIST($A84,P$2,P$3,FALSE)</f>
-        <v>2.4197072451914314</v>
+        <f t="shared" si="15"/>
+        <v>0.25709984053899049</v>
       </c>
       <c r="F84">
-        <f>_xlfn.NORM.DIST($A84,Q$2,Q$3,FALSE)</f>
-        <v>3.6827014030332323</v>
+        <f t="shared" si="16"/>
+        <v>1.0974138656818762</v>
       </c>
       <c r="G84">
-        <f>_xlfn.NORM.DIST($A84,R$2,R$3,FALSE)</f>
-        <v>3.9104269397545597</v>
+        <f t="shared" si="17"/>
+        <v>1.8911291180896206</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
@@ -7688,28 +7688,28 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="B85">
-        <f>_xlfn.NORM.DIST($A85,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>7.7013219093532775E-4</v>
       </c>
       <c r="C85">
-        <f>_xlfn.NORM.DIST($A85,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.3689510860393783</v>
       </c>
       <c r="D85">
-        <f>_xlfn.NORM.DIST($A85,O$2,O$3,FALSE)</f>
-        <v>0.94049077376886858</v>
+        <f t="shared" si="14"/>
+        <v>2.1104040056847618E-2</v>
       </c>
       <c r="E85">
-        <f>_xlfn.NORM.DIST($A85,P$2,P$3,FALSE)</f>
-        <v>2.1785217703255033</v>
+        <f t="shared" si="15"/>
+        <v>0.23347911082121808</v>
       </c>
       <c r="F85">
-        <f>_xlfn.NORM.DIST($A85,Q$2,Q$3,FALSE)</f>
-        <v>3.5206532676429942</v>
+        <f t="shared" si="16"/>
+        <v>1.0428277068887581</v>
       </c>
       <c r="G85">
-        <f>_xlfn.NORM.DIST($A85,R$2,R$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="17"/>
+        <v>1.8804387615726716</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
@@ -7717,28 +7717,28 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <f>_xlfn.NORM.DIST($A86,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>6.3728678935659705E-4</v>
       </c>
       <c r="C86">
-        <f>_xlfn.NORM.DIST($A86,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.4211405905178409</v>
       </c>
       <c r="D86">
-        <f>_xlfn.NORM.DIST($A86,O$2,O$3,FALSE)</f>
-        <v>0.78950158300894258</v>
+        <f t="shared" si="14"/>
+        <v>1.8273895468642155E-2</v>
       </c>
       <c r="E86">
-        <f>_xlfn.NORM.DIST($A86,P$2,P$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="15"/>
+        <v>0.21154826085620154</v>
       </c>
       <c r="F86">
-        <f>_xlfn.NORM.DIST($A86,Q$2,Q$3,FALSE)</f>
-        <v>3.3322460289179978</v>
+        <f t="shared" si="16"/>
+        <v>0.98871218150095486</v>
       </c>
       <c r="G86">
-        <f>_xlfn.NORM.DIST($A86,R$2,R$3,FALSE)</f>
-        <v>3.9894228040143269</v>
+        <f t="shared" si="17"/>
+        <v>1.8655737107410502</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
@@ -7746,28 +7746,28 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <f>_xlfn.NORM.DIST($A87,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>5.2616233968451082E-4</v>
       </c>
       <c r="C87">
-        <f>_xlfn.NORM.DIST($A87,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.4719781467574591</v>
       </c>
       <c r="D87">
-        <f>_xlfn.NORM.DIST($A87,O$2,O$3,FALSE)</f>
-        <v>0.65615814774676662</v>
+        <f t="shared" si="14"/>
+        <v>1.5787445900418341E-2</v>
       </c>
       <c r="E87">
-        <f>_xlfn.NORM.DIST($A87,P$2,P$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="15"/>
+        <v>0.19124324019477679</v>
       </c>
       <c r="F87">
-        <f>_xlfn.NORM.DIST($A87,Q$2,Q$3,FALSE)</f>
-        <v>3.1225393336676137</v>
+        <f t="shared" si="16"/>
+        <v>0.93528165011429298</v>
       </c>
       <c r="G87">
-        <f>_xlfn.NORM.DIST($A87,R$2,R$3,FALSE)</f>
-        <v>3.9695254747701179</v>
+        <f t="shared" si="17"/>
+        <v>1.8466340396181415</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
@@ -7775,28 +7775,28 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <f>_xlfn.NORM.DIST($A88,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.3343083992442271E-4</v>
       </c>
       <c r="C88">
-        <f>_xlfn.NORM.DIST($A88,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.5211809786778678</v>
       </c>
       <c r="D88">
-        <f>_xlfn.NORM.DIST($A88,O$2,O$3,FALSE)</f>
-        <v>0.53990966513188099</v>
+        <f t="shared" si="14"/>
+        <v>1.3608423606548167E-2</v>
       </c>
       <c r="E88">
-        <f>_xlfn.NORM.DIST($A88,P$2,P$3,FALSE)</f>
-        <v>1.4972746563574484</v>
+        <f t="shared" si="15"/>
+        <v>0.17249556457300722</v>
       </c>
       <c r="F88">
-        <f>_xlfn.NORM.DIST($A88,Q$2,Q$3,FALSE)</f>
-        <v>2.8969155276148286</v>
+        <f t="shared" si="16"/>
+        <v>0.8827345960909202</v>
       </c>
       <c r="G88">
-        <f>_xlfn.NORM.DIST($A88,R$2,R$3,FALSE)</f>
-        <v>3.9104269397545588</v>
+        <f t="shared" si="17"/>
+        <v>1.8237464759248203</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
@@ -7804,28 +7804,28 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <f>_xlfn.NORM.DIST($A89,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.5623375123100976E-4</v>
       </c>
       <c r="C89">
-        <f>_xlfn.NORM.DIST($A89,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.568467828963104</v>
       </c>
       <c r="D89">
-        <f>_xlfn.NORM.DIST($A89,O$2,O$3,FALSE)</f>
-        <v>0.43983595980427231</v>
+        <f t="shared" si="14"/>
+        <v>1.1703586497102979E-2</v>
       </c>
       <c r="E89">
-        <f>_xlfn.NORM.DIST($A89,P$2,P$3,FALSE)</f>
-        <v>1.2951759566589167</v>
+        <f t="shared" si="15"/>
+        <v>0.15523333105600143</v>
       </c>
       <c r="F89">
-        <f>_xlfn.NORM.DIST($A89,Q$2,Q$3,FALSE)</f>
-        <v>2.6608524989875493</v>
+        <f t="shared" si="16"/>
+        <v>0.83125273467333394</v>
       </c>
       <c r="G89">
-        <f>_xlfn.NORM.DIST($A89,R$2,R$3,FALSE)</f>
-        <v>3.8138781546052405</v>
+        <f t="shared" si="17"/>
+        <v>1.7970629890142533</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
@@ -7833,28 +7833,28 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <f>_xlfn.NORM.DIST($A90,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.9212284666438966E-4</v>
       </c>
       <c r="C90">
-        <f>_xlfn.NORM.DIST($A90,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.6135615988418455</v>
       </c>
       <c r="D90">
-        <f>_xlfn.NORM.DIST($A90,O$2,O$3,FALSE)</f>
-        <v>0.35474592846231456</v>
+        <f t="shared" si="14"/>
+        <v>1.0042580554261509E-2</v>
       </c>
       <c r="E90">
-        <f>_xlfn.NORM.DIST($A90,P$2,P$3,FALSE)</f>
-        <v>1.1092083467945553</v>
+        <f t="shared" si="15"/>
+        <v>0.13938217156743224</v>
       </c>
       <c r="F90">
-        <f>_xlfn.NORM.DIST($A90,Q$2,Q$3,FALSE)</f>
-        <v>2.4197072451914337</v>
+        <f t="shared" si="16"/>
+        <v>0.7810003555999695</v>
       </c>
       <c r="G90">
-        <f>_xlfn.NORM.DIST($A90,R$2,R$3,FALSE)</f>
-        <v>3.6827014030332323</v>
+        <f t="shared" si="17"/>
+        <v>1.7667591097301629</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
@@ -7862,28 +7862,28 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <f>_xlfn.NORM.DIST($A91,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.39007312916766E-4</v>
       </c>
       <c r="C91">
-        <f>_xlfn.NORM.DIST($A91,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.6561920251276123</v>
       </c>
       <c r="D91">
-        <f>_xlfn.NORM.DIST($A91,O$2,O$3,FALSE)</f>
-        <v>0.28327037741601185</v>
+        <f t="shared" si="14"/>
+        <v>8.5977910048888554E-3</v>
       </c>
       <c r="E91">
-        <f>_xlfn.NORM.DIST($A91,P$2,P$3,FALSE)</f>
-        <v>0.94049077376886858</v>
+        <f t="shared" si="15"/>
+        <v>0.12486613854147374</v>
       </c>
       <c r="F91">
-        <f>_xlfn.NORM.DIST($A91,Q$2,Q$3,FALSE)</f>
-        <v>2.1785217703255055</v>
+        <f t="shared" si="16"/>
+        <v>0.7321238947872486</v>
       </c>
       <c r="G91">
-        <f>_xlfn.NORM.DIST($A91,R$2,R$3,FALSE)</f>
-        <v>3.5206532676429942</v>
+        <f t="shared" si="17"/>
+        <v>1.7330320081689699</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
@@ -7891,28 +7891,28 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <f>_xlfn.NORM.DIST($A92,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.9510664444019444E-4</v>
       </c>
       <c r="C92">
-        <f>_xlfn.NORM.DIST($A92,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.6960983587816427</v>
       </c>
       <c r="D92">
-        <f>_xlfn.NORM.DIST($A92,O$2,O$3,FALSE)</f>
-        <v>0.22394530294842899</v>
+        <f t="shared" si="14"/>
+        <v>7.3441856966243238E-3</v>
       </c>
       <c r="E92">
-        <f>_xlfn.NORM.DIST($A92,P$2,P$3,FALSE)</f>
-        <v>0.78950158300894091</v>
+        <f t="shared" si="15"/>
+        <v>0.11160851807381066</v>
       </c>
       <c r="F92">
-        <f>_xlfn.NORM.DIST($A92,Q$2,Q$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="16"/>
+        <v>0.68475172737556278</v>
       </c>
       <c r="G92">
-        <f>_xlfn.NORM.DIST($A92,R$2,R$3,FALSE)</f>
-        <v>3.3322460289179952</v>
+        <f t="shared" si="17"/>
+        <v>1.6960983587816427</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
@@ -7920,28 +7920,28 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <f>_xlfn.NORM.DIST($A93,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.5890886855065862E-4</v>
       </c>
       <c r="C93">
-        <f>_xlfn.NORM.DIST($A93,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.7330320081689699</v>
       </c>
       <c r="D93">
-        <f>_xlfn.NORM.DIST($A93,O$2,O$3,FALSE)</f>
-        <v>0.17528300493568541</v>
+        <f t="shared" si="14"/>
+        <v>6.2591537540093011E-3</v>
       </c>
       <c r="E93">
-        <f>_xlfn.NORM.DIST($A93,P$2,P$3,FALSE)</f>
-        <v>0.65615814774676529</v>
+        <f t="shared" si="15"/>
+        <v>9.9532567503762701E-2</v>
       </c>
       <c r="F93">
-        <f>_xlfn.NORM.DIST($A93,Q$2,Q$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="16"/>
+        <v>0.63899417149470861</v>
       </c>
       <c r="G93">
-        <f>_xlfn.NORM.DIST($A93,R$2,R$3,FALSE)</f>
-        <v>3.1225393336676115</v>
+        <f t="shared" si="17"/>
+        <v>1.6561920251276123</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
@@ -7949,28 +7949,28 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <f>_xlfn.NORM.DIST($A94,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.2913364695122959E-4</v>
       </c>
       <c r="C94">
-        <f>_xlfn.NORM.DIST($A94,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.7667591097301629</v>
       </c>
       <c r="D94">
-        <f>_xlfn.NORM.DIST($A94,O$2,O$3,FALSE)</f>
-        <v>0.13582969233685613</v>
+        <f t="shared" si="14"/>
+        <v>5.3223422213421138E-3</v>
       </c>
       <c r="E94">
-        <f>_xlfn.NORM.DIST($A94,P$2,P$3,FALSE)</f>
-        <v>0.53990966513187999</v>
+        <f t="shared" si="15"/>
+        <v>8.8562175808973742E-2</v>
       </c>
       <c r="F94">
-        <f>_xlfn.NORM.DIST($A94,Q$2,Q$3,FALSE)</f>
-        <v>1.4972746563574484</v>
+        <f t="shared" si="16"/>
+        <v>0.59494368952653243</v>
       </c>
       <c r="G94">
-        <f>_xlfn.NORM.DIST($A94,R$2,R$3,FALSE)</f>
-        <v>2.8969155276148255</v>
+        <f t="shared" si="17"/>
+        <v>1.6135615988418455</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
@@ -7978,28 +7978,28 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <f>_xlfn.NORM.DIST($A95,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.0469981218597746E-4</v>
       </c>
       <c r="C95">
-        <f>_xlfn.NORM.DIST($A95,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.7970629890142533</v>
       </c>
       <c r="D95">
-        <f>_xlfn.NORM.DIST($A95,O$2,O$3,FALSE)</f>
-        <v>0.1042093481442259</v>
+        <f t="shared" si="14"/>
+        <v>4.5154930368999577E-3</v>
       </c>
       <c r="E95">
-        <f>_xlfn.NORM.DIST($A95,P$2,P$3,FALSE)</f>
-        <v>0.43983595980427154</v>
+        <f t="shared" si="15"/>
+        <v>7.8622446520490788E-2</v>
       </c>
       <c r="F95">
-        <f>_xlfn.NORM.DIST($A95,Q$2,Q$3,FALSE)</f>
-        <v>1.2951759566589167</v>
+        <f t="shared" si="16"/>
+        <v>0.5526752714574128</v>
       </c>
       <c r="G95">
-        <f>_xlfn.NORM.DIST($A95,R$2,R$3,FALSE)</f>
-        <v>2.6608524989875462</v>
+        <f t="shared" si="17"/>
+        <v>1.568467828963104</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
@@ -8007,28 +8007,28 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="B96">
-        <f>_xlfn.NORM.DIST($A96,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>8.4696915434381785E-5</v>
       </c>
       <c r="C96">
-        <f>_xlfn.NORM.DIST($A96,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.8237464759248203</v>
       </c>
       <c r="D96">
-        <f>_xlfn.NORM.DIST($A96,O$2,O$3,FALSE)</f>
-        <v>7.9154515829799571E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.8222823346066364E-3</v>
       </c>
       <c r="E96">
-        <f>_xlfn.NORM.DIST($A96,P$2,P$3,FALSE)</f>
-        <v>0.3547459284623139</v>
+        <f t="shared" si="15"/>
+        <v>6.9640204056819088E-2</v>
       </c>
       <c r="F96">
-        <f>_xlfn.NORM.DIST($A96,Q$2,Q$3,FALSE)</f>
-        <v>1.1092083467945553</v>
+        <f t="shared" si="16"/>
+        <v>0.51224698313875694</v>
       </c>
       <c r="G96">
-        <f>_xlfn.NORM.DIST($A96,R$2,R$3,FALSE)</f>
-        <v>2.4197072451914314</v>
+        <f t="shared" si="17"/>
+        <v>1.5211809786778678</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
@@ -8036,28 +8036,28 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="B97">
-        <f>_xlfn.NORM.DIST($A97,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>6.8360383563704022E-5</v>
       </c>
       <c r="C97">
-        <f>_xlfn.NORM.DIST($A97,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.8466340396181415</v>
       </c>
       <c r="D97">
-        <f>_xlfn.NORM.DIST($A97,O$2,O$3,FALSE)</f>
-        <v>5.9525324197758474E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.2281637387270323E-3</v>
       </c>
       <c r="E97">
-        <f>_xlfn.NORM.DIST($A97,P$2,P$3,FALSE)</f>
-        <v>0.28327037741601119</v>
+        <f t="shared" si="15"/>
+        <v>6.1544425422277664E-2</v>
       </c>
       <c r="F97">
-        <f>_xlfn.NORM.DIST($A97,Q$2,Q$3,FALSE)</f>
-        <v>0.94049077376886858</v>
+        <f t="shared" si="16"/>
+        <v>0.47370066091785051</v>
       </c>
       <c r="G97">
-        <f>_xlfn.NORM.DIST($A97,R$2,R$3,FALSE)</f>
-        <v>2.1785217703255033</v>
+        <f t="shared" si="17"/>
+        <v>1.4719781467574591</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
@@ -8065,28 +8065,28 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <f>_xlfn.NORM.DIST($A98,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>5.5049907407015393E-5</v>
       </c>
       <c r="C98">
-        <f>_xlfn.NORM.DIST($A98,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.8655737107410497</v>
       </c>
       <c r="D98">
-        <f>_xlfn.NORM.DIST($A98,O$2,O$3,FALSE)</f>
-        <v>4.4318484119380191E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.7202170082627937E-3</v>
       </c>
       <c r="E98">
-        <f>_xlfn.NORM.DIST($A98,P$2,P$3,FALSE)</f>
-        <v>0.22394530294842899</v>
+        <f t="shared" si="15"/>
+        <v>5.4266600113321156E-2</v>
       </c>
       <c r="F98">
-        <f>_xlfn.NORM.DIST($A98,Q$2,Q$3,FALSE)</f>
-        <v>0.78950158300894258</v>
+        <f t="shared" si="16"/>
+        <v>0.43706273316241934</v>
       </c>
       <c r="G98">
-        <f>_xlfn.NORM.DIST($A98,R$2,R$3,FALSE)</f>
-        <v>1.9418605498321297</v>
+        <f t="shared" si="17"/>
+        <v>1.4211405905178414</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
@@ -8094,28 +8094,28 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <f>_xlfn.NORM.DIST($A99,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.4230708907724652E-5</v>
       </c>
       <c r="C99">
-        <f>_xlfn.NORM.DIST($A99,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.8804387615726716</v>
       </c>
       <c r="D99">
-        <f>_xlfn.NORM.DIST($A99,O$2,O$3,FALSE)</f>
-        <v>3.2668190561999273E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.2870031029562847E-3</v>
       </c>
       <c r="E99">
-        <f>_xlfn.NORM.DIST($A99,P$2,P$3,FALSE)</f>
-        <v>0.17528300493568541</v>
+        <f t="shared" si="15"/>
+        <v>4.774102182565939E-2</v>
       </c>
       <c r="F99">
-        <f>_xlfn.NORM.DIST($A99,Q$2,Q$3,FALSE)</f>
-        <v>0.65615814774676662</v>
+        <f t="shared" si="16"/>
+        <v>0.40234514866943977</v>
       </c>
       <c r="G99">
-        <f>_xlfn.NORM.DIST($A99,R$2,R$3,FALSE)</f>
-        <v>1.7136859204780734</v>
+        <f t="shared" si="17"/>
+        <v>1.3689510860393783</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
@@ -8123,28 +8123,28 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <f>_xlfn.NORM.DIST($A100,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.545736128871424E-5</v>
       </c>
       <c r="C100">
-        <f>_xlfn.NORM.DIST($A100,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.8911291180896206</v>
       </c>
       <c r="D100">
-        <f>_xlfn.NORM.DIST($A100,O$2,O$3,FALSE)</f>
-        <v>2.3840882014648485E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.918426483843578E-3</v>
       </c>
       <c r="E100">
-        <f>_xlfn.NORM.DIST($A100,P$2,P$3,FALSE)</f>
-        <v>0.13582969233685613</v>
+        <f t="shared" si="15"/>
+        <v>4.1905016157530332E-2</v>
       </c>
       <c r="F100">
-        <f>_xlfn.NORM.DIST($A100,Q$2,Q$3,FALSE)</f>
-        <v>0.53990966513188099</v>
+        <f t="shared" si="16"/>
+        <v>0.36954639180327642</v>
       </c>
       <c r="G100">
-        <f>_xlfn.NORM.DIST($A100,R$2,R$3,FALSE)</f>
-        <v>1.4972746563574484</v>
+        <f t="shared" si="17"/>
+        <v>1.3156913596880992</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
@@ -8152,28 +8152,28 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <f>_xlfn.NORM.DIST($A101,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.8359863117987185E-5</v>
       </c>
       <c r="C101">
-        <f>_xlfn.NORM.DIST($A101,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.8975724819456334</v>
       </c>
       <c r="D101">
-        <f>_xlfn.NORM.DIST($A101,O$2,O$3,FALSE)</f>
-        <v>1.7225689390536841E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.6056052290001992E-3</v>
       </c>
       <c r="E101">
-        <f>_xlfn.NORM.DIST($A101,P$2,P$3,FALSE)</f>
-        <v>0.1042093481442259</v>
+        <f t="shared" si="15"/>
+        <v>3.6699108965682237E-2</v>
       </c>
       <c r="F101">
-        <f>_xlfn.NORM.DIST($A101,Q$2,Q$3,FALSE)</f>
-        <v>0.43983595980427231</v>
+        <f t="shared" si="16"/>
+        <v>0.33865256442425462</v>
       </c>
       <c r="G101">
-        <f>_xlfn.NORM.DIST($A101,R$2,R$3,FALSE)</f>
-        <v>1.2951759566589167</v>
+        <f t="shared" si="17"/>
+        <v>1.2616396227334576</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
@@ -8181,28 +8181,28 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <f>_xlfn.NORM.DIST($A102,M$2,M$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.2631693526306676E-5</v>
       </c>
       <c r="C102">
-        <f>_xlfn.NORM.DIST($A102,N$2,N$3,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.8997251447687271</v>
       </c>
       <c r="D102">
-        <f>_xlfn.NORM.DIST($A102,O$2,O$3,FALSE)</f>
-        <v>1.2322191684730208E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.3407493396765441E-3</v>
       </c>
       <c r="E102">
-        <f>_xlfn.NORM.DIST($A102,P$2,P$3,FALSE)</f>
-        <v>7.9154515829799571E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.2067140358239259E-2</v>
       </c>
       <c r="F102">
-        <f>_xlfn.NORM.DIST($A102,Q$2,Q$3,FALSE)</f>
-        <v>0.35474592846231456</v>
+        <f t="shared" si="16"/>
+        <v>0.30963851521458691</v>
       </c>
       <c r="G102">
-        <f>_xlfn.NORM.DIST($A102,R$2,R$3,FALSE)</f>
-        <v>1.1092083467945553</v>
+        <f t="shared" si="17"/>
+        <v>1.20706823812356</v>
       </c>
     </row>
   </sheetData>

--- a/DataSets/makeGaussian.xlsx
+++ b/DataSets/makeGaussian.xlsx
@@ -538,307 +538,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.8997251447687271</c:v>
+                  <c:v>5.6991754343061807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8466340396181415</c:v>
+                  <c:v>4.4159344402723768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8237464759248199</c:v>
+                  <c:v>3.9470740790642962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.4567246359877619</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7667591097301629</c:v>
+                  <c:v>2.9661365445028642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7330320081689699</c:v>
+                  <c:v>2.4937582040200028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4719781467574593</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4211405905178409</c:v>
+                  <c:v>0.41814651470229669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3689510860393781</c:v>
+                  <c:v>0.29859770251128837</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3156913596880988</c:v>
+                  <c:v>0.20892061217045751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2616396227334574</c:v>
+                  <c:v>0.14322306547697813</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2070682381235598</c:v>
+                  <c:v>9.6201421074717755E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1522415453292543</c:v>
+                  <c:v>6.3312120170543079E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.097413865681877</c:v>
+                  <c:v>4.0825270819644495E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0428277068887586</c:v>
+                  <c:v>2.5793373014666564E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98871218150095486</c:v>
+                  <c:v>1.5967026664026367E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.93528165011429298</c:v>
+                  <c:v>9.6844912161811042E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8827345960909202</c:v>
+                  <c:v>5.7552794515307384E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83125273467333394</c:v>
+                  <c:v>3.3511422990508116E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7810003555999695</c:v>
+                  <c:v>1.9118603680697906E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.73212389478724882</c:v>
+                  <c:v>1.0687012536930328E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.68475172737556311</c:v>
+                  <c:v>5.8531993332058309E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.63899417149470894</c:v>
+                  <c:v>3.1409943655793344E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.59494368952653265</c:v>
+                  <c:v>1.6514972222104619E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.55267527145741291</c:v>
+                  <c:v>8.5079589353961537E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.51224698313875705</c:v>
+                  <c:v>4.2944719446696338E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47370066091785079</c:v>
+                  <c:v>2.1238850210489968E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.43706273316241934</c:v>
+                  <c:v>1.0291746525102078E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.40234514866943977</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.36954639180327642</c:v>
+                  <c:v>2.2730855556730004E-6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.036058799423568E-6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.30963851521458691</c:v>
+                  <c:v>4.6268974321914441E-7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.28246899784764445</c:v>
+                  <c:v>2.024567161282905E-7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.25709984053899076</c:v>
+                  <c:v>8.6798326426047539E-8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.23347911082121831</c:v>
+                  <c:v>3.646089811742544E-8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.21154826085620138</c:v>
+                  <c:v>1.5006527901377616E-8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.19124324019477679</c:v>
+                  <c:v>6.0515959736511571E-9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.17249556457300708</c:v>
+                  <c:v>2.3910930535638448E-9</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.15523333105600143</c:v>
+                  <c:v>9.25677862198159E-10</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.13938217156743224</c:v>
+                  <c:v>3.5112368419650074E-10</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.12486613854147374</c:v>
+                  <c:v>1.3049600583378082E-10</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.11160851807381066</c:v>
+                  <c:v>4.7519423251816039E-11</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.9532567503762701E-2</c:v>
+                  <c:v>1.6954381451316979E-11</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.8562175808973742E-2</c:v>
+                  <c:v>5.9269271111331903E-12</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.8622446520490788E-2</c:v>
+                  <c:v>2.0300842883252696E-12</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.9640204056819088E-2</c:v>
+                  <c:v>6.8129531270131049E-13</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.1544425422277664E-2</c:v>
+                  <c:v>2.2402350062652667E-13</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.4266600113321108E-2</c:v>
+                  <c:v>7.2175301193384172E-14</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.7741021825659265E-2</c:v>
+                  <c:v>2.2783501922584702E-14</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.1905016157530332E-2</c:v>
+                  <c:v>7.046755417313932E-15</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.6699108965682237E-2</c:v>
+                  <c:v>2.1354763474912531E-15</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.2067140358239259E-2</c:v>
+                  <c:v>6.3406996299110642E-16</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.7956329512303851E-2</c:v>
+                  <c:v>1.8446604756698365E-16</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.4317295594999948E-2</c:v>
+                  <c:v>5.2581449251008156E-17</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.1104040056847656E-2</c:v>
+                  <c:v>1.4685390816669878E-17</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.827389546864212E-2</c:v>
+                  <c:v>4.0186049308480372E-18</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5787445900418313E-2</c:v>
+                  <c:v>1.077462004427533E-18</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3608423606548141E-2</c:v>
+                  <c:v>2.8305150138147085E-19</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1703586497102958E-2</c:v>
+                  <c:v>7.2856081406277099E-20</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.004258055426149E-2</c:v>
+                  <c:v>1.8373969965260188E-20</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5977910048888415E-3</c:v>
+                  <c:v>4.5402215187622286E-21</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.3441856966243047E-3</c:v>
+                  <c:v>1.0992283752437741E-21</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.2591537540093011E-3</c:v>
+                  <c:v>2.6075681387772078E-22</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.3223422213421138E-3</c:v>
+                  <c:v>6.0606645689863085E-23</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.5154930368999577E-3</c:v>
+                  <c:v>1.3801989040921581E-23</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.8222823346066364E-3</c:v>
+                  <c:v>3.0796400250676623E-24</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.2281637387270323E-3</c:v>
+                  <c:v>6.7327901716316234E-25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.7202170082627937E-3</c:v>
+                  <c:v>1.4422051816531405E-25</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.2870031029562847E-3</c:v>
+                  <c:v>3.0268846478705049E-26</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.918426483843578E-3</c:v>
+                  <c:v>6.2244579453436687E-27</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.6056052290001992E-3</c:v>
+                  <c:v>1.254134314315563E-27</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3407493396765441E-3</c:v>
+                  <c:v>2.4758447689746287E-28</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1170474330169352E-3</c:v>
+                  <c:v>4.7889424718040773E-29</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.2856186410834917E-4</c:v>
+                  <c:v>9.0759621411124614E-30</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.7013219093532775E-4</c:v>
+                  <c:v>1.6853207911733009E-30</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.3728678935659705E-4</c:v>
+                  <c:v>3.066262479518745E-31</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.2616233968451082E-4</c:v>
+                  <c:v>5.4660415205132465E-32</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.3343083992442271E-4</c:v>
+                  <c:v>9.5471417588578773E-33</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.5623375123100976E-4</c:v>
+                  <c:v>1.633844284839004E-33</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.9212284666438966E-4</c:v>
+                  <c:v>2.7395851457064615E-34</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.39007312916766E-4</c:v>
+                  <c:v>4.500862955476405E-35</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.9510664444019444E-4</c:v>
+                  <c:v>7.2450873118419857E-36</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5890886855065862E-4</c:v>
+                  <c:v>1.1426896795724017E-36</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.2913364695122959E-4</c:v>
+                  <c:v>1.7658338334881973E-37</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0469981218597746E-4</c:v>
+                  <c:v>2.6736725032040923E-38</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.4696915434381785E-5</c:v>
+                  <c:v>3.9664632331488982E-39</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.8360383563704022E-5</c:v>
+                  <c:v>5.7654804467263554E-40</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.5049907407015393E-5</c:v>
+                  <c:v>8.2111582375675724E-41</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.4230708907724652E-5</c:v>
+                  <c:v>1.1458036114057351E-41</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.545736128871424E-5</c:v>
+                  <c:v>1.5665807991271464E-42</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.8359863117987185E-5</c:v>
+                  <c:v>2.0986125183915247E-43</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.2631693526306676E-5</c:v>
+                  <c:v>2.7545367204976972E-44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,307 +1195,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2.2631693526306676E-5</c:v>
+                  <c:v>2.7545367204976972E-44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8359863117987185E-5</c:v>
+                  <c:v>2.0986125183915247E-43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.545736128871424E-5</c:v>
+                  <c:v>1.5665807991271464E-42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4230708907724652E-5</c:v>
+                  <c:v>1.1458036114057351E-41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5049907407015393E-5</c:v>
+                  <c:v>8.2111582375675724E-41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8360383563704266E-5</c:v>
+                  <c:v>5.7654804467264378E-40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4696915434381785E-5</c:v>
+                  <c:v>3.9664632331490111E-39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0469981218597746E-4</c:v>
+                  <c:v>2.673672503204168E-38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2913364695122959E-4</c:v>
+                  <c:v>1.7658338334881973E-37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5890886855065862E-4</c:v>
+                  <c:v>1.1426896795724017E-36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9510664444019444E-4</c:v>
+                  <c:v>7.2450873118419857E-36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.39007312916766E-4</c:v>
+                  <c:v>4.500862955476405E-35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9212284666438966E-4</c:v>
+                  <c:v>2.7395851457064615E-34</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5623375123100976E-4</c:v>
+                  <c:v>1.633844284839004E-33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3343083992442271E-4</c:v>
+                  <c:v>9.5471417588578773E-33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2616233968451082E-4</c:v>
+                  <c:v>5.4660415205132465E-32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3728678935659705E-4</c:v>
+                  <c:v>3.066262479518745E-31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7013219093532916E-4</c:v>
+                  <c:v>1.6853207911733247E-30</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.2856186410834917E-4</c:v>
+                  <c:v>9.0759621411124614E-30</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1170474330169352E-3</c:v>
+                  <c:v>4.7889424718040773E-29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3407493396765441E-3</c:v>
+                  <c:v>2.4758447689746287E-28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6056052290001992E-3</c:v>
+                  <c:v>1.254134314315563E-27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.918426483843578E-3</c:v>
+                  <c:v>6.2244579453436687E-27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2870031029562847E-3</c:v>
+                  <c:v>3.0268846478705049E-26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7202170082627937E-3</c:v>
+                  <c:v>1.4422051816531405E-25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2281637387270323E-3</c:v>
+                  <c:v>6.7327901716316234E-25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.8222823346066364E-3</c:v>
+                  <c:v>3.0796400250676623E-24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.5154930368999577E-3</c:v>
+                  <c:v>1.3801989040921581E-23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3223422213421138E-3</c:v>
+                  <c:v>6.0606645689863085E-23</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.2591537540093011E-3</c:v>
+                  <c:v>2.6075681387772078E-22</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.3441856966243238E-3</c:v>
+                  <c:v>1.0992283752437897E-21</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.5977910048888554E-3</c:v>
+                  <c:v>4.5402215187622926E-21</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0042580554261509E-2</c:v>
+                  <c:v>1.8373969965260579E-20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1703586497102979E-2</c:v>
+                  <c:v>7.2856081406278123E-20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3608423606548167E-2</c:v>
+                  <c:v>2.8305150138147691E-19</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5787445900418341E-2</c:v>
+                  <c:v>1.0774620044275482E-18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.827389546864212E-2</c:v>
+                  <c:v>4.0186049308480372E-18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.1104040056847656E-2</c:v>
+                  <c:v>1.4685390816669878E-17</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.4317295594999948E-2</c:v>
+                  <c:v>5.2581449251008156E-17</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7956329512303851E-2</c:v>
+                  <c:v>1.8446604756698365E-16</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.2067140358239259E-2</c:v>
+                  <c:v>6.3406996299110642E-16</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6699108965682237E-2</c:v>
+                  <c:v>2.1354763474912531E-15</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.1905016157530305E-2</c:v>
+                  <c:v>7.0467554173138318E-15</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.7741021825659265E-2</c:v>
+                  <c:v>2.2783501922584702E-14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.4266600113321108E-2</c:v>
+                  <c:v>7.2175301193384172E-14</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.1544425422277664E-2</c:v>
+                  <c:v>2.2402350062652667E-13</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.9640204056819088E-2</c:v>
+                  <c:v>6.8129531270131049E-13</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.8622446520490788E-2</c:v>
+                  <c:v>2.0300842883252696E-12</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.8562175808973742E-2</c:v>
+                  <c:v>5.9269271111331903E-12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.9532567503762701E-2</c:v>
+                  <c:v>1.6954381451316979E-11</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.11160851807381066</c:v>
+                  <c:v>4.7519423251816039E-11</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.12486613854147374</c:v>
+                  <c:v>1.3049600583378082E-10</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13938217156743224</c:v>
+                  <c:v>3.5112368419650074E-10</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.15523333105600143</c:v>
+                  <c:v>9.2567786219816561E-10</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17249556457300722</c:v>
+                  <c:v>2.3910930535638531E-9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.19124324019477679</c:v>
+                  <c:v>6.0515959736511778E-9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.21154826085620154</c:v>
+                  <c:v>1.5006527901377669E-8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.23347911082121831</c:v>
+                  <c:v>3.6460898117425698E-8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.25709984053899049</c:v>
+                  <c:v>8.679832642604693E-8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.28246899784764445</c:v>
+                  <c:v>2.024567161282905E-7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.30963851521458691</c:v>
+                  <c:v>4.6268974321914441E-7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.036058799423568E-6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.36954639180327642</c:v>
+                  <c:v>2.2730855556730004E-6</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.40234514866943977</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.43706273316241934</c:v>
+                  <c:v>1.0291746525102078E-5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.47370066091785101</c:v>
+                  <c:v>2.123885021049004E-5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.51224698313875727</c:v>
+                  <c:v>4.2944719446696568E-5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.55267527145741313</c:v>
+                  <c:v>8.5079589353961998E-5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.59494368952653287</c:v>
+                  <c:v>1.6514972222104673E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.63899417149470905</c:v>
+                  <c:v>3.1409943655793512E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.68475172737556333</c:v>
+                  <c:v>5.8531993332058526E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.7321238947872486</c:v>
+                  <c:v>1.0687012536930291E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.7810003555999695</c:v>
+                  <c:v>1.9118603680697906E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.83125273467333394</c:v>
+                  <c:v>3.3511422990508116E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.8827345960909202</c:v>
+                  <c:v>5.7552794515307384E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.93528165011429298</c:v>
+                  <c:v>9.6844912161811042E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.98871218150095486</c:v>
+                  <c:v>1.5967026664026367E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0428277068887588</c:v>
+                  <c:v>2.5793373014666592E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.097413865681877</c:v>
+                  <c:v>4.082527081964453E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1522415453292543</c:v>
+                  <c:v>6.3312120170543121E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.20706823812356</c:v>
+                  <c:v>9.6201421074718005E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2616396227334576</c:v>
+                  <c:v>0.14322306547697847</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.3156913596880992</c:v>
+                  <c:v>0.20892061217045796</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3689510860393783</c:v>
+                  <c:v>0.29859770251128903</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.4211405905178409</c:v>
+                  <c:v>0.41814651470229641</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722395</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266906</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.7330320081689699</c:v>
+                  <c:v>2.4937582040200037</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.7667591097301629</c:v>
+                  <c:v>2.9661365445028669</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.456724635987765</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.8237464759248203</c:v>
+                  <c:v>3.9470740790642997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.8466340396181415</c:v>
+                  <c:v>4.4159344402723804</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255348</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.8997251447687271</c:v>
+                  <c:v>5.6991754343061807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,307 +1852,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.2070682381235598</c:v>
+                  <c:v>9.6201421074717755E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2616396227334574</c:v>
+                  <c:v>0.14322306547697813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3156913596880988</c:v>
+                  <c:v>0.20892061217045726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3689510860393781</c:v>
+                  <c:v>0.29859770251128837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4211405905178409</c:v>
+                  <c:v>0.41814651470229669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7330320081689699</c:v>
+                  <c:v>2.4937582040200015</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7667591097301627</c:v>
+                  <c:v>2.9661365445028638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.4567246359877619</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8237464759248199</c:v>
+                  <c:v>3.9470740790642962</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8466340396181411</c:v>
+                  <c:v>4.4159344402723768</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255357</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8997251447687271</c:v>
+                  <c:v>5.6991754343061807</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.47123942777446</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255366</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8466340396181415</c:v>
+                  <c:v>4.4159344402723777</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8237464759248199</c:v>
+                  <c:v>3.9470740790642962</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.4567246359877619</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7667591097301627</c:v>
+                  <c:v>2.9661365445028638</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7330320081689699</c:v>
+                  <c:v>2.4937582040200037</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266906</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722395</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4211405905178411</c:v>
+                  <c:v>0.41814651470229713</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3689510860393781</c:v>
+                  <c:v>0.2985977025112887</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3156913596880988</c:v>
+                  <c:v>0.20892061217045751</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2616396227334574</c:v>
+                  <c:v>0.14322306547697813</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2070682381235598</c:v>
+                  <c:v>9.6201421074717755E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.152241545329254</c:v>
+                  <c:v>6.3312120170542954E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.097413865681877</c:v>
+                  <c:v>4.082527081964453E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0428277068887588</c:v>
+                  <c:v>2.5793373014666592E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.98871218150095486</c:v>
+                  <c:v>1.5967026664026367E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.93528165011429298</c:v>
+                  <c:v>9.6844912161811042E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8827345960909202</c:v>
+                  <c:v>5.7552794515307384E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.83125273467333394</c:v>
+                  <c:v>3.3511422990508116E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.78100035559996972</c:v>
+                  <c:v>1.9118603680697975E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.73212389478724882</c:v>
+                  <c:v>1.0687012536930328E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.68475172737556311</c:v>
+                  <c:v>5.8531993332058309E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.63899417149470894</c:v>
+                  <c:v>3.1409943655793344E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.59494368952653265</c:v>
+                  <c:v>1.6514972222104619E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.55267527145741291</c:v>
+                  <c:v>8.5079589353961537E-5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.51224698313875705</c:v>
+                  <c:v>4.2944719446696338E-5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.47370066091785079</c:v>
+                  <c:v>2.1238850210489968E-5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.437062733162419</c:v>
+                  <c:v>1.0291746525102024E-5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.40234514866943938</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.36954639180327659</c:v>
+                  <c:v>2.2730855556730127E-6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.0360587994235737E-6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.30963851521458702</c:v>
+                  <c:v>4.626897432191461E-7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.28246899784764451</c:v>
+                  <c:v>2.0245671612829121E-7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.25709984053899076</c:v>
+                  <c:v>8.6798326426047539E-8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.23347911082121831</c:v>
+                  <c:v>3.646089811742544E-8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.21154826085620138</c:v>
+                  <c:v>1.5006527901377616E-8</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.19124324019477679</c:v>
+                  <c:v>6.0515959736511571E-9</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.17249556457300708</c:v>
+                  <c:v>2.3910930535638448E-9</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.15523333105600143</c:v>
+                  <c:v>9.25677862198159E-10</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.13938217156743216</c:v>
+                  <c:v>3.5112368419649821E-10</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.12486613854147374</c:v>
+                  <c:v>1.3049600583377989E-10</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.11160851807381066</c:v>
+                  <c:v>4.7519423251816039E-11</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.9532567503762701E-2</c:v>
+                  <c:v>1.6954381451316979E-11</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.8562175808973742E-2</c:v>
+                  <c:v>5.9269271111331903E-12</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.8622446520490788E-2</c:v>
+                  <c:v>2.0300842883252696E-12</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.9640204056819088E-2</c:v>
+                  <c:v>6.8129531270131049E-13</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.1544425422277664E-2</c:v>
+                  <c:v>2.2402350062652667E-13</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.4266600113321108E-2</c:v>
+                  <c:v>7.2175301193384172E-14</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.7741021825659265E-2</c:v>
+                  <c:v>2.2783501922584702E-14</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.1905016157530305E-2</c:v>
+                  <c:v>7.0467554173138318E-15</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.669910896568214E-2</c:v>
+                  <c:v>2.1354763474912227E-15</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.2067140358239203E-2</c:v>
+                  <c:v>6.3406996299110642E-16</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.7956329512303771E-2</c:v>
+                  <c:v>1.8446604756698106E-16</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4317295594999903E-2</c:v>
+                  <c:v>5.2581449251007404E-17</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.1104040056847618E-2</c:v>
+                  <c:v>1.4685390816669878E-17</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8273895468642155E-2</c:v>
+                  <c:v>4.0186049308480943E-18</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5787445900418341E-2</c:v>
+                  <c:v>1.0774620044275482E-18</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.3608423606548167E-2</c:v>
+                  <c:v>2.8305150138147691E-19</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1703586497102979E-2</c:v>
+                  <c:v>7.2856081406278123E-20</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0042580554261509E-2</c:v>
+                  <c:v>1.8373969965260579E-20</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.5977910048888554E-3</c:v>
+                  <c:v>4.5402215187622926E-21</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.3441856966243238E-3</c:v>
+                  <c:v>1.0992283752437897E-21</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.2591537540093011E-3</c:v>
+                  <c:v>2.6075681387772078E-22</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.3223422213421138E-3</c:v>
+                  <c:v>6.0606645689863085E-23</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.5154930368999577E-3</c:v>
+                  <c:v>1.3801989040921581E-23</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.8222823346066364E-3</c:v>
+                  <c:v>3.0796400250676623E-24</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.2281637387270323E-3</c:v>
+                  <c:v>6.7327901716316234E-25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.7202170082627937E-3</c:v>
+                  <c:v>1.4422051816531405E-25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.2870031029562847E-3</c:v>
+                  <c:v>3.0268846478705049E-26</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.918426483843578E-3</c:v>
+                  <c:v>6.2244579453436687E-27</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.6056052290001992E-3</c:v>
+                  <c:v>1.254134314315563E-27</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3407493396765441E-3</c:v>
+                  <c:v>2.4758447689746287E-28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,307 +2509,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.30963851521458691</c:v>
+                  <c:v>4.6268974321914441E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.036058799423568E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36954639180327642</c:v>
+                  <c:v>2.2730855556730004E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40234514866943977</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.437062733162419</c:v>
+                  <c:v>1.0291746525102024E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47370066091785079</c:v>
+                  <c:v>2.1238850210489968E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51224698313875705</c:v>
+                  <c:v>4.2944719446696338E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55267527145741291</c:v>
+                  <c:v>8.5079589353961537E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59494368952653265</c:v>
+                  <c:v>1.6514972222104619E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63899417149470861</c:v>
+                  <c:v>3.1409943655793236E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68475172737556278</c:v>
+                  <c:v>5.8531993332058309E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7321238947872486</c:v>
+                  <c:v>1.0687012536930291E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7810003555999695</c:v>
+                  <c:v>1.9118603680697906E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83125273467333394</c:v>
+                  <c:v>3.3511422990508116E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8827345960909202</c:v>
+                  <c:v>5.7552794515307384E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93528165011429298</c:v>
+                  <c:v>9.6844912161811042E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98871218150095463</c:v>
+                  <c:v>1.596702666402634E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0428277068887586</c:v>
+                  <c:v>2.5793373014666564E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0974138656818766</c:v>
+                  <c:v>4.0825270819644495E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.152241545329254</c:v>
+                  <c:v>6.3312120170542954E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2070682381235598</c:v>
+                  <c:v>9.6201421074717755E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.261639622733457</c:v>
+                  <c:v>0.14322306547697794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3156913596880988</c:v>
+                  <c:v>0.20892061217045726</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3689510860393781</c:v>
+                  <c:v>0.29859770251128837</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4211405905178409</c:v>
+                  <c:v>0.41814651470229641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266879</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7330320081689694</c:v>
+                  <c:v>2.493758204020001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.7667591097301627</c:v>
+                  <c:v>2.9661365445028638</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.4567246359877619</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8237464759248199</c:v>
+                  <c:v>3.9470740790642962</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8466340396181415</c:v>
+                  <c:v>4.4159344402723777</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255348</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8997251447687271</c:v>
+                  <c:v>5.6991754343061807</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744609</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069093</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255366</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.8466340396181415</c:v>
+                  <c:v>4.4159344402723777</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.8237464759248199</c:v>
+                  <c:v>3.9470740790642962</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.4567246359877619</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7667591097301629</c:v>
+                  <c:v>2.9661365445028669</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7330320081689699</c:v>
+                  <c:v>2.4937582040200037</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266906</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722395</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4211405905178409</c:v>
+                  <c:v>0.41814651470229641</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3689510860393777</c:v>
+                  <c:v>0.29859770251128809</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3156913596880992</c:v>
+                  <c:v>0.20892061217045796</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2616396227334576</c:v>
+                  <c:v>0.14322306547697847</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.20706823812356</c:v>
+                  <c:v>9.6201421074718005E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.1522415453292543</c:v>
+                  <c:v>6.3312120170543121E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.097413865681877</c:v>
+                  <c:v>4.082527081964453E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0428277068887588</c:v>
+                  <c:v>2.5793373014666592E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.98871218150095486</c:v>
+                  <c:v>1.5967026664026367E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.93528165011429298</c:v>
+                  <c:v>9.6844912161811042E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.8827345960909202</c:v>
+                  <c:v>5.7552794515307384E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.83125273467333394</c:v>
+                  <c:v>3.3511422990508116E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.7810003555999695</c:v>
+                  <c:v>1.9118603680697906E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.7321238947872486</c:v>
+                  <c:v>1.0687012536930291E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.68475172737556278</c:v>
+                  <c:v>5.8531993332058309E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.63899417149470905</c:v>
+                  <c:v>3.1409943655793512E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.59494368952653287</c:v>
+                  <c:v>1.6514972222104673E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.55267527145741313</c:v>
+                  <c:v>8.5079589353961998E-5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.51224698313875727</c:v>
+                  <c:v>4.2944719446696568E-5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.47370066091785101</c:v>
+                  <c:v>2.123885021049004E-5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.43706273316241934</c:v>
+                  <c:v>1.0291746525102078E-5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.40234514866943977</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.36954639180327642</c:v>
+                  <c:v>2.2730855556730004E-6</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.036058799423568E-6</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.30963851521458691</c:v>
+                  <c:v>4.6268974321914441E-7</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.28246899784764445</c:v>
+                  <c:v>2.024567161282905E-7</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.25709984053899049</c:v>
+                  <c:v>8.679832642604693E-8</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.23347911082121808</c:v>
+                  <c:v>3.6460898117425314E-8</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.21154826085620154</c:v>
+                  <c:v>1.5006527901377669E-8</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.19124324019477679</c:v>
+                  <c:v>6.0515959736511778E-9</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.17249556457300722</c:v>
+                  <c:v>2.3910930535638531E-9</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.15523333105600143</c:v>
+                  <c:v>9.2567786219816561E-10</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13938217156743224</c:v>
+                  <c:v>3.5112368419650074E-10</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.12486613854147374</c:v>
+                  <c:v>1.3049600583378082E-10</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.11160851807381066</c:v>
+                  <c:v>4.7519423251816039E-11</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.9532567503762701E-2</c:v>
+                  <c:v>1.6954381451316979E-11</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.8562175808973742E-2</c:v>
+                  <c:v>5.9269271111331903E-12</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.8622446520490788E-2</c:v>
+                  <c:v>2.0300842883252696E-12</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.9640204056819088E-2</c:v>
+                  <c:v>6.8129531270131049E-13</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.1544425422277664E-2</c:v>
+                  <c:v>2.2402350062652667E-13</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.4266600113321156E-2</c:v>
+                  <c:v>7.2175301193385195E-14</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.774102182565939E-2</c:v>
+                  <c:v>2.2783501922585024E-14</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.1905016157530332E-2</c:v>
+                  <c:v>7.046755417313932E-15</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.6699108965682237E-2</c:v>
+                  <c:v>2.1354763474912531E-15</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.2067140358239259E-2</c:v>
+                  <c:v>6.3406996299110642E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,307 +3166,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3.2067140358239259E-2</c:v>
+                  <c:v>6.3406996299110642E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6699108965682237E-2</c:v>
+                  <c:v>2.1354763474912531E-15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1905016157530332E-2</c:v>
+                  <c:v>7.046755417313932E-15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.774102182565939E-2</c:v>
+                  <c:v>2.2783501922585024E-14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4266600113321156E-2</c:v>
+                  <c:v>7.2175301193385195E-14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1544425422277796E-2</c:v>
+                  <c:v>2.2402350062652829E-13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9640204056819088E-2</c:v>
+                  <c:v>6.8129531270131049E-13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8622446520490788E-2</c:v>
+                  <c:v>2.0300842883252696E-12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8562175808973742E-2</c:v>
+                  <c:v>5.9269271111331903E-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9532567503762701E-2</c:v>
+                  <c:v>1.6954381451316979E-11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11160851807381066</c:v>
+                  <c:v>4.7519423251816039E-11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12486613854147374</c:v>
+                  <c:v>1.3049600583378082E-10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13938217156743224</c:v>
+                  <c:v>3.5112368419650074E-10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15523333105600143</c:v>
+                  <c:v>9.2567786219816561E-10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17249556457300722</c:v>
+                  <c:v>2.3910930535638531E-9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19124324019477679</c:v>
+                  <c:v>6.0515959736511778E-9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21154826085620154</c:v>
+                  <c:v>1.5006527901377669E-8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23347911082121831</c:v>
+                  <c:v>3.6460898117425698E-8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25709984053899076</c:v>
+                  <c:v>8.6798326426047539E-8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28246899784764451</c:v>
+                  <c:v>2.0245671612829121E-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30963851521458702</c:v>
+                  <c:v>4.626897432191461E-7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.036058799423568E-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.36954639180327642</c:v>
+                  <c:v>2.2730855556730004E-6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40234514866943977</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43706273316241934</c:v>
+                  <c:v>1.0291746525102078E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.47370066091785101</c:v>
+                  <c:v>2.123885021049004E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51224698313875727</c:v>
+                  <c:v>4.2944719446696568E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.55267527145741313</c:v>
+                  <c:v>8.5079589353961998E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59494368952653287</c:v>
+                  <c:v>1.6514972222104673E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.63899417149470894</c:v>
+                  <c:v>3.1409943655793344E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.68475172737556311</c:v>
+                  <c:v>5.8531993332058309E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.73212389478724882</c:v>
+                  <c:v>1.0687012536930328E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.78100035559996972</c:v>
+                  <c:v>1.9118603680697975E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.83125273467333438</c:v>
+                  <c:v>3.3511422990508233E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.88273459609092042</c:v>
+                  <c:v>5.7552794515307601E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93528165011429309</c:v>
+                  <c:v>9.6844912161811389E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.98871218150095486</c:v>
+                  <c:v>1.5967026664026367E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0428277068887588</c:v>
+                  <c:v>2.5793373014666592E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.097413865681877</c:v>
+                  <c:v>4.082527081964453E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1522415453292543</c:v>
+                  <c:v>6.3312120170543121E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.20706823812356</c:v>
+                  <c:v>9.6201421074718005E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2616396227334576</c:v>
+                  <c:v>0.14322306547697847</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3156913596880988</c:v>
+                  <c:v>0.20892061217045751</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3689510860393781</c:v>
+                  <c:v>0.2985977025112887</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4211405905178411</c:v>
+                  <c:v>0.41814651470229713</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4719781467574593</c:v>
+                  <c:v>0.57372972058433069</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.5211809786778681</c:v>
+                  <c:v>0.77129952161697346</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.5684678289631042</c:v>
+                  <c:v>1.0159576932727652</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722395</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266906</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7330320081689699</c:v>
+                  <c:v>2.4937582040200037</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7667591097301629</c:v>
+                  <c:v>2.9661365445028669</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.456724635987765</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.8237464759248203</c:v>
+                  <c:v>3.9470740790642997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.8466340396181415</c:v>
+                  <c:v>4.4159344402723804</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.8655737107410502</c:v>
+                  <c:v>4.8406847965255393</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069111</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.8997251447687271</c:v>
+                  <c:v>5.6991754343061807</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255348</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.8466340396181411</c:v>
+                  <c:v>4.415934440272375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.8237464759248199</c:v>
+                  <c:v>3.947074079064294</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.4567246359877593</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7667591097301627</c:v>
+                  <c:v>2.9661365445028616</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.733032008168969</c:v>
+                  <c:v>2.4937582040199993</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266861</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722395</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.4211405905178409</c:v>
+                  <c:v>0.41814651470229641</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3689510860393777</c:v>
+                  <c:v>0.29859770251128809</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3156913596880986</c:v>
+                  <c:v>0.20892061217045704</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.261639622733457</c:v>
+                  <c:v>0.14322306547697777</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2070682381235593</c:v>
+                  <c:v>9.6201421074717589E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1522415453292538</c:v>
+                  <c:v>6.3312120170542788E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0974138656818762</c:v>
+                  <c:v>4.0825270819644384E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0428277068887581</c:v>
+                  <c:v>2.5793373014666453E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.98871218150095486</c:v>
+                  <c:v>1.5967026664026367E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.93528165011429298</c:v>
+                  <c:v>9.6844912161811042E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.8827345960909202</c:v>
+                  <c:v>5.7552794515307384E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.83125273467333394</c:v>
+                  <c:v>3.3511422990508116E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.7810003555999695</c:v>
+                  <c:v>1.9118603680697906E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.7321238947872486</c:v>
+                  <c:v>1.0687012536930291E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.68475172737556278</c:v>
+                  <c:v>5.8531993332058309E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.63899417149470861</c:v>
+                  <c:v>3.1409943655793236E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.59494368952653243</c:v>
+                  <c:v>1.651497222210456E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5526752714574128</c:v>
+                  <c:v>8.5079589353961537E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.51224698313875694</c:v>
+                  <c:v>4.2944719446696182E-5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.47370066091785051</c:v>
+                  <c:v>2.123885021048989E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.43706273316241934</c:v>
+                  <c:v>1.0291746525102078E-5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.40234514866943977</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.36954639180327642</c:v>
+                  <c:v>2.2730855556730004E-6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.036058799423568E-6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.30963851521458691</c:v>
+                  <c:v>4.6268974321914441E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,307 +3823,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.3407493396765441E-3</c:v>
+                  <c:v>2.4758447689746287E-28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6056052290001992E-3</c:v>
+                  <c:v>1.254134314315563E-27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.918426483843578E-3</c:v>
+                  <c:v>6.2244579453436687E-27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2870031029562847E-3</c:v>
+                  <c:v>3.0268846478705049E-26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7202170082627937E-3</c:v>
+                  <c:v>1.4422051816531405E-25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2281637387270323E-3</c:v>
+                  <c:v>6.7327901716316234E-25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8222823346066364E-3</c:v>
+                  <c:v>3.0796400250676623E-24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5154930368999577E-3</c:v>
+                  <c:v>1.3801989040921581E-23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3223422213420999E-3</c:v>
+                  <c:v>6.0606645689861804E-23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2591537540092898E-3</c:v>
+                  <c:v>2.6075681387771711E-22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3441856966243047E-3</c:v>
+                  <c:v>1.0992283752437741E-21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5977910048888415E-3</c:v>
+                  <c:v>4.5402215187622286E-21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.004258055426149E-2</c:v>
+                  <c:v>1.8373969965260188E-20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1703586497102958E-2</c:v>
+                  <c:v>7.2856081406277099E-20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3608423606548141E-2</c:v>
+                  <c:v>2.8305150138147085E-19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5787445900418313E-2</c:v>
+                  <c:v>1.077462004427533E-18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.827389546864212E-2</c:v>
+                  <c:v>4.0186049308480372E-18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1104040056847656E-2</c:v>
+                  <c:v>1.4685390816669878E-17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4317295594999903E-2</c:v>
+                  <c:v>5.2581449251007404E-17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7956329512303771E-2</c:v>
+                  <c:v>1.8446604756698106E-16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2067140358239203E-2</c:v>
+                  <c:v>6.3406996299110642E-16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.669910896568214E-2</c:v>
+                  <c:v>2.1354763474912227E-15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1905016157530305E-2</c:v>
+                  <c:v>7.0467554173138318E-15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7741021825659265E-2</c:v>
+                  <c:v>2.2783501922584702E-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4266600113321108E-2</c:v>
+                  <c:v>7.2175301193384172E-14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.1544425422277664E-2</c:v>
+                  <c:v>2.2402350062652667E-13</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.9640204056819088E-2</c:v>
+                  <c:v>6.8129531270131049E-13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.8622446520490788E-2</c:v>
+                  <c:v>2.0300842883252696E-12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.8562175808973742E-2</c:v>
+                  <c:v>5.9269271111331903E-12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.9532567503762701E-2</c:v>
+                  <c:v>1.6954381451316979E-11</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11160851807381066</c:v>
+                  <c:v>4.7519423251816039E-11</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.12486613854147374</c:v>
+                  <c:v>1.3049600583377989E-10</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13938217156743216</c:v>
+                  <c:v>3.5112368419649821E-10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.15523333105600143</c:v>
+                  <c:v>9.25677862198159E-10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.17249556457300708</c:v>
+                  <c:v>2.3910930535638448E-9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.19124324019477679</c:v>
+                  <c:v>6.0515959736511571E-9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.21154826085620115</c:v>
+                  <c:v>1.5006527901377616E-8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23347911082121808</c:v>
+                  <c:v>3.6460898117425314E-8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25709984053899049</c:v>
+                  <c:v>8.679832642604693E-8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.28246899784764445</c:v>
+                  <c:v>2.024567161282905E-7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.30963851521458691</c:v>
+                  <c:v>4.6268974321914441E-7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.33865256442425462</c:v>
+                  <c:v>1.036058799423568E-6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.36954639180327614</c:v>
+                  <c:v>2.2730855556729881E-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.40234514866943938</c:v>
+                  <c:v>4.8863436628113097E-6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.437062733162419</c:v>
+                  <c:v>1.0291746525102024E-5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.47370066091785079</c:v>
+                  <c:v>2.1238850210489968E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.51224698313875705</c:v>
+                  <c:v>4.2944719446696338E-5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.55267527145741291</c:v>
+                  <c:v>8.5079589353961537E-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.59494368952653243</c:v>
+                  <c:v>1.651497222210456E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.63899417149470861</c:v>
+                  <c:v>3.1409943655793236E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.68475172737556278</c:v>
+                  <c:v>5.8531993332058309E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.7321238947872486</c:v>
+                  <c:v>1.0687012536930291E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.7810003555999695</c:v>
+                  <c:v>1.9118603680697906E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.83125273467333394</c:v>
+                  <c:v>3.3511422990508116E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8827345960909202</c:v>
+                  <c:v>5.7552794515307384E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.93528165011429298</c:v>
+                  <c:v>9.6844912161811042E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.98871218150095486</c:v>
+                  <c:v>1.5967026664026367E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0428277068887588</c:v>
+                  <c:v>2.5793373014666592E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0974138656818762</c:v>
+                  <c:v>4.0825270819644384E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1522415453292538</c:v>
+                  <c:v>6.3312120170542788E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2070682381235593</c:v>
+                  <c:v>9.6201421074717589E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.261639622733457</c:v>
+                  <c:v>0.14322306547697777</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3156913596880986</c:v>
+                  <c:v>0.20892061217045704</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3689510860393777</c:v>
+                  <c:v>0.29859770251128809</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4211405905178409</c:v>
+                  <c:v>0.41814651470229641</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722395</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266906</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.733032008168969</c:v>
+                  <c:v>2.4937582040199993</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7667591097301627</c:v>
+                  <c:v>2.9661365445028616</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.4567246359877593</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.8237464759248199</c:v>
+                  <c:v>3.947074079064294</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.8466340396181411</c:v>
+                  <c:v>4.415934440272375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8655737107410497</c:v>
+                  <c:v>4.8406847965255348</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8997251447687271</c:v>
+                  <c:v>5.6991754343061807</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8975724819456334</c:v>
+                  <c:v>5.6413162847180143</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8911291180896206</c:v>
+                  <c:v>5.4712394277744592</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8804387615726716</c:v>
+                  <c:v>5.1990960245069076</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8655737107410502</c:v>
+                  <c:v>4.8406847965255393</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8466340396181415</c:v>
+                  <c:v>4.4159344402723804</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8237464759248203</c:v>
+                  <c:v>3.9470740790642997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7970629890142533</c:v>
+                  <c:v>3.456724635987765</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.7667591097301629</c:v>
+                  <c:v>2.9661365445028669</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.7330320081689699</c:v>
+                  <c:v>2.4937582040200037</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6960983587816427</c:v>
+                  <c:v>2.0542551821266906</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.6561920251276123</c:v>
+                  <c:v>1.6580258143722395</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.6135615988418455</c:v>
+                  <c:v>1.3111881994872583</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.568467828963104</c:v>
+                  <c:v>1.0159576932727639</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.5211809786778678</c:v>
+                  <c:v>0.77129952161697224</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4719781467574591</c:v>
+                  <c:v>0.57372972058433025</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4211405905178414</c:v>
+                  <c:v>0.41814651470229802</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3689510860393783</c:v>
+                  <c:v>0.29859770251128903</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3156913596880992</c:v>
+                  <c:v>0.20892061217045796</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2616396227334576</c:v>
+                  <c:v>0.14322306547697847</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.20706823812356</c:v>
+                  <c:v>9.6201421074718005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5188,7 +5188,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5240,27 +5240,27 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" si="0">_xlfn.NORM.DIST($A2,M$2,M$3,FALSE)</f>
-        <v>1.8997251447687271</v>
+        <v>5.6991754343061807</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C33" si="1">_xlfn.NORM.DIST($A2,N$2,N$3,FALSE)</f>
-        <v>2.2631693526306676E-5</v>
+        <v>2.7545367204976972E-44</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="2">_xlfn.NORM.DIST($A2,O$2,O$3,FALSE)</f>
-        <v>1.2070682381235598</v>
+        <v>9.6201421074717755E-2</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" si="3">_xlfn.NORM.DIST($A2,P$2,P$3,FALSE)</f>
-        <v>0.30963851521458691</v>
+        <v>4.6268974321914441E-7</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F33" si="4">_xlfn.NORM.DIST($A2,Q$2,Q$3,FALSE)</f>
-        <v>3.2067140358239259E-2</v>
+        <v>6.3406996299110642E-16</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G33" si="5">_xlfn.NORM.DIST($A2,R$2,R$3,FALSE)</f>
-        <v>1.3407493396765441E-3</v>
+        <v>2.4758447689746287E-28</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
@@ -5290,48 +5290,48 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>2.8359863117987185E-5</v>
+        <v>2.0986125183915247E-43</v>
       </c>
       <c r="D3">
         <f t="shared" si="2"/>
-        <v>1.2616396227334574</v>
+        <v>0.14322306547697813</v>
       </c>
       <c r="E3">
         <f t="shared" si="3"/>
-        <v>0.33865256442425462</v>
+        <v>1.036058799423568E-6</v>
       </c>
       <c r="F3">
         <f t="shared" si="4"/>
-        <v>3.6699108965682237E-2</v>
+        <v>2.1354763474912531E-15</v>
       </c>
       <c r="G3">
         <f t="shared" si="5"/>
-        <v>1.6056052290001992E-3</v>
+        <v>1.254134314315563E-27</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N3">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O3">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P3">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q3">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R3">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -5340,27 +5340,27 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>3.545736128871424E-5</v>
+        <v>1.5665807991271464E-42</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>1.3156913596880988</v>
+        <v>0.20892061217045726</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>0.36954639180327642</v>
+        <v>2.2730855556730004E-6</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>4.1905016157530332E-2</v>
+        <v>7.046755417313932E-15</v>
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>1.918426483843578E-3</v>
+        <v>6.2244579453436687E-27</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -5369,27 +5369,27 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>4.4230708907724652E-5</v>
+        <v>1.1458036114057351E-41</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>1.3689510860393781</v>
+        <v>0.29859770251128837</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>0.40234514866943977</v>
+        <v>4.8863436628113097E-6</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>4.774102182565939E-2</v>
+        <v>2.2783501922585024E-14</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>2.2870031029562847E-3</v>
+        <v>3.0268846478705049E-26</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -5398,27 +5398,27 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255357</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>5.5049907407015393E-5</v>
+        <v>8.2111582375675724E-41</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>1.4211405905178409</v>
+        <v>0.41814651470229669</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>0.437062733162419</v>
+        <v>1.0291746525102024E-5</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>5.4266600113321156E-2</v>
+        <v>7.2175301193385195E-14</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>2.7202170082627937E-3</v>
+        <v>1.4422051816531405E-25</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -5427,27 +5427,27 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1.8466340396181415</v>
+        <v>4.4159344402723768</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>6.8360383563704266E-5</v>
+        <v>5.7654804467264378E-40</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>0.47370066091785079</v>
+        <v>2.1238850210489968E-5</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>6.1544425422277796E-2</v>
+        <v>2.2402350062652829E-13</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>3.2281637387270323E-3</v>
+        <v>6.7327901716316234E-25</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -5456,27 +5456,27 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1.8237464759248199</v>
+        <v>3.9470740790642962</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>8.4696915434381785E-5</v>
+        <v>3.9664632331490111E-39</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0.51224698313875705</v>
+        <v>4.2944719446696338E-5</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>6.9640204056819088E-2</v>
+        <v>6.8129531270131049E-13</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>3.8222823346066364E-3</v>
+        <v>3.0796400250676623E-24</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -5485,27 +5485,27 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1.7970629890142533</v>
+        <v>3.4567246359877619</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>1.0469981218597746E-4</v>
+        <v>2.673672503204168E-38</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>0.55267527145741291</v>
+        <v>8.5079589353961537E-5</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>7.8622446520490788E-2</v>
+        <v>2.0300842883252696E-12</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>4.5154930368999577E-3</v>
+        <v>1.3801989040921581E-23</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -5514,27 +5514,27 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1.7667591097301629</v>
+        <v>2.9661365445028642</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>1.2913364695122959E-4</v>
+        <v>1.7658338334881973E-37</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872578</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>0.59494368952653265</v>
+        <v>1.6514972222104619E-4</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>8.8562175808973742E-2</v>
+        <v>5.9269271111331903E-12</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>5.3223422213420999E-3</v>
+        <v>6.0606645689861804E-23</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -5543,27 +5543,27 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1.7330320081689699</v>
+        <v>2.4937582040200028</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>1.5890886855065862E-4</v>
+        <v>1.1426896795724017E-36</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722391</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0.63899417149470861</v>
+        <v>3.1409943655793236E-4</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>9.9532567503762701E-2</v>
+        <v>1.6954381451316979E-11</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>6.2591537540092898E-3</v>
+        <v>2.6075681387771711E-22</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -5572,27 +5572,27 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266892</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>1.9510664444019444E-4</v>
+        <v>7.2450873118419857E-36</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266892</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>0.68475172737556278</v>
+        <v>5.8531993332058309E-4</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>0.11160851807381066</v>
+        <v>4.7519423251816039E-11</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>7.3441856966243047E-3</v>
+        <v>1.0992283752437741E-21</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -5601,27 +5601,27 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722391</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>2.39007312916766E-4</v>
+        <v>4.500862955476405E-35</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>1.7330320081689699</v>
+        <v>2.4937582040200015</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0.7321238947872486</v>
+        <v>1.0687012536930291E-3</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>0.12486613854147374</v>
+        <v>1.3049600583378082E-10</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>8.5977910048888415E-3</v>
+        <v>4.5402215187622286E-21</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -5630,27 +5630,27 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>2.9212284666438966E-4</v>
+        <v>2.7395851457064615E-34</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>1.7667591097301627</v>
+        <v>2.9661365445028638</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>0.7810003555999695</v>
+        <v>1.9118603680697906E-3</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>0.13938217156743224</v>
+        <v>3.5112368419650074E-10</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>1.004258055426149E-2</v>
+        <v>1.8373969965260188E-20</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -5659,27 +5659,27 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>3.5623375123100976E-4</v>
+        <v>1.633844284839004E-33</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>1.7970629890142533</v>
+        <v>3.4567246359877619</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>0.83125273467333394</v>
+        <v>3.3511422990508116E-3</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>0.15523333105600143</v>
+        <v>9.2567786219816561E-10</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>1.1703586497102958E-2</v>
+        <v>7.2856081406277099E-20</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -5688,27 +5688,27 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>4.3343083992442271E-4</v>
+        <v>9.5471417588578773E-33</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>1.8237464759248199</v>
+        <v>3.9470740790642962</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>0.8827345960909202</v>
+        <v>5.7552794515307384E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>0.17249556457300722</v>
+        <v>2.3910930535638531E-9</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>1.3608423606548141E-2</v>
+        <v>2.8305150138147085E-19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -5717,27 +5717,27 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1.4719781467574593</v>
+        <v>0.57372972058433025</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>5.2616233968451082E-4</v>
+        <v>5.4660415205132465E-32</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>1.8466340396181411</v>
+        <v>4.4159344402723768</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>0.93528165011429298</v>
+        <v>9.6844912161811042E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>0.19124324019477679</v>
+        <v>6.0515959736511778E-9</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>1.5787445900418313E-2</v>
+        <v>1.077462004427533E-18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -5746,27 +5746,27 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1.4211405905178409</v>
+        <v>0.41814651470229669</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>6.3728678935659705E-4</v>
+        <v>3.066262479518745E-31</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255357</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>0.98871218150095463</v>
+        <v>1.596702666402634E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>0.21154826085620154</v>
+        <v>1.5006527901377669E-8</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>1.827389546864212E-2</v>
+        <v>4.0186049308480372E-18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -5775,27 +5775,27 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1.3689510860393781</v>
+        <v>0.29859770251128837</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>7.7013219093532916E-4</v>
+        <v>1.6853207911733247E-30</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>1.0428277068887586</v>
+        <v>2.5793373014666564E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>0.23347911082121831</v>
+        <v>3.6460898117425698E-8</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>2.1104040056847656E-2</v>
+        <v>1.4685390816669878E-17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -5804,27 +5804,27 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1.3156913596880988</v>
+        <v>0.20892061217045751</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>9.2856186410834917E-4</v>
+        <v>9.0759621411124614E-30</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>1.0974138656818766</v>
+        <v>4.0825270819644495E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>0.25709984053899076</v>
+        <v>8.6798326426047539E-8</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>2.4317295594999903E-2</v>
+        <v>5.2581449251007404E-17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -5833,27 +5833,27 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1.2616396227334574</v>
+        <v>0.14322306547697813</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>1.1170474330169352E-3</v>
+        <v>4.7889424718040773E-29</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>1.152241545329254</v>
+        <v>6.3312120170542954E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>0.28246899784764451</v>
+        <v>2.0245671612829121E-7</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>2.7956329512303771E-2</v>
+        <v>1.8446604756698106E-16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -5862,27 +5862,27 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1.2070682381235598</v>
+        <v>9.6201421074717755E-2</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>1.3407493396765441E-3</v>
+        <v>2.4758447689746287E-28</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>1.8997251447687271</v>
+        <v>5.6991754343061807</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>1.2070682381235598</v>
+        <v>9.6201421074717755E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>0.30963851521458702</v>
+        <v>4.626897432191461E-7</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>3.2067140358239203E-2</v>
+        <v>6.3406996299110642E-16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -5891,27 +5891,27 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1.1522415453292543</v>
+        <v>6.3312120170543079E-2</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1.6056052290001992E-3</v>
+        <v>1.254134314315563E-27</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>1.261639622733457</v>
+        <v>0.14322306547697794</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0.33865256442425462</v>
+        <v>1.036058799423568E-6</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>3.669910896568214E-2</v>
+        <v>2.1354763474912227E-15</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -5920,27 +5920,27 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1.097413865681877</v>
+        <v>4.0825270819644495E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>1.918426483843578E-3</v>
+        <v>6.2244579453436687E-27</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>1.8911291180896206</v>
+        <v>5.47123942777446</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>1.3156913596880988</v>
+        <v>0.20892061217045726</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>0.36954639180327642</v>
+        <v>2.2730855556730004E-6</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>4.1905016157530305E-2</v>
+        <v>7.0467554173138318E-15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -5949,27 +5949,27 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1.0428277068887586</v>
+        <v>2.5793373014666564E-2</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>2.2870031029562847E-3</v>
+        <v>3.0268846478705049E-26</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>1.3689510860393781</v>
+        <v>0.29859770251128837</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0.40234514866943977</v>
+        <v>4.8863436628113097E-6</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>4.7741021825659265E-2</v>
+        <v>2.2783501922584702E-14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -5978,27 +5978,27 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.98871218150095486</v>
+        <v>1.5967026664026367E-2</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>2.7202170082627937E-3</v>
+        <v>1.4422051816531405E-25</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255366</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>1.4211405905178409</v>
+        <v>0.41814651470229641</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0.43706273316241934</v>
+        <v>1.0291746525102078E-5</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>5.4266600113321108E-2</v>
+        <v>7.2175301193384172E-14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -6007,27 +6007,27 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.93528165011429298</v>
+        <v>9.6844912161811042E-3</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>3.2281637387270323E-3</v>
+        <v>6.7327901716316234E-25</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>1.8466340396181415</v>
+        <v>4.4159344402723777</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>0.47370066091785101</v>
+        <v>2.123885021049004E-5</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>6.1544425422277664E-2</v>
+        <v>2.2402350062652667E-13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -6036,27 +6036,27 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.8827345960909202</v>
+        <v>5.7552794515307384E-3</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>3.8222823346066364E-3</v>
+        <v>3.0796400250676623E-24</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>1.8237464759248199</v>
+        <v>3.9470740790642962</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0.51224698313875727</v>
+        <v>4.2944719446696568E-5</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>6.9640204056819088E-2</v>
+        <v>6.8129531270131049E-13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -6065,27 +6065,27 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.83125273467333394</v>
+        <v>3.3511422990508116E-3</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>4.5154930368999577E-3</v>
+        <v>1.3801989040921581E-23</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>1.7970629890142533</v>
+        <v>3.4567246359877619</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>0.55267527145741313</v>
+        <v>8.5079589353961998E-5</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>7.8622446520490788E-2</v>
+        <v>2.0300842883252696E-12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -6094,27 +6094,27 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0.7810003555999695</v>
+        <v>1.9118603680697906E-3</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>5.3223422213421138E-3</v>
+        <v>6.0606645689863085E-23</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>1.7667591097301627</v>
+        <v>2.9661365445028638</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>0.59494368952653287</v>
+        <v>1.6514972222104673E-4</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>8.8562175808973742E-2</v>
+        <v>5.9269271111331903E-12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -6123,27 +6123,27 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0.73212389478724882</v>
+        <v>1.0687012536930328E-3</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>6.2591537540093011E-3</v>
+        <v>2.6075681387772078E-22</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>1.7330320081689699</v>
+        <v>2.4937582040200037</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722379</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>0.63899417149470894</v>
+        <v>3.1409943655793344E-4</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>9.9532567503762701E-2</v>
+        <v>1.6954381451316979E-11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -6152,27 +6152,27 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0.68475172737556311</v>
+        <v>5.8531993332058309E-4</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>7.3441856966243238E-3</v>
+        <v>1.0992283752437897E-21</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266906</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266879</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>0.68475172737556311</v>
+        <v>5.8531993332058309E-4</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>0.11160851807381066</v>
+        <v>4.7519423251816039E-11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -6181,27 +6181,27 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>0.63899417149470894</v>
+        <v>3.1409943655793344E-4</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>8.5977910048888554E-3</v>
+        <v>4.5402215187622926E-21</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722395</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>1.7330320081689694</v>
+        <v>2.493758204020001</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>0.73212389478724882</v>
+        <v>1.0687012536930328E-3</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>0.12486613854147374</v>
+        <v>1.3049600583377989E-10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -6210,27 +6210,27 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B65" si="6">_xlfn.NORM.DIST($A34,M$2,M$3,FALSE)</f>
-        <v>0.59494368952653265</v>
+        <v>1.6514972222104619E-4</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C65" si="7">_xlfn.NORM.DIST($A34,N$2,N$3,FALSE)</f>
-        <v>1.0042580554261509E-2</v>
+        <v>1.8373969965260579E-20</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D65" si="8">_xlfn.NORM.DIST($A34,O$2,O$3,FALSE)</f>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" si="9">_xlfn.NORM.DIST($A34,P$2,P$3,FALSE)</f>
-        <v>1.7667591097301627</v>
+        <v>2.9661365445028638</v>
       </c>
       <c r="F34">
         <f t="shared" ref="F34:F65" si="10">_xlfn.NORM.DIST($A34,Q$2,Q$3,FALSE)</f>
-        <v>0.78100035559996972</v>
+        <v>1.9118603680697975E-3</v>
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G65" si="11">_xlfn.NORM.DIST($A34,R$2,R$3,FALSE)</f>
-        <v>0.13938217156743216</v>
+        <v>3.5112368419649821E-10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -6239,27 +6239,27 @@
       </c>
       <c r="B35">
         <f t="shared" si="6"/>
-        <v>0.55267527145741291</v>
+        <v>8.5079589353961537E-5</v>
       </c>
       <c r="C35">
         <f t="shared" si="7"/>
-        <v>1.1703586497102979E-2</v>
+        <v>7.2856081406278123E-20</v>
       </c>
       <c r="D35">
         <f t="shared" si="8"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
       <c r="E35">
         <f t="shared" si="9"/>
-        <v>1.7970629890142533</v>
+        <v>3.4567246359877619</v>
       </c>
       <c r="F35">
         <f t="shared" si="10"/>
-        <v>0.83125273467333438</v>
+        <v>3.3511422990508233E-3</v>
       </c>
       <c r="G35">
         <f t="shared" si="11"/>
-        <v>0.15523333105600143</v>
+        <v>9.25677862198159E-10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -6268,27 +6268,27 @@
       </c>
       <c r="B36">
         <f t="shared" si="6"/>
-        <v>0.51224698313875705</v>
+        <v>4.2944719446696338E-5</v>
       </c>
       <c r="C36">
         <f t="shared" si="7"/>
-        <v>1.3608423606548167E-2</v>
+        <v>2.8305150138147691E-19</v>
       </c>
       <c r="D36">
         <f t="shared" si="8"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
       <c r="E36">
         <f t="shared" si="9"/>
-        <v>1.8237464759248199</v>
+        <v>3.9470740790642962</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>0.88273459609092042</v>
+        <v>5.7552794515307601E-3</v>
       </c>
       <c r="G36">
         <f t="shared" si="11"/>
-        <v>0.17249556457300708</v>
+        <v>2.3910930535638448E-9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -6297,27 +6297,27 @@
       </c>
       <c r="B37">
         <f t="shared" si="6"/>
-        <v>0.47370066091785079</v>
+        <v>2.1238850210489968E-5</v>
       </c>
       <c r="C37">
         <f t="shared" si="7"/>
-        <v>1.5787445900418341E-2</v>
+        <v>1.0774620044275482E-18</v>
       </c>
       <c r="D37">
         <f t="shared" si="8"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
       <c r="E37">
         <f t="shared" si="9"/>
-        <v>1.8466340396181415</v>
+        <v>4.4159344402723777</v>
       </c>
       <c r="F37">
         <f t="shared" si="10"/>
-        <v>0.93528165011429309</v>
+        <v>9.6844912161811389E-3</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
-        <v>0.19124324019477679</v>
+        <v>6.0515959736511571E-9</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -6326,27 +6326,27 @@
       </c>
       <c r="B38">
         <f t="shared" si="6"/>
-        <v>0.43706273316241934</v>
+        <v>1.0291746525102078E-5</v>
       </c>
       <c r="C38">
         <f t="shared" si="7"/>
-        <v>1.827389546864212E-2</v>
+        <v>4.0186049308480372E-18</v>
       </c>
       <c r="D38">
         <f t="shared" si="8"/>
-        <v>1.4211405905178411</v>
+        <v>0.41814651470229713</v>
       </c>
       <c r="E38">
         <f t="shared" si="9"/>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255348</v>
       </c>
       <c r="F38">
         <f t="shared" si="10"/>
-        <v>0.98871218150095486</v>
+        <v>1.5967026664026367E-2</v>
       </c>
       <c r="G38">
         <f t="shared" si="11"/>
-        <v>0.21154826085620115</v>
+        <v>1.5006527901377616E-8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -6355,27 +6355,27 @@
       </c>
       <c r="B39">
         <f t="shared" si="6"/>
-        <v>0.40234514866943977</v>
+        <v>4.8863436628113097E-6</v>
       </c>
       <c r="C39">
         <f t="shared" si="7"/>
-        <v>2.1104040056847656E-2</v>
+        <v>1.4685390816669878E-17</v>
       </c>
       <c r="D39">
         <f t="shared" si="8"/>
-        <v>1.3689510860393781</v>
+        <v>0.2985977025112887</v>
       </c>
       <c r="E39">
         <f t="shared" si="9"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
       <c r="F39">
         <f t="shared" si="10"/>
-        <v>1.0428277068887588</v>
+        <v>2.5793373014666592E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="11"/>
-        <v>0.23347911082121808</v>
+        <v>3.6460898117425314E-8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -6384,27 +6384,27 @@
       </c>
       <c r="B40">
         <f t="shared" si="6"/>
-        <v>0.36954639180327642</v>
+        <v>2.2730855556730004E-6</v>
       </c>
       <c r="C40">
         <f t="shared" si="7"/>
-        <v>2.4317295594999948E-2</v>
+        <v>5.2581449251008156E-17</v>
       </c>
       <c r="D40">
         <f t="shared" si="8"/>
-        <v>1.3156913596880988</v>
+        <v>0.20892061217045751</v>
       </c>
       <c r="E40">
         <f t="shared" si="9"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
       <c r="F40">
         <f t="shared" si="10"/>
-        <v>1.097413865681877</v>
+        <v>4.082527081964453E-2</v>
       </c>
       <c r="G40">
         <f t="shared" si="11"/>
-        <v>0.25709984053899049</v>
+        <v>8.679832642604693E-8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -6413,27 +6413,27 @@
       </c>
       <c r="B41">
         <f t="shared" si="6"/>
-        <v>0.33865256442425462</v>
+        <v>1.036058799423568E-6</v>
       </c>
       <c r="C41">
         <f t="shared" si="7"/>
-        <v>2.7956329512303851E-2</v>
+        <v>1.8446604756698365E-16</v>
       </c>
       <c r="D41">
         <f t="shared" si="8"/>
-        <v>1.2616396227334574</v>
+        <v>0.14322306547697813</v>
       </c>
       <c r="E41">
         <f t="shared" si="9"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="F41">
         <f t="shared" si="10"/>
-        <v>1.1522415453292543</v>
+        <v>6.3312120170543121E-2</v>
       </c>
       <c r="G41">
         <f t="shared" si="11"/>
-        <v>0.28246899784764445</v>
+        <v>2.024567161282905E-7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -6442,27 +6442,27 @@
       </c>
       <c r="B42">
         <f t="shared" si="6"/>
-        <v>0.30963851521458691</v>
+        <v>4.6268974321914441E-7</v>
       </c>
       <c r="C42">
         <f t="shared" si="7"/>
-        <v>3.2067140358239259E-2</v>
+        <v>6.3406996299110642E-16</v>
       </c>
       <c r="D42">
         <f t="shared" si="8"/>
-        <v>1.2070682381235598</v>
+        <v>9.6201421074717755E-2</v>
       </c>
       <c r="E42">
         <f t="shared" si="9"/>
-        <v>1.8997251447687271</v>
+        <v>5.6991754343061807</v>
       </c>
       <c r="F42">
         <f t="shared" si="10"/>
-        <v>1.20706823812356</v>
+        <v>9.6201421074718005E-2</v>
       </c>
       <c r="G42">
         <f t="shared" si="11"/>
-        <v>0.30963851521458691</v>
+        <v>4.6268974321914441E-7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -6471,27 +6471,27 @@
       </c>
       <c r="B43">
         <f t="shared" si="6"/>
-        <v>0.28246899784764445</v>
+        <v>2.024567161282905E-7</v>
       </c>
       <c r="C43">
         <f t="shared" si="7"/>
-        <v>3.6699108965682237E-2</v>
+        <v>2.1354763474912531E-15</v>
       </c>
       <c r="D43">
         <f t="shared" si="8"/>
-        <v>1.152241545329254</v>
+        <v>6.3312120170542954E-2</v>
       </c>
       <c r="E43">
         <f t="shared" si="9"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="F43">
         <f t="shared" si="10"/>
-        <v>1.2616396227334576</v>
+        <v>0.14322306547697847</v>
       </c>
       <c r="G43">
         <f t="shared" si="11"/>
-        <v>0.33865256442425462</v>
+        <v>1.036058799423568E-6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -6500,27 +6500,27 @@
       </c>
       <c r="B44">
         <f t="shared" si="6"/>
-        <v>0.25709984053899076</v>
+        <v>8.6798326426047539E-8</v>
       </c>
       <c r="C44">
         <f t="shared" si="7"/>
-        <v>4.1905016157530305E-2</v>
+        <v>7.0467554173138318E-15</v>
       </c>
       <c r="D44">
         <f t="shared" si="8"/>
-        <v>1.097413865681877</v>
+        <v>4.082527081964453E-2</v>
       </c>
       <c r="E44">
         <f t="shared" si="9"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744609</v>
       </c>
       <c r="F44">
         <f t="shared" si="10"/>
-        <v>1.3156913596880988</v>
+        <v>0.20892061217045751</v>
       </c>
       <c r="G44">
         <f t="shared" si="11"/>
-        <v>0.36954639180327614</v>
+        <v>2.2730855556729881E-6</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -6529,27 +6529,27 @@
       </c>
       <c r="B45">
         <f t="shared" si="6"/>
-        <v>0.23347911082121831</v>
+        <v>3.646089811742544E-8</v>
       </c>
       <c r="C45">
         <f t="shared" si="7"/>
-        <v>4.7741021825659265E-2</v>
+        <v>2.2783501922584702E-14</v>
       </c>
       <c r="D45">
         <f t="shared" si="8"/>
-        <v>1.0428277068887588</v>
+        <v>2.5793373014666592E-2</v>
       </c>
       <c r="E45">
         <f t="shared" si="9"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069093</v>
       </c>
       <c r="F45">
         <f t="shared" si="10"/>
-        <v>1.3689510860393781</v>
+        <v>0.2985977025112887</v>
       </c>
       <c r="G45">
         <f t="shared" si="11"/>
-        <v>0.40234514866943938</v>
+        <v>4.8863436628113097E-6</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -6558,27 +6558,27 @@
       </c>
       <c r="B46">
         <f t="shared" si="6"/>
-        <v>0.21154826085620138</v>
+        <v>1.5006527901377616E-8</v>
       </c>
       <c r="C46">
         <f t="shared" si="7"/>
-        <v>5.4266600113321108E-2</v>
+        <v>7.2175301193384172E-14</v>
       </c>
       <c r="D46">
         <f t="shared" si="8"/>
-        <v>0.98871218150095486</v>
+        <v>1.5967026664026367E-2</v>
       </c>
       <c r="E46">
         <f t="shared" si="9"/>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255366</v>
       </c>
       <c r="F46">
         <f t="shared" si="10"/>
-        <v>1.4211405905178411</v>
+        <v>0.41814651470229713</v>
       </c>
       <c r="G46">
         <f t="shared" si="11"/>
-        <v>0.437062733162419</v>
+        <v>1.0291746525102024E-5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -6587,27 +6587,27 @@
       </c>
       <c r="B47">
         <f t="shared" si="6"/>
-        <v>0.19124324019477679</v>
+        <v>6.0515959736511571E-9</v>
       </c>
       <c r="C47">
         <f t="shared" si="7"/>
-        <v>6.1544425422277664E-2</v>
+        <v>2.2402350062652667E-13</v>
       </c>
       <c r="D47">
         <f t="shared" si="8"/>
-        <v>0.93528165011429298</v>
+        <v>9.6844912161811042E-3</v>
       </c>
       <c r="E47">
         <f t="shared" si="9"/>
-        <v>1.8466340396181415</v>
+        <v>4.4159344402723777</v>
       </c>
       <c r="F47">
         <f t="shared" si="10"/>
-        <v>1.4719781467574593</v>
+        <v>0.57372972058433069</v>
       </c>
       <c r="G47">
         <f t="shared" si="11"/>
-        <v>0.47370066091785079</v>
+        <v>2.1238850210489968E-5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -6616,27 +6616,27 @@
       </c>
       <c r="B48">
         <f t="shared" si="6"/>
-        <v>0.17249556457300708</v>
+        <v>2.3910930535638448E-9</v>
       </c>
       <c r="C48">
         <f t="shared" si="7"/>
-        <v>6.9640204056819088E-2</v>
+        <v>6.8129531270131049E-13</v>
       </c>
       <c r="D48">
         <f t="shared" si="8"/>
-        <v>0.8827345960909202</v>
+        <v>5.7552794515307384E-3</v>
       </c>
       <c r="E48">
         <f t="shared" si="9"/>
-        <v>1.8237464759248199</v>
+        <v>3.9470740790642962</v>
       </c>
       <c r="F48">
         <f t="shared" si="10"/>
-        <v>1.5211809786778681</v>
+        <v>0.77129952161697346</v>
       </c>
       <c r="G48">
         <f t="shared" si="11"/>
-        <v>0.51224698313875705</v>
+        <v>4.2944719446696338E-5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -6645,27 +6645,27 @@
       </c>
       <c r="B49">
         <f t="shared" si="6"/>
-        <v>0.15523333105600143</v>
+        <v>9.25677862198159E-10</v>
       </c>
       <c r="C49">
         <f t="shared" si="7"/>
-        <v>7.8622446520490788E-2</v>
+        <v>2.0300842883252696E-12</v>
       </c>
       <c r="D49">
         <f t="shared" si="8"/>
-        <v>0.83125273467333394</v>
+        <v>3.3511422990508116E-3</v>
       </c>
       <c r="E49">
         <f t="shared" si="9"/>
-        <v>1.7970629890142533</v>
+        <v>3.4567246359877619</v>
       </c>
       <c r="F49">
         <f t="shared" si="10"/>
-        <v>1.5684678289631042</v>
+        <v>1.0159576932727652</v>
       </c>
       <c r="G49">
         <f t="shared" si="11"/>
-        <v>0.55267527145741291</v>
+        <v>8.5079589353961537E-5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -6674,27 +6674,27 @@
       </c>
       <c r="B50">
         <f t="shared" si="6"/>
-        <v>0.13938217156743224</v>
+        <v>3.5112368419650074E-10</v>
       </c>
       <c r="C50">
         <f t="shared" si="7"/>
-        <v>8.8562175808973742E-2</v>
+        <v>5.9269271111331903E-12</v>
       </c>
       <c r="D50">
         <f t="shared" si="8"/>
-        <v>0.78100035559996972</v>
+        <v>1.9118603680697975E-3</v>
       </c>
       <c r="E50">
         <f t="shared" si="9"/>
-        <v>1.7667591097301629</v>
+        <v>2.9661365445028669</v>
       </c>
       <c r="F50">
         <f t="shared" si="10"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
       <c r="G50">
         <f t="shared" si="11"/>
-        <v>0.59494368952653243</v>
+        <v>1.651497222210456E-4</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -6703,27 +6703,27 @@
       </c>
       <c r="B51">
         <f t="shared" si="6"/>
-        <v>0.12486613854147374</v>
+        <v>1.3049600583378082E-10</v>
       </c>
       <c r="C51">
         <f t="shared" si="7"/>
-        <v>9.9532567503762701E-2</v>
+        <v>1.6954381451316979E-11</v>
       </c>
       <c r="D51">
         <f t="shared" si="8"/>
-        <v>0.73212389478724882</v>
+        <v>1.0687012536930328E-3</v>
       </c>
       <c r="E51">
         <f t="shared" si="9"/>
-        <v>1.7330320081689699</v>
+        <v>2.4937582040200037</v>
       </c>
       <c r="F51">
         <f t="shared" si="10"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722395</v>
       </c>
       <c r="G51">
         <f t="shared" si="11"/>
-        <v>0.63899417149470861</v>
+        <v>3.1409943655793236E-4</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -6732,27 +6732,27 @@
       </c>
       <c r="B52">
         <f t="shared" si="6"/>
-        <v>0.11160851807381066</v>
+        <v>4.7519423251816039E-11</v>
       </c>
       <c r="C52">
         <f t="shared" si="7"/>
-        <v>0.11160851807381066</v>
+        <v>4.7519423251816039E-11</v>
       </c>
       <c r="D52">
         <f t="shared" si="8"/>
-        <v>0.68475172737556311</v>
+        <v>5.8531993332058309E-4</v>
       </c>
       <c r="E52">
         <f t="shared" si="9"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266906</v>
       </c>
       <c r="F52">
         <f t="shared" si="10"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266906</v>
       </c>
       <c r="G52">
         <f t="shared" si="11"/>
-        <v>0.68475172737556278</v>
+        <v>5.8531993332058309E-4</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -6761,27 +6761,27 @@
       </c>
       <c r="B53">
         <f t="shared" si="6"/>
-        <v>9.9532567503762701E-2</v>
+        <v>1.6954381451316979E-11</v>
       </c>
       <c r="C53">
         <f t="shared" si="7"/>
-        <v>0.12486613854147374</v>
+        <v>1.3049600583378082E-10</v>
       </c>
       <c r="D53">
         <f t="shared" si="8"/>
-        <v>0.63899417149470894</v>
+        <v>3.1409943655793344E-4</v>
       </c>
       <c r="E53">
         <f t="shared" si="9"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722395</v>
       </c>
       <c r="F53">
         <f t="shared" si="10"/>
-        <v>1.7330320081689699</v>
+        <v>2.4937582040200037</v>
       </c>
       <c r="G53">
         <f t="shared" si="11"/>
-        <v>0.7321238947872486</v>
+        <v>1.0687012536930291E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -6790,27 +6790,27 @@
       </c>
       <c r="B54">
         <f t="shared" si="6"/>
-        <v>8.8562175808973742E-2</v>
+        <v>5.9269271111331903E-12</v>
       </c>
       <c r="C54">
         <f t="shared" si="7"/>
-        <v>0.13938217156743224</v>
+        <v>3.5112368419650074E-10</v>
       </c>
       <c r="D54">
         <f t="shared" si="8"/>
-        <v>0.59494368952653265</v>
+        <v>1.6514972222104619E-4</v>
       </c>
       <c r="E54">
         <f t="shared" si="9"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
       <c r="F54">
         <f t="shared" si="10"/>
-        <v>1.7667591097301629</v>
+        <v>2.9661365445028669</v>
       </c>
       <c r="G54">
         <f t="shared" si="11"/>
-        <v>0.7810003555999695</v>
+        <v>1.9118603680697906E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -6819,27 +6819,27 @@
       </c>
       <c r="B55">
         <f t="shared" si="6"/>
-        <v>7.8622446520490788E-2</v>
+        <v>2.0300842883252696E-12</v>
       </c>
       <c r="C55">
         <f t="shared" si="7"/>
-        <v>0.15523333105600143</v>
+        <v>9.2567786219816561E-10</v>
       </c>
       <c r="D55">
         <f t="shared" si="8"/>
-        <v>0.55267527145741291</v>
+        <v>8.5079589353961537E-5</v>
       </c>
       <c r="E55">
         <f t="shared" si="9"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
       <c r="F55">
         <f t="shared" si="10"/>
-        <v>1.7970629890142533</v>
+        <v>3.456724635987765</v>
       </c>
       <c r="G55">
         <f t="shared" si="11"/>
-        <v>0.83125273467333394</v>
+        <v>3.3511422990508116E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -6848,27 +6848,27 @@
       </c>
       <c r="B56">
         <f t="shared" si="6"/>
-        <v>6.9640204056819088E-2</v>
+        <v>6.8129531270131049E-13</v>
       </c>
       <c r="C56">
         <f t="shared" si="7"/>
-        <v>0.17249556457300722</v>
+        <v>2.3910930535638531E-9</v>
       </c>
       <c r="D56">
         <f t="shared" si="8"/>
-        <v>0.51224698313875705</v>
+        <v>4.2944719446696338E-5</v>
       </c>
       <c r="E56">
         <f t="shared" si="9"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
       <c r="F56">
         <f t="shared" si="10"/>
-        <v>1.8237464759248203</v>
+        <v>3.9470740790642997</v>
       </c>
       <c r="G56">
         <f t="shared" si="11"/>
-        <v>0.8827345960909202</v>
+        <v>5.7552794515307384E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -6877,27 +6877,27 @@
       </c>
       <c r="B57">
         <f t="shared" si="6"/>
-        <v>6.1544425422277664E-2</v>
+        <v>2.2402350062652667E-13</v>
       </c>
       <c r="C57">
         <f t="shared" si="7"/>
-        <v>0.19124324019477679</v>
+        <v>6.0515959736511778E-9</v>
       </c>
       <c r="D57">
         <f t="shared" si="8"/>
-        <v>0.47370066091785079</v>
+        <v>2.1238850210489968E-5</v>
       </c>
       <c r="E57">
         <f t="shared" si="9"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
       <c r="F57">
         <f t="shared" si="10"/>
-        <v>1.8466340396181415</v>
+        <v>4.4159344402723804</v>
       </c>
       <c r="G57">
         <f t="shared" si="11"/>
-        <v>0.93528165011429298</v>
+        <v>9.6844912161811042E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -6906,27 +6906,27 @@
       </c>
       <c r="B58">
         <f t="shared" si="6"/>
-        <v>5.4266600113321108E-2</v>
+        <v>7.2175301193384172E-14</v>
       </c>
       <c r="C58">
         <f t="shared" si="7"/>
-        <v>0.21154826085620154</v>
+        <v>1.5006527901377669E-8</v>
       </c>
       <c r="D58">
         <f t="shared" si="8"/>
-        <v>0.437062733162419</v>
+        <v>1.0291746525102024E-5</v>
       </c>
       <c r="E58">
         <f t="shared" si="9"/>
-        <v>1.4211405905178409</v>
+        <v>0.41814651470229641</v>
       </c>
       <c r="F58">
         <f t="shared" si="10"/>
-        <v>1.8655737107410502</v>
+        <v>4.8406847965255393</v>
       </c>
       <c r="G58">
         <f t="shared" si="11"/>
-        <v>0.98871218150095486</v>
+        <v>1.5967026664026367E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -6935,27 +6935,27 @@
       </c>
       <c r="B59">
         <f t="shared" si="6"/>
-        <v>4.7741021825659265E-2</v>
+        <v>2.2783501922584702E-14</v>
       </c>
       <c r="C59">
         <f t="shared" si="7"/>
-        <v>0.23347911082121831</v>
+        <v>3.6460898117425698E-8</v>
       </c>
       <c r="D59">
         <f t="shared" si="8"/>
-        <v>0.40234514866943938</v>
+        <v>4.8863436628113097E-6</v>
       </c>
       <c r="E59">
         <f t="shared" si="9"/>
-        <v>1.3689510860393777</v>
+        <v>0.29859770251128809</v>
       </c>
       <c r="F59">
         <f t="shared" si="10"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069111</v>
       </c>
       <c r="G59">
         <f t="shared" si="11"/>
-        <v>1.0428277068887588</v>
+        <v>2.5793373014666592E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -6964,27 +6964,27 @@
       </c>
       <c r="B60">
         <f t="shared" si="6"/>
-        <v>4.1905016157530332E-2</v>
+        <v>7.046755417313932E-15</v>
       </c>
       <c r="C60">
         <f t="shared" si="7"/>
-        <v>0.25709984053899049</v>
+        <v>8.679832642604693E-8</v>
       </c>
       <c r="D60">
         <f t="shared" si="8"/>
-        <v>0.36954639180327659</v>
+        <v>2.2730855556730127E-6</v>
       </c>
       <c r="E60">
         <f t="shared" si="9"/>
-        <v>1.3156913596880992</v>
+        <v>0.20892061217045796</v>
       </c>
       <c r="F60">
         <f t="shared" si="10"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
       <c r="G60">
         <f t="shared" si="11"/>
-        <v>1.0974138656818762</v>
+        <v>4.0825270819644384E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -6993,27 +6993,27 @@
       </c>
       <c r="B61">
         <f t="shared" si="6"/>
-        <v>3.6699108965682237E-2</v>
+        <v>2.1354763474912531E-15</v>
       </c>
       <c r="C61">
         <f t="shared" si="7"/>
-        <v>0.28246899784764445</v>
+        <v>2.024567161282905E-7</v>
       </c>
       <c r="D61">
         <f t="shared" si="8"/>
-        <v>0.33865256442425462</v>
+        <v>1.0360587994235737E-6</v>
       </c>
       <c r="E61">
         <f t="shared" si="9"/>
-        <v>1.2616396227334576</v>
+        <v>0.14322306547697847</v>
       </c>
       <c r="F61">
         <f t="shared" si="10"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="G61">
         <f t="shared" si="11"/>
-        <v>1.1522415453292538</v>
+        <v>6.3312120170542788E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -7022,27 +7022,27 @@
       </c>
       <c r="B62">
         <f t="shared" si="6"/>
-        <v>3.2067140358239259E-2</v>
+        <v>6.3406996299110642E-16</v>
       </c>
       <c r="C62">
         <f t="shared" si="7"/>
-        <v>0.30963851521458691</v>
+        <v>4.6268974321914441E-7</v>
       </c>
       <c r="D62">
         <f t="shared" si="8"/>
-        <v>0.30963851521458702</v>
+        <v>4.626897432191461E-7</v>
       </c>
       <c r="E62">
         <f t="shared" si="9"/>
-        <v>1.20706823812356</v>
+        <v>9.6201421074718005E-2</v>
       </c>
       <c r="F62">
         <f t="shared" si="10"/>
-        <v>1.8997251447687271</v>
+        <v>5.6991754343061807</v>
       </c>
       <c r="G62">
         <f t="shared" si="11"/>
-        <v>1.2070682381235593</v>
+        <v>9.6201421074717589E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -7051,27 +7051,27 @@
       </c>
       <c r="B63">
         <f t="shared" si="6"/>
-        <v>2.7956329512303851E-2</v>
+        <v>1.8446604756698365E-16</v>
       </c>
       <c r="C63">
         <f t="shared" si="7"/>
-        <v>0.33865256442425462</v>
+        <v>1.036058799423568E-6</v>
       </c>
       <c r="D63">
         <f t="shared" si="8"/>
-        <v>0.28246899784764451</v>
+        <v>2.0245671612829121E-7</v>
       </c>
       <c r="E63">
         <f t="shared" si="9"/>
-        <v>1.1522415453292543</v>
+        <v>6.3312120170543121E-2</v>
       </c>
       <c r="F63">
         <f t="shared" si="10"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="G63">
         <f t="shared" si="11"/>
-        <v>1.261639622733457</v>
+        <v>0.14322306547697777</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -7080,27 +7080,27 @@
       </c>
       <c r="B64">
         <f t="shared" si="6"/>
-        <v>2.4317295594999948E-2</v>
+        <v>5.2581449251008156E-17</v>
       </c>
       <c r="C64">
         <f t="shared" si="7"/>
-        <v>0.36954639180327642</v>
+        <v>2.2730855556730004E-6</v>
       </c>
       <c r="D64">
         <f t="shared" si="8"/>
-        <v>0.25709984053899076</v>
+        <v>8.6798326426047539E-8</v>
       </c>
       <c r="E64">
         <f t="shared" si="9"/>
-        <v>1.097413865681877</v>
+        <v>4.082527081964453E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="10"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
       <c r="G64">
         <f t="shared" si="11"/>
-        <v>1.3156913596880986</v>
+        <v>0.20892061217045704</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -7109,27 +7109,27 @@
       </c>
       <c r="B65">
         <f t="shared" si="6"/>
-        <v>2.1104040056847656E-2</v>
+        <v>1.4685390816669878E-17</v>
       </c>
       <c r="C65">
         <f t="shared" si="7"/>
-        <v>0.40234514866943977</v>
+        <v>4.8863436628113097E-6</v>
       </c>
       <c r="D65">
         <f t="shared" si="8"/>
-        <v>0.23347911082121831</v>
+        <v>3.646089811742544E-8</v>
       </c>
       <c r="E65">
         <f t="shared" si="9"/>
-        <v>1.0428277068887588</v>
+        <v>2.5793373014666592E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="10"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
       <c r="G65">
         <f t="shared" si="11"/>
-        <v>1.3689510860393777</v>
+        <v>0.29859770251128809</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
@@ -7138,27 +7138,27 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B102" si="12">_xlfn.NORM.DIST($A66,M$2,M$3,FALSE)</f>
-        <v>1.827389546864212E-2</v>
+        <v>4.0186049308480372E-18</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C102" si="13">_xlfn.NORM.DIST($A66,N$2,N$3,FALSE)</f>
-        <v>0.43706273316241934</v>
+        <v>1.0291746525102078E-5</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D102" si="14">_xlfn.NORM.DIST($A66,O$2,O$3,FALSE)</f>
-        <v>0.21154826085620138</v>
+        <v>1.5006527901377616E-8</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E102" si="15">_xlfn.NORM.DIST($A66,P$2,P$3,FALSE)</f>
-        <v>0.98871218150095486</v>
+        <v>1.5967026664026367E-2</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F102" si="16">_xlfn.NORM.DIST($A66,Q$2,Q$3,FALSE)</f>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255348</v>
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G102" si="17">_xlfn.NORM.DIST($A66,R$2,R$3,FALSE)</f>
-        <v>1.4211405905178409</v>
+        <v>0.41814651470229641</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
@@ -7167,27 +7167,27 @@
       </c>
       <c r="B67">
         <f t="shared" si="12"/>
-        <v>1.5787445900418313E-2</v>
+        <v>1.077462004427533E-18</v>
       </c>
       <c r="C67">
         <f t="shared" si="13"/>
-        <v>0.47370066091785101</v>
+        <v>2.123885021049004E-5</v>
       </c>
       <c r="D67">
         <f t="shared" si="14"/>
-        <v>0.19124324019477679</v>
+        <v>6.0515959736511571E-9</v>
       </c>
       <c r="E67">
         <f t="shared" si="15"/>
-        <v>0.93528165011429298</v>
+        <v>9.6844912161811042E-3</v>
       </c>
       <c r="F67">
         <f t="shared" si="16"/>
-        <v>1.8466340396181411</v>
+        <v>4.415934440272375</v>
       </c>
       <c r="G67">
         <f t="shared" si="17"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
@@ -7196,27 +7196,27 @@
       </c>
       <c r="B68">
         <f t="shared" si="12"/>
-        <v>1.3608423606548141E-2</v>
+        <v>2.8305150138147085E-19</v>
       </c>
       <c r="C68">
         <f t="shared" si="13"/>
-        <v>0.51224698313875727</v>
+        <v>4.2944719446696568E-5</v>
       </c>
       <c r="D68">
         <f t="shared" si="14"/>
-        <v>0.17249556457300708</v>
+        <v>2.3910930535638448E-9</v>
       </c>
       <c r="E68">
         <f t="shared" si="15"/>
-        <v>0.8827345960909202</v>
+        <v>5.7552794515307384E-3</v>
       </c>
       <c r="F68">
         <f t="shared" si="16"/>
-        <v>1.8237464759248199</v>
+        <v>3.947074079064294</v>
       </c>
       <c r="G68">
         <f t="shared" si="17"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -7225,27 +7225,27 @@
       </c>
       <c r="B69">
         <f t="shared" si="12"/>
-        <v>1.1703586497102958E-2</v>
+        <v>7.2856081406277099E-20</v>
       </c>
       <c r="C69">
         <f t="shared" si="13"/>
-        <v>0.55267527145741313</v>
+        <v>8.5079589353961998E-5</v>
       </c>
       <c r="D69">
         <f t="shared" si="14"/>
-        <v>0.15523333105600143</v>
+        <v>9.25677862198159E-10</v>
       </c>
       <c r="E69">
         <f t="shared" si="15"/>
-        <v>0.83125273467333394</v>
+        <v>3.3511422990508116E-3</v>
       </c>
       <c r="F69">
         <f t="shared" si="16"/>
-        <v>1.7970629890142533</v>
+        <v>3.4567246359877593</v>
       </c>
       <c r="G69">
         <f t="shared" si="17"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
@@ -7254,27 +7254,27 @@
       </c>
       <c r="B70">
         <f t="shared" si="12"/>
-        <v>1.004258055426149E-2</v>
+        <v>1.8373969965260188E-20</v>
       </c>
       <c r="C70">
         <f t="shared" si="13"/>
-        <v>0.59494368952653287</v>
+        <v>1.6514972222104673E-4</v>
       </c>
       <c r="D70">
         <f t="shared" si="14"/>
-        <v>0.13938217156743216</v>
+        <v>3.5112368419649821E-10</v>
       </c>
       <c r="E70">
         <f t="shared" si="15"/>
-        <v>0.7810003555999695</v>
+        <v>1.9118603680697906E-3</v>
       </c>
       <c r="F70">
         <f t="shared" si="16"/>
-        <v>1.7667591097301627</v>
+        <v>2.9661365445028616</v>
       </c>
       <c r="G70">
         <f t="shared" si="17"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -7283,27 +7283,27 @@
       </c>
       <c r="B71">
         <f t="shared" si="12"/>
-        <v>8.5977910048888415E-3</v>
+        <v>4.5402215187622286E-21</v>
       </c>
       <c r="C71">
         <f t="shared" si="13"/>
-        <v>0.63899417149470905</v>
+        <v>3.1409943655793512E-4</v>
       </c>
       <c r="D71">
         <f t="shared" si="14"/>
-        <v>0.12486613854147374</v>
+        <v>1.3049600583377989E-10</v>
       </c>
       <c r="E71">
         <f t="shared" si="15"/>
-        <v>0.7321238947872486</v>
+        <v>1.0687012536930291E-3</v>
       </c>
       <c r="F71">
         <f t="shared" si="16"/>
-        <v>1.733032008168969</v>
+        <v>2.4937582040199993</v>
       </c>
       <c r="G71">
         <f t="shared" si="17"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722395</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -7312,27 +7312,27 @@
       </c>
       <c r="B72">
         <f t="shared" si="12"/>
-        <v>7.3441856966243047E-3</v>
+        <v>1.0992283752437741E-21</v>
       </c>
       <c r="C72">
         <f t="shared" si="13"/>
-        <v>0.68475172737556333</v>
+        <v>5.8531993332058526E-4</v>
       </c>
       <c r="D72">
         <f t="shared" si="14"/>
-        <v>0.11160851807381066</v>
+        <v>4.7519423251816039E-11</v>
       </c>
       <c r="E72">
         <f t="shared" si="15"/>
-        <v>0.68475172737556278</v>
+        <v>5.8531993332058309E-4</v>
       </c>
       <c r="F72">
         <f t="shared" si="16"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266861</v>
       </c>
       <c r="G72">
         <f t="shared" si="17"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266906</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
@@ -7341,27 +7341,27 @@
       </c>
       <c r="B73">
         <f t="shared" si="12"/>
-        <v>6.2591537540093011E-3</v>
+        <v>2.6075681387772078E-22</v>
       </c>
       <c r="C73">
         <f t="shared" si="13"/>
-        <v>0.7321238947872486</v>
+        <v>1.0687012536930291E-3</v>
       </c>
       <c r="D73">
         <f t="shared" si="14"/>
-        <v>9.9532567503762701E-2</v>
+        <v>1.6954381451316979E-11</v>
       </c>
       <c r="E73">
         <f t="shared" si="15"/>
-        <v>0.63899417149470905</v>
+        <v>3.1409943655793512E-4</v>
       </c>
       <c r="F73">
         <f t="shared" si="16"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722395</v>
       </c>
       <c r="G73">
         <f t="shared" si="17"/>
-        <v>1.733032008168969</v>
+        <v>2.4937582040199993</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
@@ -7370,27 +7370,27 @@
       </c>
       <c r="B74">
         <f t="shared" si="12"/>
-        <v>5.3223422213421138E-3</v>
+        <v>6.0606645689863085E-23</v>
       </c>
       <c r="C74">
         <f t="shared" si="13"/>
-        <v>0.7810003555999695</v>
+        <v>1.9118603680697906E-3</v>
       </c>
       <c r="D74">
         <f t="shared" si="14"/>
-        <v>8.8562175808973742E-2</v>
+        <v>5.9269271111331903E-12</v>
       </c>
       <c r="E74">
         <f t="shared" si="15"/>
-        <v>0.59494368952653287</v>
+        <v>1.6514972222104673E-4</v>
       </c>
       <c r="F74">
         <f t="shared" si="16"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
       <c r="G74">
         <f t="shared" si="17"/>
-        <v>1.7667591097301627</v>
+        <v>2.9661365445028616</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -7399,27 +7399,27 @@
       </c>
       <c r="B75">
         <f t="shared" si="12"/>
-        <v>4.5154930368999577E-3</v>
+        <v>1.3801989040921581E-23</v>
       </c>
       <c r="C75">
         <f t="shared" si="13"/>
-        <v>0.83125273467333394</v>
+        <v>3.3511422990508116E-3</v>
       </c>
       <c r="D75">
         <f t="shared" si="14"/>
-        <v>7.8622446520490788E-2</v>
+        <v>2.0300842883252696E-12</v>
       </c>
       <c r="E75">
         <f t="shared" si="15"/>
-        <v>0.55267527145741313</v>
+        <v>8.5079589353961998E-5</v>
       </c>
       <c r="F75">
         <f t="shared" si="16"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
       <c r="G75">
         <f t="shared" si="17"/>
-        <v>1.7970629890142533</v>
+        <v>3.4567246359877593</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
@@ -7428,27 +7428,27 @@
       </c>
       <c r="B76">
         <f t="shared" si="12"/>
-        <v>3.8222823346066364E-3</v>
+        <v>3.0796400250676623E-24</v>
       </c>
       <c r="C76">
         <f t="shared" si="13"/>
-        <v>0.8827345960909202</v>
+        <v>5.7552794515307384E-3</v>
       </c>
       <c r="D76">
         <f t="shared" si="14"/>
-        <v>6.9640204056819088E-2</v>
+        <v>6.8129531270131049E-13</v>
       </c>
       <c r="E76">
         <f t="shared" si="15"/>
-        <v>0.51224698313875727</v>
+        <v>4.2944719446696568E-5</v>
       </c>
       <c r="F76">
         <f t="shared" si="16"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
       <c r="G76">
         <f t="shared" si="17"/>
-        <v>1.8237464759248199</v>
+        <v>3.947074079064294</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -7457,27 +7457,27 @@
       </c>
       <c r="B77">
         <f t="shared" si="12"/>
-        <v>3.2281637387270323E-3</v>
+        <v>6.7327901716316234E-25</v>
       </c>
       <c r="C77">
         <f t="shared" si="13"/>
-        <v>0.93528165011429298</v>
+        <v>9.6844912161811042E-3</v>
       </c>
       <c r="D77">
         <f t="shared" si="14"/>
-        <v>6.1544425422277664E-2</v>
+        <v>2.2402350062652667E-13</v>
       </c>
       <c r="E77">
         <f t="shared" si="15"/>
-        <v>0.47370066091785101</v>
+        <v>2.123885021049004E-5</v>
       </c>
       <c r="F77">
         <f t="shared" si="16"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
       <c r="G77">
         <f t="shared" si="17"/>
-        <v>1.8466340396181411</v>
+        <v>4.415934440272375</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
@@ -7486,27 +7486,27 @@
       </c>
       <c r="B78">
         <f t="shared" si="12"/>
-        <v>2.7202170082627937E-3</v>
+        <v>1.4422051816531405E-25</v>
       </c>
       <c r="C78">
         <f t="shared" si="13"/>
-        <v>0.98871218150095486</v>
+        <v>1.5967026664026367E-2</v>
       </c>
       <c r="D78">
         <f t="shared" si="14"/>
-        <v>5.4266600113321108E-2</v>
+        <v>7.2175301193384172E-14</v>
       </c>
       <c r="E78">
         <f t="shared" si="15"/>
-        <v>0.43706273316241934</v>
+        <v>1.0291746525102078E-5</v>
       </c>
       <c r="F78">
         <f t="shared" si="16"/>
-        <v>1.4211405905178409</v>
+        <v>0.41814651470229641</v>
       </c>
       <c r="G78">
         <f t="shared" si="17"/>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255348</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -7515,27 +7515,27 @@
       </c>
       <c r="B79">
         <f t="shared" si="12"/>
-        <v>2.2870031029562847E-3</v>
+        <v>3.0268846478705049E-26</v>
       </c>
       <c r="C79">
         <f t="shared" si="13"/>
-        <v>1.0428277068887588</v>
+        <v>2.5793373014666592E-2</v>
       </c>
       <c r="D79">
         <f t="shared" si="14"/>
-        <v>4.7741021825659265E-2</v>
+        <v>2.2783501922584702E-14</v>
       </c>
       <c r="E79">
         <f t="shared" si="15"/>
-        <v>0.40234514866943977</v>
+        <v>4.8863436628113097E-6</v>
       </c>
       <c r="F79">
         <f t="shared" si="16"/>
-        <v>1.3689510860393777</v>
+        <v>0.29859770251128809</v>
       </c>
       <c r="G79">
         <f t="shared" si="17"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -7544,27 +7544,27 @@
       </c>
       <c r="B80">
         <f t="shared" si="12"/>
-        <v>1.918426483843578E-3</v>
+        <v>6.2244579453436687E-27</v>
       </c>
       <c r="C80">
         <f t="shared" si="13"/>
-        <v>1.097413865681877</v>
+        <v>4.082527081964453E-2</v>
       </c>
       <c r="D80">
         <f t="shared" si="14"/>
-        <v>4.1905016157530305E-2</v>
+        <v>7.0467554173138318E-15</v>
       </c>
       <c r="E80">
         <f t="shared" si="15"/>
-        <v>0.36954639180327642</v>
+        <v>2.2730855556730004E-6</v>
       </c>
       <c r="F80">
         <f t="shared" si="16"/>
-        <v>1.3156913596880986</v>
+        <v>0.20892061217045704</v>
       </c>
       <c r="G80">
         <f t="shared" si="17"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -7573,27 +7573,27 @@
       </c>
       <c r="B81">
         <f t="shared" si="12"/>
-        <v>1.6056052290001992E-3</v>
+        <v>1.254134314315563E-27</v>
       </c>
       <c r="C81">
         <f t="shared" si="13"/>
-        <v>1.1522415453292543</v>
+        <v>6.3312120170543121E-2</v>
       </c>
       <c r="D81">
         <f t="shared" si="14"/>
-        <v>3.669910896568214E-2</v>
+        <v>2.1354763474912227E-15</v>
       </c>
       <c r="E81">
         <f t="shared" si="15"/>
-        <v>0.33865256442425462</v>
+        <v>1.036058799423568E-6</v>
       </c>
       <c r="F81">
         <f t="shared" si="16"/>
-        <v>1.261639622733457</v>
+        <v>0.14322306547697777</v>
       </c>
       <c r="G81">
         <f t="shared" si="17"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
@@ -7602,27 +7602,27 @@
       </c>
       <c r="B82">
         <f t="shared" si="12"/>
-        <v>1.3407493396765441E-3</v>
+        <v>2.4758447689746287E-28</v>
       </c>
       <c r="C82">
         <f t="shared" si="13"/>
-        <v>1.20706823812356</v>
+        <v>9.6201421074718005E-2</v>
       </c>
       <c r="D82">
         <f t="shared" si="14"/>
-        <v>3.2067140358239203E-2</v>
+        <v>6.3406996299110642E-16</v>
       </c>
       <c r="E82">
         <f t="shared" si="15"/>
-        <v>0.30963851521458691</v>
+        <v>4.6268974321914441E-7</v>
       </c>
       <c r="F82">
         <f t="shared" si="16"/>
-        <v>1.2070682381235593</v>
+        <v>9.6201421074717589E-2</v>
       </c>
       <c r="G82">
         <f t="shared" si="17"/>
-        <v>1.8997251447687271</v>
+        <v>5.6991754343061807</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
@@ -7631,27 +7631,27 @@
       </c>
       <c r="B83">
         <f t="shared" si="12"/>
-        <v>1.1170474330169352E-3</v>
+        <v>4.7889424718040773E-29</v>
       </c>
       <c r="C83">
         <f t="shared" si="13"/>
-        <v>1.2616396227334576</v>
+        <v>0.14322306547697847</v>
       </c>
       <c r="D83">
         <f t="shared" si="14"/>
-        <v>2.7956329512303771E-2</v>
+        <v>1.8446604756698106E-16</v>
       </c>
       <c r="E83">
         <f t="shared" si="15"/>
-        <v>0.28246899784764445</v>
+        <v>2.024567161282905E-7</v>
       </c>
       <c r="F83">
         <f t="shared" si="16"/>
-        <v>1.1522415453292538</v>
+        <v>6.3312120170542788E-2</v>
       </c>
       <c r="G83">
         <f t="shared" si="17"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -7660,27 +7660,27 @@
       </c>
       <c r="B84">
         <f t="shared" si="12"/>
-        <v>9.2856186410834917E-4</v>
+        <v>9.0759621411124614E-30</v>
       </c>
       <c r="C84">
         <f t="shared" si="13"/>
-        <v>1.3156913596880992</v>
+        <v>0.20892061217045796</v>
       </c>
       <c r="D84">
         <f t="shared" si="14"/>
-        <v>2.4317295594999903E-2</v>
+        <v>5.2581449251007404E-17</v>
       </c>
       <c r="E84">
         <f t="shared" si="15"/>
-        <v>0.25709984053899049</v>
+        <v>8.679832642604693E-8</v>
       </c>
       <c r="F84">
         <f t="shared" si="16"/>
-        <v>1.0974138656818762</v>
+        <v>4.0825270819644384E-2</v>
       </c>
       <c r="G84">
         <f t="shared" si="17"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
@@ -7689,27 +7689,27 @@
       </c>
       <c r="B85">
         <f t="shared" si="12"/>
-        <v>7.7013219093532775E-4</v>
+        <v>1.6853207911733009E-30</v>
       </c>
       <c r="C85">
         <f t="shared" si="13"/>
-        <v>1.3689510860393783</v>
+        <v>0.29859770251128903</v>
       </c>
       <c r="D85">
         <f t="shared" si="14"/>
-        <v>2.1104040056847618E-2</v>
+        <v>1.4685390816669878E-17</v>
       </c>
       <c r="E85">
         <f t="shared" si="15"/>
-        <v>0.23347911082121808</v>
+        <v>3.6460898117425314E-8</v>
       </c>
       <c r="F85">
         <f t="shared" si="16"/>
-        <v>1.0428277068887581</v>
+        <v>2.5793373014666453E-2</v>
       </c>
       <c r="G85">
         <f t="shared" si="17"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
@@ -7718,27 +7718,27 @@
       </c>
       <c r="B86">
         <f t="shared" si="12"/>
-        <v>6.3728678935659705E-4</v>
+        <v>3.066262479518745E-31</v>
       </c>
       <c r="C86">
         <f t="shared" si="13"/>
-        <v>1.4211405905178409</v>
+        <v>0.41814651470229641</v>
       </c>
       <c r="D86">
         <f t="shared" si="14"/>
-        <v>1.8273895468642155E-2</v>
+        <v>4.0186049308480943E-18</v>
       </c>
       <c r="E86">
         <f t="shared" si="15"/>
-        <v>0.21154826085620154</v>
+        <v>1.5006527901377669E-8</v>
       </c>
       <c r="F86">
         <f t="shared" si="16"/>
-        <v>0.98871218150095486</v>
+        <v>1.5967026664026367E-2</v>
       </c>
       <c r="G86">
         <f t="shared" si="17"/>
-        <v>1.8655737107410502</v>
+        <v>4.8406847965255393</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
@@ -7747,27 +7747,27 @@
       </c>
       <c r="B87">
         <f t="shared" si="12"/>
-        <v>5.2616233968451082E-4</v>
+        <v>5.4660415205132465E-32</v>
       </c>
       <c r="C87">
         <f t="shared" si="13"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
       <c r="D87">
         <f t="shared" si="14"/>
-        <v>1.5787445900418341E-2</v>
+        <v>1.0774620044275482E-18</v>
       </c>
       <c r="E87">
         <f t="shared" si="15"/>
-        <v>0.19124324019477679</v>
+        <v>6.0515959736511778E-9</v>
       </c>
       <c r="F87">
         <f t="shared" si="16"/>
-        <v>0.93528165011429298</v>
+        <v>9.6844912161811042E-3</v>
       </c>
       <c r="G87">
         <f t="shared" si="17"/>
-        <v>1.8466340396181415</v>
+        <v>4.4159344402723804</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
@@ -7776,27 +7776,27 @@
       </c>
       <c r="B88">
         <f t="shared" si="12"/>
-        <v>4.3343083992442271E-4</v>
+        <v>9.5471417588578773E-33</v>
       </c>
       <c r="C88">
         <f t="shared" si="13"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
       <c r="D88">
         <f t="shared" si="14"/>
-        <v>1.3608423606548167E-2</v>
+        <v>2.8305150138147691E-19</v>
       </c>
       <c r="E88">
         <f t="shared" si="15"/>
-        <v>0.17249556457300722</v>
+        <v>2.3910930535638531E-9</v>
       </c>
       <c r="F88">
         <f t="shared" si="16"/>
-        <v>0.8827345960909202</v>
+        <v>5.7552794515307384E-3</v>
       </c>
       <c r="G88">
         <f t="shared" si="17"/>
-        <v>1.8237464759248203</v>
+        <v>3.9470740790642997</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
@@ -7805,27 +7805,27 @@
       </c>
       <c r="B89">
         <f t="shared" si="12"/>
-        <v>3.5623375123100976E-4</v>
+        <v>1.633844284839004E-33</v>
       </c>
       <c r="C89">
         <f t="shared" si="13"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
       <c r="D89">
         <f t="shared" si="14"/>
-        <v>1.1703586497102979E-2</v>
+        <v>7.2856081406278123E-20</v>
       </c>
       <c r="E89">
         <f t="shared" si="15"/>
-        <v>0.15523333105600143</v>
+        <v>9.2567786219816561E-10</v>
       </c>
       <c r="F89">
         <f t="shared" si="16"/>
-        <v>0.83125273467333394</v>
+        <v>3.3511422990508116E-3</v>
       </c>
       <c r="G89">
         <f t="shared" si="17"/>
-        <v>1.7970629890142533</v>
+        <v>3.456724635987765</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
@@ -7834,27 +7834,27 @@
       </c>
       <c r="B90">
         <f t="shared" si="12"/>
-        <v>2.9212284666438966E-4</v>
+        <v>2.7395851457064615E-34</v>
       </c>
       <c r="C90">
         <f t="shared" si="13"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
       <c r="D90">
         <f t="shared" si="14"/>
-        <v>1.0042580554261509E-2</v>
+        <v>1.8373969965260579E-20</v>
       </c>
       <c r="E90">
         <f t="shared" si="15"/>
-        <v>0.13938217156743224</v>
+        <v>3.5112368419650074E-10</v>
       </c>
       <c r="F90">
         <f t="shared" si="16"/>
-        <v>0.7810003555999695</v>
+        <v>1.9118603680697906E-3</v>
       </c>
       <c r="G90">
         <f t="shared" si="17"/>
-        <v>1.7667591097301629</v>
+        <v>2.9661365445028669</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
@@ -7863,27 +7863,27 @@
       </c>
       <c r="B91">
         <f t="shared" si="12"/>
-        <v>2.39007312916766E-4</v>
+        <v>4.500862955476405E-35</v>
       </c>
       <c r="C91">
         <f t="shared" si="13"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722395</v>
       </c>
       <c r="D91">
         <f t="shared" si="14"/>
-        <v>8.5977910048888554E-3</v>
+        <v>4.5402215187622926E-21</v>
       </c>
       <c r="E91">
         <f t="shared" si="15"/>
-        <v>0.12486613854147374</v>
+        <v>1.3049600583378082E-10</v>
       </c>
       <c r="F91">
         <f t="shared" si="16"/>
-        <v>0.7321238947872486</v>
+        <v>1.0687012536930291E-3</v>
       </c>
       <c r="G91">
         <f t="shared" si="17"/>
-        <v>1.7330320081689699</v>
+        <v>2.4937582040200037</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
@@ -7892,27 +7892,27 @@
       </c>
       <c r="B92">
         <f t="shared" si="12"/>
-        <v>1.9510664444019444E-4</v>
+        <v>7.2450873118419857E-36</v>
       </c>
       <c r="C92">
         <f t="shared" si="13"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266906</v>
       </c>
       <c r="D92">
         <f t="shared" si="14"/>
-        <v>7.3441856966243238E-3</v>
+        <v>1.0992283752437897E-21</v>
       </c>
       <c r="E92">
         <f t="shared" si="15"/>
-        <v>0.11160851807381066</v>
+        <v>4.7519423251816039E-11</v>
       </c>
       <c r="F92">
         <f t="shared" si="16"/>
-        <v>0.68475172737556278</v>
+        <v>5.8531993332058309E-4</v>
       </c>
       <c r="G92">
         <f t="shared" si="17"/>
-        <v>1.6960983587816427</v>
+        <v>2.0542551821266906</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
@@ -7921,27 +7921,27 @@
       </c>
       <c r="B93">
         <f t="shared" si="12"/>
-        <v>1.5890886855065862E-4</v>
+        <v>1.1426896795724017E-36</v>
       </c>
       <c r="C93">
         <f t="shared" si="13"/>
-        <v>1.7330320081689699</v>
+        <v>2.4937582040200037</v>
       </c>
       <c r="D93">
         <f t="shared" si="14"/>
-        <v>6.2591537540093011E-3</v>
+        <v>2.6075681387772078E-22</v>
       </c>
       <c r="E93">
         <f t="shared" si="15"/>
-        <v>9.9532567503762701E-2</v>
+        <v>1.6954381451316979E-11</v>
       </c>
       <c r="F93">
         <f t="shared" si="16"/>
-        <v>0.63899417149470861</v>
+        <v>3.1409943655793236E-4</v>
       </c>
       <c r="G93">
         <f t="shared" si="17"/>
-        <v>1.6561920251276123</v>
+        <v>1.6580258143722395</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
@@ -7950,27 +7950,27 @@
       </c>
       <c r="B94">
         <f t="shared" si="12"/>
-        <v>1.2913364695122959E-4</v>
+        <v>1.7658338334881973E-37</v>
       </c>
       <c r="C94">
         <f t="shared" si="13"/>
-        <v>1.7667591097301629</v>
+        <v>2.9661365445028669</v>
       </c>
       <c r="D94">
         <f t="shared" si="14"/>
-        <v>5.3223422213421138E-3</v>
+        <v>6.0606645689863085E-23</v>
       </c>
       <c r="E94">
         <f t="shared" si="15"/>
-        <v>8.8562175808973742E-2</v>
+        <v>5.9269271111331903E-12</v>
       </c>
       <c r="F94">
         <f t="shared" si="16"/>
-        <v>0.59494368952653243</v>
+        <v>1.651497222210456E-4</v>
       </c>
       <c r="G94">
         <f t="shared" si="17"/>
-        <v>1.6135615988418455</v>
+        <v>1.3111881994872583</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
@@ -7979,27 +7979,27 @@
       </c>
       <c r="B95">
         <f t="shared" si="12"/>
-        <v>1.0469981218597746E-4</v>
+        <v>2.6736725032040923E-38</v>
       </c>
       <c r="C95">
         <f t="shared" si="13"/>
-        <v>1.7970629890142533</v>
+        <v>3.456724635987765</v>
       </c>
       <c r="D95">
         <f t="shared" si="14"/>
-        <v>4.5154930368999577E-3</v>
+        <v>1.3801989040921581E-23</v>
       </c>
       <c r="E95">
         <f t="shared" si="15"/>
-        <v>7.8622446520490788E-2</v>
+        <v>2.0300842883252696E-12</v>
       </c>
       <c r="F95">
         <f t="shared" si="16"/>
-        <v>0.5526752714574128</v>
+        <v>8.5079589353961537E-5</v>
       </c>
       <c r="G95">
         <f t="shared" si="17"/>
-        <v>1.568467828963104</v>
+        <v>1.0159576932727639</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
@@ -8008,27 +8008,27 @@
       </c>
       <c r="B96">
         <f t="shared" si="12"/>
-        <v>8.4696915434381785E-5</v>
+        <v>3.9664632331488982E-39</v>
       </c>
       <c r="C96">
         <f t="shared" si="13"/>
-        <v>1.8237464759248203</v>
+        <v>3.9470740790642997</v>
       </c>
       <c r="D96">
         <f t="shared" si="14"/>
-        <v>3.8222823346066364E-3</v>
+        <v>3.0796400250676623E-24</v>
       </c>
       <c r="E96">
         <f t="shared" si="15"/>
-        <v>6.9640204056819088E-2</v>
+        <v>6.8129531270131049E-13</v>
       </c>
       <c r="F96">
         <f t="shared" si="16"/>
-        <v>0.51224698313875694</v>
+        <v>4.2944719446696182E-5</v>
       </c>
       <c r="G96">
         <f t="shared" si="17"/>
-        <v>1.5211809786778678</v>
+        <v>0.77129952161697224</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
@@ -8037,27 +8037,27 @@
       </c>
       <c r="B97">
         <f t="shared" si="12"/>
-        <v>6.8360383563704022E-5</v>
+        <v>5.7654804467263554E-40</v>
       </c>
       <c r="C97">
         <f t="shared" si="13"/>
-        <v>1.8466340396181415</v>
+        <v>4.4159344402723804</v>
       </c>
       <c r="D97">
         <f t="shared" si="14"/>
-        <v>3.2281637387270323E-3</v>
+        <v>6.7327901716316234E-25</v>
       </c>
       <c r="E97">
         <f t="shared" si="15"/>
-        <v>6.1544425422277664E-2</v>
+        <v>2.2402350062652667E-13</v>
       </c>
       <c r="F97">
         <f t="shared" si="16"/>
-        <v>0.47370066091785051</v>
+        <v>2.123885021048989E-5</v>
       </c>
       <c r="G97">
         <f t="shared" si="17"/>
-        <v>1.4719781467574591</v>
+        <v>0.57372972058433025</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
@@ -8066,27 +8066,27 @@
       </c>
       <c r="B98">
         <f t="shared" si="12"/>
-        <v>5.5049907407015393E-5</v>
+        <v>8.2111582375675724E-41</v>
       </c>
       <c r="C98">
         <f t="shared" si="13"/>
-        <v>1.8655737107410497</v>
+        <v>4.8406847965255348</v>
       </c>
       <c r="D98">
         <f t="shared" si="14"/>
-        <v>2.7202170082627937E-3</v>
+        <v>1.4422051816531405E-25</v>
       </c>
       <c r="E98">
         <f t="shared" si="15"/>
-        <v>5.4266600113321156E-2</v>
+        <v>7.2175301193385195E-14</v>
       </c>
       <c r="F98">
         <f t="shared" si="16"/>
-        <v>0.43706273316241934</v>
+        <v>1.0291746525102078E-5</v>
       </c>
       <c r="G98">
         <f t="shared" si="17"/>
-        <v>1.4211405905178414</v>
+        <v>0.41814651470229802</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
@@ -8095,27 +8095,27 @@
       </c>
       <c r="B99">
         <f t="shared" si="12"/>
-        <v>4.4230708907724652E-5</v>
+        <v>1.1458036114057351E-41</v>
       </c>
       <c r="C99">
         <f t="shared" si="13"/>
-        <v>1.8804387615726716</v>
+        <v>5.1990960245069076</v>
       </c>
       <c r="D99">
         <f t="shared" si="14"/>
-        <v>2.2870031029562847E-3</v>
+        <v>3.0268846478705049E-26</v>
       </c>
       <c r="E99">
         <f t="shared" si="15"/>
-        <v>4.774102182565939E-2</v>
+        <v>2.2783501922585024E-14</v>
       </c>
       <c r="F99">
         <f t="shared" si="16"/>
-        <v>0.40234514866943977</v>
+        <v>4.8863436628113097E-6</v>
       </c>
       <c r="G99">
         <f t="shared" si="17"/>
-        <v>1.3689510860393783</v>
+        <v>0.29859770251128903</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
@@ -8124,27 +8124,27 @@
       </c>
       <c r="B100">
         <f t="shared" si="12"/>
-        <v>3.545736128871424E-5</v>
+        <v>1.5665807991271464E-42</v>
       </c>
       <c r="C100">
         <f t="shared" si="13"/>
-        <v>1.8911291180896206</v>
+        <v>5.4712394277744592</v>
       </c>
       <c r="D100">
         <f t="shared" si="14"/>
-        <v>1.918426483843578E-3</v>
+        <v>6.2244579453436687E-27</v>
       </c>
       <c r="E100">
         <f t="shared" si="15"/>
-        <v>4.1905016157530332E-2</v>
+        <v>7.046755417313932E-15</v>
       </c>
       <c r="F100">
         <f t="shared" si="16"/>
-        <v>0.36954639180327642</v>
+        <v>2.2730855556730004E-6</v>
       </c>
       <c r="G100">
         <f t="shared" si="17"/>
-        <v>1.3156913596880992</v>
+        <v>0.20892061217045796</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
@@ -8153,27 +8153,27 @@
       </c>
       <c r="B101">
         <f t="shared" si="12"/>
-        <v>2.8359863117987185E-5</v>
+        <v>2.0986125183915247E-43</v>
       </c>
       <c r="C101">
         <f t="shared" si="13"/>
-        <v>1.8975724819456334</v>
+        <v>5.6413162847180143</v>
       </c>
       <c r="D101">
         <f t="shared" si="14"/>
-        <v>1.6056052290001992E-3</v>
+        <v>1.254134314315563E-27</v>
       </c>
       <c r="E101">
         <f t="shared" si="15"/>
-        <v>3.6699108965682237E-2</v>
+        <v>2.1354763474912531E-15</v>
       </c>
       <c r="F101">
         <f t="shared" si="16"/>
-        <v>0.33865256442425462</v>
+        <v>1.036058799423568E-6</v>
       </c>
       <c r="G101">
         <f t="shared" si="17"/>
-        <v>1.2616396227334576</v>
+        <v>0.14322306547697847</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
@@ -8182,27 +8182,27 @@
       </c>
       <c r="B102">
         <f t="shared" si="12"/>
-        <v>2.2631693526306676E-5</v>
+        <v>2.7545367204976972E-44</v>
       </c>
       <c r="C102">
         <f t="shared" si="13"/>
-        <v>1.8997251447687271</v>
+        <v>5.6991754343061807</v>
       </c>
       <c r="D102">
         <f t="shared" si="14"/>
-        <v>1.3407493396765441E-3</v>
+        <v>2.4758447689746287E-28</v>
       </c>
       <c r="E102">
         <f t="shared" si="15"/>
-        <v>3.2067140358239259E-2</v>
+        <v>6.3406996299110642E-16</v>
       </c>
       <c r="F102">
         <f t="shared" si="16"/>
-        <v>0.30963851521458691</v>
+        <v>4.6268974321914441E-7</v>
       </c>
       <c r="G102">
         <f t="shared" si="17"/>
-        <v>1.20706823812356</v>
+        <v>9.6201421074718005E-2</v>
       </c>
     </row>
   </sheetData>

--- a/DataSets/makeGaussian.xlsx
+++ b/DataSets/makeGaussian.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26010" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>m</t>
     <phoneticPr fontId="1"/>
@@ -4331,7 +4332,4236 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.6141740710050052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6654679994992365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7141012910367004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7597498437532542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.802103177420179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8408679359369136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8757712622592613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9065639916052715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9330236107547847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9549569343259576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9722024530255344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9846323139547464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9921538990093064</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9947109741166795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9922843893632036</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9848923178177555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9725900288856348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9554692001466432</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9336567796630564</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9073134185067124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8766315005775718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8418328035085707</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8031658304294689</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7609028574716825</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7153367460361097</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6667775719413915</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.615549125572866</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5619853380425288</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5064266881552699</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4492166436911378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3906981882173848</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3312104814203423</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2710856968986326</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.210646076605171</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1502012357978701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0900457465986546</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0304570222125276</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97169351766873491</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91399325675672716</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85757268877574278</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8026258729232667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74932398272596701</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69781511796335605</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64822440712866458</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60065437967447133</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55518558414515029</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51187742582832774</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.4707691957695308</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.43188126187751913</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39521639237653683</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.36076118199656215</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.32848755198274571</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.29835429619066789</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.27030864714793618</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.24428783793360487</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.22022063798126346</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1980288433755521</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.17762870481331569</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.15893227907100529</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.14184869249573648</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.12628530766111096</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.11214878685005036</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9346048402656664E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.7785114162526059E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.7375848243121367E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.8030589097593325E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.9664678399204564E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2196891520464347E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5549775438739129E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.9649900701386263E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.4428034665978165E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.9819243606282176E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5762931460630526E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2202823016498719E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9086899195163747E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6367291845448394E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4000145097925199E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.1945449892066896E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0166857789126817E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.6314796419804194E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.3096741270060042E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.1748305676420385E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.2031499078263556E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.3734271373153683E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.6668379390856179E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.0667318288496461E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.5584335935514616E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1290544132254005E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7673136709763129E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4633721199072279E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2086767832907217E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.9581771391908441E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1839652839039653E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.7090645953167853E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.4862353225058078E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4750836160053288E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.6411799335627285E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9552715351175031E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3925824047370199E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.9321937910627264E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.556498561473383E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65D2-41B6-9E04-F91E8E291F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.92651915088235981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98447137614760727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0434365614401604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1031721022672667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.163415257128436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2238846924858671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2842823523369316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.344295641368451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4035999044712588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.46186117922251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5187391919458073</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.57389056228127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6269721759838787</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6776446810578503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.725576058457112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7704452155531238</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8119455484901119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8497884184922735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8837064872122871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9134568573443347</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9388239669695053</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9596221894305497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9756980948924703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9869323350542576</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.993241118629284</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.99457725207871</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9909307275159691</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9823288475376573</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9688358848027832</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9505522822977484</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9276134082068499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9001878869792317</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8684755353734226</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8327049388132064</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7931307091642061</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7500304699207225</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7037016186823175</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.654457919630705</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6026259804484349</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5485416687383138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4925465225209344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.434984207848085</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3761970740379694</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3165228536021287</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2562915497009464</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1958225490573888</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1354219928117959</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0753804319562434</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0159707878909621</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95744663244275008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.90004079551701743</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.84396430255392518</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.78940563824688348</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.7365303276664984</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6854808211072374</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.63637666471256504</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58931493529377155</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.54437091477626953</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.50159897740444281</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.4610336612142254</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42269089432701779</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.38656934629992151</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.35265187504329465</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.3209070406339673</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.29129065864929127</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.26374736735531945</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.23821218512967707</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.21461203681219682</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.19286723018055821</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17289286637270157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1546001707551653</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13789773340459241</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.12269265097259509</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.1088915641933576</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.640158762783077E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.5131130385207074E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.499060849652206E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.5893051319498033E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7754605818191904E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.0494943782469902E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.4037578033721922E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.831009441268609E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3244306875399823E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8776343350256979E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.4846670151815735E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1400062726090949E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8385530339447342E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5756202041123015E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3469180849915906E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1485372659934922E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.7692958486651788E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.2888770214942301E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.0152377570742476E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.9224766422891345E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9874503169334023E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.1895566972141324E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.5105230225456244E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9342008785754525E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4463698959038323E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0345514118331617E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6878330135347882E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65D2-41B6-9E04-F91E8E291F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>one</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.47598082960515509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51737620130100725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56096749601764129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60671287554428666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6545502440526425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70439624228932696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75614543686394864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80966973259480401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86481803399790735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92141617944677234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97926716829854288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0381516974032883</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0978290189325783</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1580381264444408</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2184992706260924</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2789158003218513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3389763183748737</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3983571356141695</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4567250001388947</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5137400730331494</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5690591159322274</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6223388506003731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6732394460104187</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7214280844677685</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7665825552125523</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8083948217646939</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8465745081272524</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.880852248890424</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9109828493132397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9367482036064114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.957959922874128</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9744616284432501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9861308715366339</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9928806463293112</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9946604702352153</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9914570126618056</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9832942612782092</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.97023322289597</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9523711641799602</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9298404054085756</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9028066882082417</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8714671454268512</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8360479079260712</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7968013889223997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7540032914709556</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7079493886672708</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6589521290697937</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6073371216756294</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5534395554984606</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4976006084125926</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4401638984793372</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3814720285251942</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3218632713816749</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2616684390297581</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2012079740394883</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1407892962907209</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0807044321462453</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.021227947168956</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.96261519727589606</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.90510090704508783</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84889807786993654</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.79419722291340733</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.74116592045971019</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.68994867238851043</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64066705018235748</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.59342010718039007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54828503275017448</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.50531802168608619</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.46455533046046871</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.42601449093989097</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.38969565180504318</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35558301813788296</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.32364636041119665</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.29384256537257436</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26611720298917119</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.24040608563969906</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.21663679803198058</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.19473017881444218</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17460173746654095</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.15616299272839923</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.13932272150121122</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12398810976080857</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.11006579952787097</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.7462828287968511E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.6087459419295062E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.5849904139853139E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.6662937211101989E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.8442410121091151E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.110766671317344E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.4581867228890133E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.8792227503279472E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.36701805999223E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.9151468517361397E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5176171756785215E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1688684533646009E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8637643264977865E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5975815691832564E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3659957624546614E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1650643848865667E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9120792235111149E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.4118954532954506E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65D2-41B6-9E04-F91E8E291F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>two</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.15947386983471523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17822052506038041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19867360321835895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22092093963736117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2450461360724582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27112720674126267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29923514825538178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32943244768671842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36177154567747455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39629327410101983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43302529023944047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47198053169044962</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51315571817758154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55652992803954504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60206327834601059</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64969573826126703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69934610539436803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75091117438412469</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.80426512583060428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85925916187622298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91572141224903048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97345713141514445</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0322492036712101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0918589685844311</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1520273742189551</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2124764601529825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2729111664878174</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3330214589902132</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3924847543179857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4509686230913383</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5081337425310486</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5636370646353204</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6171351605549056</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.668287697091493</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7167609972191096</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7622316333312318</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8043899996497672</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8429438089781847</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8776214587990991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9081752126403497</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9343841446699401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9560567986080908</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9730335162152317</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9851883957519383</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9924308468091581</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.994706714649912</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9919989545425321</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9843278443397301</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9717507315948237</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9543613196266321</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9322885049658425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9056947863588252</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.874774272798212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8397503247336597</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8008728685481425</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7584154294421515</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7126719319509676</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6639533203549388</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6125840531829743</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5588985268366491</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5032374830856738</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4459444538410946</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3873622942618002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3278298519767266</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2676788161134758</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2072307850339974</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1467945863222122</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0866638767880195</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0271150441923969</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96840542620488068</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.91077185591950716</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85442953721290049</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.79957124745277997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74636685966754091</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69496317136316443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.64548402280088157</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.59803068378788149</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.55268248492554906</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.50949766682834119</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.4685144190767323</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.4297520795882307</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.39321246465460835</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.35888130006111096</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.32672972442317882</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.29671583708766724</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.26878626458153321</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.24287772157990384</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.21891854463357521</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.19683017936958067</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.17652860448558474</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.15792567853120992</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.14093039814372915</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.12545005902473169</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.11139131345839093</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.8661120538375557E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.7167587454825737E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.6820702168629615E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.753295954884081E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.9219884559185927E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.1800457346856781E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.5197446112965965E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-65D2-41B6-9E04-F91E8E291F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>three</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>6.7800084774142816E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2694173433858027E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0060830865927495E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2209757807100867E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4780683395518956E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7848274775240961E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1498701808435518E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.583107571791152E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0959006310972178E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7012276403717696E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4138629539559448E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2505664147802994E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2302823905833289E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3743470249302322E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7067018727839725E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0254111625159957E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2046383125412835E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4116582346425474E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6501245440717318E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9240579403546367E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.237864731377958E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5963532552047718E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0047475855904678E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4686978574721333E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.994286505191201E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5880296709323302E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2568730159766541E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.008181155092044E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8497199369362508E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.7896308128917749E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8363965753091592E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9987978055240997E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11285859453750369</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12706787078172532</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14270892399937898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15987507984392244</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17865891036310624</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19915116496835669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.22143959850401448</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24560770288355818</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.27173335128761383</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29988736654632775</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33013202800566388</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36251953384561386</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.39709043841424851</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43387208659626081</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.4728770694759391</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.51410172750851024</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5575247290068901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60310575291186763</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.6507843054760637</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.7004787005961417</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.75208523302338759</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.80547757253128827</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.86050640529496514</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.91699934623159363</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.97476114287041349</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0335741874907296</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0931993498300445</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1533771376843276</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2138291872786706</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.274260079476397</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3343594718304692</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3938045302882505</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4522626381748216</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5093943540437049</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5648565842426947</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6183059307416976</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6694021700493429</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.71781181503715</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7632117083127559</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8052925935389728</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8437626098650159</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8783506544786768</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9088095592369061</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9349190293933014</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.9564882955928602</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9733584344974604</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.985404318563277</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9925361615116608</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9947006327928356</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9918815216922008</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9840999395110219</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9714140562942117</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9539183766978236</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9317425676059246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.905049857841445</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8740350375970192</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8389220918806106</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7999615081843223</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7574273036210493</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7116138208336773</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.66283234499224</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.6114075961099179</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5576741517110746</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.501972854583506</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4446472589794277</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3860401662573083</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3264902976639825</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2663291478477809</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.205878057889253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-65D2-41B6-9E04-F91E8E291F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>four</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.6743463013520605E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2989630016294055E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0593033781591412E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9824143219297321E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1001769390340405E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4500517386874197E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0759147789384615E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1028991285258216E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3368892823250511E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6164763442801041E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9496539283091869E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3456324901940401E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8149888035621934E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3698272575510661E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0239527237750051E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7930544678947209E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6949002658441767E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7495395258412262E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9795138149718597E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.410072744909851E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1069392688153717E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2988795278586642E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5202962104515267E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7750141436861492E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0672342260111366E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4015510301280046E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7829680196892529E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2169097416161314E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7092303088337705E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2662174483411947E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8945913588984834E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6014976034148498E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3944932555855233E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2815255306513643E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.2709021584512959E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3712528051377711E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10591480919717439</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11940705474309081</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.13428192183605903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15063273929906643</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.16855260285069026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1881333620900828</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2094645021436205</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.23263192516349526</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25771663932556732</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28479336555468809</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.31392907486352534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.34518147187147508</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.37859744271266299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.41421148808001307</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.45204416451525969</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49210055916942985</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53436882505069094</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57881880517381212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.62540077495852586</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.67404433262928243</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.72465746719080304</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.77712583274744018</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83131225646707962</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88705650534421288</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.94417533408989784</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0024628329842853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0616910904039083</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1216111800335611</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1819544775620965</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2424343060312906</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3027479030617297</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3625786970383056</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4215988731309983</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4794722038934358</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.535857113266782</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5904099372657448</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6427883395803136</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6926548359278391</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7396803773612062</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7835479399910923</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8239560668065209</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8606223065491496</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8932864949598973</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9217138251922654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.945697656768117</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9650620161039036</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9796637462958608</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9893942694326363</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9941809310898557</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9939879037184018</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9888166332136317</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9787058208793045</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9637309411009323</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9440033031371486</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9196686733432777</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8909054816824025</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8579226433898035</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8209570329847948</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7802706533364965</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7361475470753613</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6888905012134732</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6388175983332929</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.586258669094031</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5315517010823154</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4750392582221601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-65D2-41B6-9E04-F91E8E291F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2091331152"/>
+        <c:axId val="2091322416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2091331152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091322416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091322416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091331152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4887,6 +9117,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4906,6 +9652,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5187,7 +9970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -8211,4 +12994,3034 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:G33" si="0">_xlfn.NORM.DIST($A2,M$2,M$3,FALSE)</f>
+        <v>1.6141740710050052</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>0.92651915088235981</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.47598082960515509</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.15947386983471523</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>6.7800084774142816E-4</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2.6743463013520605E-4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.130131</v>
+      </c>
+      <c r="N2">
+        <v>0.24768043000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.33857077000000002</v>
+      </c>
+      <c r="P2">
+        <v>0.44956642000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.79934280000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.84461280000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>1.6654679994992365</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.98447137614760727</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.51737620130100725</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.17822052506038041</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>8.2694173433858027E-4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>3.2989630016294055E-4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3">
+        <v>0.2</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.2</v>
+      </c>
+      <c r="R3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.7141012910367004</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.0434365614401604</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.56096749601764129</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.19867360321835895</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.0060830865927495E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4.0593033781591412E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.7597498437532542</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.1031721022672667</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.60671287554428666</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.22092093963736117</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.2209757807100867E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.9824143219297321E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.802103177420179</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.163415257128436</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.6545502440526425</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.2450461360724582</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.4780683395518956E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.1001769390340405E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.8408679359369136</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.2238846924858671</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.70439624228932696</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.27112720674126267</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.7848274775240961E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>7.4500517386874197E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.8757712622592613</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.2842823523369316</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.75614543686394864</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.29923514825538178</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.1498701808435518E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9.0759147789384615E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.9065639916052715</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.344295641368451</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.80966973259480401</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.32943244768671842</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.583107571791152E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.1028991285258216E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.9330236107547847</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.4035999044712588</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.86481803399790735</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.36177154567747455</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.0959006310972178E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.3368892823250511E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.9549569343259576</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.46186117922251</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.92141617944677234</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.39629327410101983</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.7012276403717696E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.6164763442801041E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.9722024530255344</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.5187391919458073</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.97926716829854288</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.43302529023944047</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4.4138629539559448E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.9496539283091869E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.9846323139547464</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.57389056228127</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.0381516974032883</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.47198053169044962</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5.2505664147802994E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2.3456324901940401E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.9921538990093064</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.6269721759838787</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.0978290189325783</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.51315571817758154</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6.2302823905833289E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.8149888035621934E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.9947109741166795</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.6776446810578503</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.1580381264444408</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.55652992803954504</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>7.3743470249302322E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.3698272575510661E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.9922843893632036</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.725576058457112</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.2184992706260924</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.60206327834601059</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>8.7067018727839725E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4.0239527237750051E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.9848923178177555</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.7704452155531238</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.2789158003218513</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.64969573826126703</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.0254111625159957E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>4.7930544678947209E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.9725900288856348</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.8119455484901119</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.3389763183748737</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.69934610539436803</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.2046383125412835E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>5.6949002658441767E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.9554692001466432</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.8497884184922735</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.3983571356141695</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.75091117438412469</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.4116582346425474E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>6.7495395258412262E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.9336567796630564</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.8837064872122871</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.4567250001388947</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.80426512583060428</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.6501245440717318E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>7.9795138149718597E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.9073134185067124</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.9134568573443347</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.5137400730331494</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.85925916187622298</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.9240579403546367E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>9.410072744909851E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.8766315005775718</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.9388239669695053</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.5690591159322274</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.91572141224903048</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2.237864731377958E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1.1069392688153717E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.8418328035085707</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.9596221894305497</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.6223388506003731</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.97345713141514445</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2.5963532552047718E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.2988795278586642E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.8031658304294689</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.9756980948924703</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.6732394460104187</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.0322492036712101</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3.0047475855904678E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.5202962104515267E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.7609028574716825</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.9869323350542576</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.7214280844677685</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.0918589685844311</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3.4686978574721333E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.7750141436861492E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.7153367460361097</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.993241118629284</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.7665825552125523</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.1520273742189551</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3.994286505191201E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>2.0672342260111366E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.6667775719413915</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.99457725207871</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.8083948217646939</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.2124764601529825</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>4.5880296709323302E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2.4015510301280046E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.615549125572866</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.9909307275159691</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.8465745081272524</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.2729111664878174</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>5.2568730159766541E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2.7829680196892529E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.5619853380425288</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.9823288475376573</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.880852248890424</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.3330214589902132</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>6.008181155092044E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3.2169097416161314E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.5064266881552699</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.9688358848027832</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.9109828493132397</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.3924847543179857</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>6.8497199369362508E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3.7092303088337705E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.4492166436911378</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.9505522822977484</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.9367482036064114</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.4509686230913383</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>7.7896308128917749E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>4.2662174483411947E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.3906981882173848</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.9276134082068499</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.957959922874128</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.5081337425310486</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>8.8363965753091592E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>4.8945913588984834E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.3312104814203423</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.9001878869792317</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.9744616284432501</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.5636370646353204</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>9.9987978055240997E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>5.6014976034148498E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:G65" si="1">_xlfn.NORM.DIST($A34,M$2,M$3,FALSE)</f>
+        <v>1.2710856968986326</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>1.8684755353734226</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1.9861308715366339</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.6171351605549056</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.11285859453750369</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>6.3944932555855233E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>1.210646076605171</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1.8327049388132064</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1.9928806463293112</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.668287697091493</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.12706787078172532</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>7.2815255306513643E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>1.1502012357978701</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>1.7931307091642061</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1.9946604702352153</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.7167609972191096</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.14270892399937898</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>8.2709021584512959E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>1.0900457465986546</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>1.7500304699207225</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1.9914570126618056</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1.7622316333312318</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.15987507984392244</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>9.3712528051377711E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>1.0304570222125276</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1.7037016186823175</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1.9832942612782092</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1.8043899996497672</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.17865891036310624</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.10591480919717439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0.97169351766873491</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>1.654457919630705</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1.97023322289597</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>1.8429438089781847</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.19915116496835669</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.11940705474309081</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0.91399325675672716</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>1.6026259804484349</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1.9523711641799602</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1.8776214587990991</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.22143959850401448</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.13428192183605903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>0.85757268877574278</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>1.5485416687383138</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>1.9298404054085756</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>1.9081752126403497</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0.24560770288355818</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.15063273929906643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>0.8026258729232667</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>1.4925465225209344</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1.9028066882082417</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1.9343841446699401</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0.27173335128761383</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.16855260285069026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>0.74932398272596701</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>1.434984207848085</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1.8714671454268512</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1.9560567986080908</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0.29988736654632775</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.1881333620900828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>0.69781511796335605</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>1.3761970740379694</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1.8360479079260712</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>1.9730335162152317</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0.33013202800566388</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.2094645021436205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>0.64822440712866458</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>1.3165228536021287</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1.7968013889223997</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1.9851883957519383</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.36251953384561386</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.23263192516349526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>0.60065437967447133</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>1.2562915497009464</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1.7540032914709556</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>1.9924308468091581</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.39709043841424851</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.25771663932556732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>0.55518558414515029</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>1.1958225490573888</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1.7079493886672708</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>1.994706714649912</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0.43387208659626081</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.28479336555468809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>0.51187742582832774</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>1.1354219928117959</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1.6589521290697937</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>1.9919989545425321</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.4728770694759391</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.31392907486352534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>0.4707691957695308</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>1.0753804319562434</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1.6073371216756294</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>1.9843278443397301</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0.51410172750851024</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.34518147187147508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>0.43188126187751913</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>1.0159707878909621</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>1.5534395554984606</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>1.9717507315948237</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0.5575247290068901</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.37859744271266299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>0.39521639237653683</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.95744663244275008</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>1.4976006084125926</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1.9543613196266321</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.60310575291186763</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.41421148808001307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>0.36076118199656215</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.90004079551701743</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>1.4401638984793372</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>1.9322885049658425</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.6507843054760637</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.45204416451525969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>0.32848755198274571</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.84396430255392518</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>1.3814720285251942</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>1.9056947863588252</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0.7004787005961417</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.49210055916942985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>0.29835429619066789</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.78940563824688348</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>1.3218632713816749</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>1.874774272798212</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.75208523302338759</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.53436882505069094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>0.27030864714793618</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.7365303276664984</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>1.2616684390297581</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>1.8397503247336597</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.80547757253128827</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.57881880517381212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>0.24428783793360487</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.6854808211072374</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>1.2012079740394883</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>1.8008728685481425</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.86050640529496514</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.62540077495852586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>0.22022063798126346</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.63637666471256504</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>1.1407892962907209</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>1.7584154294421515</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.91699934623159363</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.67404433262928243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>0.1980288433755521</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.58931493529377155</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>1.0807044321462453</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>1.7126719319509676</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.97476114287041349</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.72465746719080304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>0.17762870481331569</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.54437091477626953</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>1.021227947168956</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>1.6639533203549388</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>1.0335741874907296</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.77712583274744018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>0.15893227907100529</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.50159897740444281</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.96261519727589606</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>1.6125840531829743</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>1.0931993498300445</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.83131225646707962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>0.14184869249573648</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.4610336612142254</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.90510090704508783</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>1.5588985268366491</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>1.1533771376843276</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0.88705650534421288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>0.12628530766111096</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.42269089432701779</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0.84889807786993654</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>1.5032374830856738</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>1.2138291872786706</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0.94417533408989784</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>0.11214878685005036</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.38656934629992151</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.79419722291340733</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>1.4459444538410946</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>1.274260079476397</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1.0024628329842853</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>9.9346048402656664E-2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.35265187504329465</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0.74116592045971019</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>1.3873622942618002</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>1.3343594718304692</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1.0616910904039083</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>8.7785114162526059E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.3209070406339673</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.68994867238851043</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>1.3278298519767266</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>1.3938045302882505</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1.1216111800335611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:G102" si="2">_xlfn.NORM.DIST($A66,M$2,M$3,FALSE)</f>
+        <v>7.7375848243121367E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>0.29129065864929127</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0.64066705018235748</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>1.2676788161134758</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>1.4522626381748216</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>1.1819544775620965</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="2"/>
+        <v>6.8030589097593325E-2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>0.26374736735531945</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>0.59342010718039007</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>1.2072307850339974</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>1.5093943540437049</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>1.2424343060312906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>5.9664678399204564E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>0.23821218512967707</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>0.54828503275017448</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>1.1467945863222122</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>1.5648565842426947</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>1.3027479030617297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>5.2196891520464347E-2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>0.21461203681219682</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>0.50531802168608619</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>1.0866638767880195</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>1.6183059307416976</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>1.3625786970383056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>4.5549775438739129E-2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>0.19286723018055821</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>0.46455533046046871</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>1.0271150441923969</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>1.6694021700493429</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>1.4215988731309983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>3.9649900701386263E-2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>0.17289286637270157</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>0.42601449093989097</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>0.96840542620488068</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>1.71781181503715</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>1.4794722038934358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>3.4428034665978165E-2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>0.1546001707551653</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>0.38969565180504318</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>0.91077185591950716</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>1.7632117083127559</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>1.535857113266782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>2.9819243606282176E-2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>0.13789773340459241</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>0.35558301813788296</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>0.85442953721290049</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>1.8052925935389728</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>1.5904099372657448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>2.5762931460630526E-2</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>0.12269265097259509</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>0.32364636041119665</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>0.79957124745277997</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>1.8437626098650159</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>1.6427883395803136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>2.2202823016498719E-2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>0.1088915641933576</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>0.29384256537257436</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>0.74636685966754091</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>1.8783506544786768</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>1.6926548359278391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>1.9086899195163747E-2</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>9.640158762783077E-2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>0.26611720298917119</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>0.69496317136316443</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>1.9088095592369061</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>1.7396803773612062</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>1.6367291845448394E-2</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>8.5131130385207074E-2</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>0.24040608563969906</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>0.64548402280088157</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>1.9349190293933014</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>1.7835479399910923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>1.4000145097925199E-2</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>7.499060849652206E-2</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>0.21663679803198058</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>0.59803068378788149</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>1.9564882955928602</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>1.8239560668065209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>1.1945449892066896E-2</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>6.5893051319498033E-2</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>0.19473017881444218</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>0.55268248492554906</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>1.9733584344974604</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>1.8606223065491496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>1.0166857789126817E-2</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>5.7754605818191904E-2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>0.17460173746654095</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>0.50949766682834119</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>1.985404318563277</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>1.8932864949598973</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>8.6314796419804194E-3</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>5.0494943782469902E-2</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>0.15616299272839923</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>0.4685144190767323</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>1.9925361615116608</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>1.9217138251922654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>7.3096741270060042E-3</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>4.4037578033721922E-2</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>0.13932272150121122</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>0.4297520795882307</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>1.9947006327928356</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>1.945697656768117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>0.81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>6.1748305676420385E-3</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>3.831009441268609E-2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>0.12398810976080857</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>0.39321246465460835</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>1.9918815216922008</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>1.9650620161039036</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>5.2031499078263556E-3</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>3.3244306875399823E-2</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>0.11006579952787097</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>0.35888130006111096</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>1.9840999395110219</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>1.9796637462958608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>4.3734271373153683E-3</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>2.8776343350256979E-2</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>9.7462828287968511E-2</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>0.32672972442317882</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>1.9714140562942117</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>1.9893942694326363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>3.6668379390856179E-3</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>2.4846670151815735E-2</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>8.6087459419295062E-2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>0.29671583708766724</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>1.9539183766978236</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>1.9941809310898557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>3.0667318288496461E-3</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>2.1400062726090949E-2</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>7.5849904139853139E-2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>0.26878626458153321</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>1.9317425676059246</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>1.9939879037184018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>2.5584335935514616E-3</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>1.8385530339447342E-2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>6.6662937211101989E-2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>0.24287772157990384</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>1.905049857841445</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>1.9888166332136317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>2.1290544132254005E-3</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>1.5756202041123015E-2</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>5.8442410121091151E-2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>0.21891854463357521</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>1.8740350375970192</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>1.9787058208793045</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>1.7673136709763129E-3</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>1.3469180849915906E-2</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>5.110766671317344E-2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>0.19683017936958067</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>1.8389220918806106</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>1.9637309411009323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>1.4633721199072279E-3</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>1.1485372659934922E-2</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>4.4581867228890133E-2</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>0.17652860448558474</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>1.7999615081843223</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>1.9440033031371486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>1.2086767832907217E-3</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>9.7692958486651788E-3</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>3.8792227503279472E-2</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>0.15792567853120992</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>1.7574273036210493</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>1.9196686733432777</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>9.9581771391908441E-4</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>8.2888770214942301E-3</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>3.36701805999223E-2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>0.14093039814372915</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>1.7116138208336773</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>1.8909054816824025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>8.1839652839039653E-4</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>7.0152377570742476E-3</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>2.9151468517361397E-2</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>0.12545005902473169</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>1.66283234499224</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>1.8579226433898035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>6.7090645953167853E-4</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>5.9224766422891345E-3</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>2.5176171756785215E-2</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>0.11139131345839093</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>1.6114075961099179</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>1.8209570329847948</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>5.4862353225058078E-4</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>4.9874503169334023E-3</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>2.1688684533646009E-2</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>9.8661120538375557E-2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>1.5576741517110746</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>1.7802706533364965</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>4.4750836160053288E-4</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>4.1895566972141324E-3</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>1.8637643264977865E-2</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>8.7167587454825737E-2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>1.501972854583506</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>1.7361475470753613</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>3.6411799335627285E-4</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>3.5105230225456244E-3</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>1.5975815691832564E-2</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>7.6820702168629615E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>1.4446472589794277</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>1.6888905012134732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>2.9552715351175031E-4</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>2.9342008785754525E-3</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>1.3659957624546614E-2</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>6.753295954884081E-2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>1.3860401662573083</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>1.6388175983332929</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>2.3925824047370199E-4</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>2.4463698959038323E-3</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>1.1650643848865667E-2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>5.9219884559185927E-2</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>1.3264902976639825</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>1.586258669094031</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>1.9321937910627264E-4</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>2.0345514118331617E-3</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>9.9120792235111149E-3</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>5.1800457346856781E-2</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>1.2663291478477809</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>1.5315517010823154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>1.556498561473383E-4</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>1.6878330135347882E-3</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>8.4118954532954506E-3</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>4.5197446112965965E-2</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>1.205878057889253</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>1.4750392582221601</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>